--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E6DE2D-D849-7645-97D3-7D22617FCD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9E0CD655-8585-8C4C-905E-085305CBE540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="6780" windowWidth="26040" windowHeight="14940" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
+    <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
   <sheets>
     <sheet name="bib_search_screen_start" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="484">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1361,6 +1361,117 @@
   </si>
   <si>
     <t>Annals of Medicine and Surgery (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical review and case report. Does not report intention. </t>
+  </si>
+  <si>
+    <t>Data_Extracted</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Study_Design</t>
+  </si>
+  <si>
+    <t>Population_Type</t>
+  </si>
+  <si>
+    <t>Study_Setting</t>
+  </si>
+  <si>
+    <t>Study_Location</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>10.1001/jama.1969.03160110135030</t>
+  </si>
+  <si>
+    <t>10.1016/S0002-9610(41)90652-9</t>
+  </si>
+  <si>
+    <t>Case Report</t>
+  </si>
+  <si>
+    <t>New Jersey State Prison Hospital, Trenton</t>
+  </si>
+  <si>
+    <t>Trenton, New Jersey, USA</t>
+  </si>
+  <si>
+    <t>Single prisoner</t>
+  </si>
+  <si>
+    <t>Insertion of pins into thoracic wall</t>
+  </si>
+  <si>
+    <t>No mention of deliberate cases</t>
+  </si>
+  <si>
+    <t>Department of Surgery</t>
+  </si>
+  <si>
+    <t>Berne, Switzerland</t>
+  </si>
+  <si>
+    <t>10.1136/bmj.2.5918.539</t>
+  </si>
+  <si>
+    <t>10.1001/archsurg.1971.01350010016004</t>
+  </si>
+  <si>
+    <t>10.1136/thx.24.2.246</t>
+  </si>
+  <si>
+    <t>10.1001/archsurg.1977.01370050124025</t>
+  </si>
+  <si>
+    <t>New York Medical College-Metropolitan Hospital Center, New York</t>
+  </si>
+  <si>
+    <t>New York, USA</t>
+  </si>
+  <si>
+    <t>Single psychiatric inpatient</t>
+  </si>
+  <si>
+    <t>Retrospective Chart Review</t>
+  </si>
+  <si>
+    <t>General population</t>
+  </si>
+  <si>
+    <t>Queen Mary Hospital</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>10.1002/bjs.1800650103</t>
+  </si>
+  <si>
+    <t>No mention of intention</t>
+  </si>
+  <si>
+    <t>Retrospective Case Series</t>
+  </si>
+  <si>
+    <t>Mixed psychiatric and non-psychiatric</t>
+  </si>
+  <si>
+    <t>Department of Surgery, Charing Cross Hospital,</t>
+  </si>
+  <si>
+    <t>London, UK</t>
+  </si>
+  <si>
+    <t>10.1177/014107688207500207</t>
   </si>
 </sst>
 </file>
@@ -1844,9 +1955,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2222,13 +2334,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A81A345-0683-F840-B0F4-445E0232AC4D}">
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:T157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2269,10 +2388,28 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>450</v>
+      </c>
+      <c r="O1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>453</v>
+      </c>
+      <c r="R1" t="s">
+        <v>454</v>
+      </c>
+      <c r="S1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>492</v>
       </c>
@@ -2291,11 +2428,36 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
       <c r="M2" s="1">
         <v>45761.716493055559</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>495</v>
       </c>
@@ -2314,11 +2476,38 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
       <c r="M3" s="1">
         <v>45761.607939814814</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>496</v>
       </c>
@@ -2337,8 +2526,33 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>45762.43472222222</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S4" t="s">
+        <v>449</v>
+      </c>
+      <c r="T4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>497</v>
       </c>
@@ -2357,11 +2571,39 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
       <c r="M5" s="1">
         <v>45761.671574074076</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>498</v>
       </c>
@@ -2380,8 +2622,41 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>45397.443749999999</v>
+      </c>
+      <c r="N6" t="s">
+        <v>458</v>
+      </c>
+      <c r="O6" t="s">
+        <v>461</v>
+      </c>
+      <c r="P6" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>465</v>
+      </c>
+      <c r="R6" t="s">
+        <v>466</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>499</v>
       </c>
@@ -2400,8 +2675,41 @@
       <c r="F7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>45397.447916666664</v>
+      </c>
+      <c r="N7" t="s">
+        <v>458</v>
+      </c>
+      <c r="O7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>471</v>
+      </c>
+      <c r="R7" t="s">
+        <v>469</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>501</v>
       </c>
@@ -2420,8 +2728,47 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>45397.456944444442</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R8" t="s">
+        <v>477</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>504</v>
       </c>
@@ -2440,8 +2787,41 @@
       <c r="F9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>45762.482638888891</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="P9" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="R9" t="s">
+        <v>483</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>505</v>
       </c>
@@ -2461,7 +2841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>506</v>
       </c>
@@ -2481,7 +2861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>507</v>
       </c>
@@ -2503,8 +2883,14 @@
       <c r="M12" s="1">
         <v>45757.375856481478</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>508</v>
       </c>
@@ -2524,7 +2910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>509</v>
       </c>
@@ -2544,7 +2930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>511</v>
       </c>
@@ -2564,7 +2950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>512</v>
       </c>
@@ -2584,7 +2970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>514</v>
       </c>
@@ -2604,7 +2990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>515</v>
       </c>
@@ -2624,7 +3010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>516</v>
       </c>
@@ -2646,8 +3032,14 @@
       <c r="M19" s="1">
         <v>45761.67255787037</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>517</v>
       </c>
@@ -2667,7 +3059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>518</v>
       </c>
@@ -2689,8 +3081,14 @@
       <c r="M21" s="1">
         <v>45761.563564814816</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>520</v>
       </c>
@@ -2710,7 +3108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>522</v>
       </c>
@@ -2730,7 +3128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>523</v>
       </c>
@@ -2750,7 +3148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>524</v>
       </c>
@@ -2772,8 +3170,14 @@
       <c r="M25" s="1">
         <v>45761.540856481479</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>525</v>
       </c>
@@ -2793,7 +3197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>526</v>
       </c>
@@ -2813,7 +3217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>527</v>
       </c>
@@ -2833,7 +3237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>530</v>
       </c>
@@ -2855,8 +3259,14 @@
       <c r="M29" s="1">
         <v>45761.539814814816</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>532</v>
       </c>
@@ -2876,7 +3286,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>533</v>
       </c>
@@ -2896,7 +3306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>534</v>
       </c>
@@ -2916,7 +3326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>535</v>
       </c>
@@ -2936,7 +3346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>536</v>
       </c>
@@ -2958,8 +3368,14 @@
       <c r="M34" s="1">
         <v>45761.607071759259</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>537</v>
       </c>
@@ -2979,7 +3395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>539</v>
       </c>
@@ -3001,8 +3417,14 @@
       <c r="M36" s="1">
         <v>45761.687175925923</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>541</v>
       </c>
@@ -3024,8 +3446,14 @@
       <c r="M37" s="1">
         <v>45761.671203703707</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>542</v>
       </c>
@@ -3045,7 +3473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>543</v>
       </c>
@@ -3065,7 +3493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>544</v>
       </c>
@@ -3085,7 +3513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>546</v>
       </c>
@@ -3105,7 +3533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>547</v>
       </c>
@@ -3125,7 +3553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>548</v>
       </c>
@@ -3145,7 +3573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>549</v>
       </c>
@@ -3165,7 +3593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>550</v>
       </c>
@@ -3185,7 +3613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>551</v>
       </c>
@@ -3205,7 +3633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>552</v>
       </c>
@@ -3225,7 +3653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>553</v>
       </c>
@@ -3247,8 +3675,14 @@
       <c r="M48" s="1">
         <v>45761.541284722225</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>554</v>
       </c>
@@ -3268,7 +3702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>555</v>
       </c>
@@ -3288,7 +3722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>556</v>
       </c>
@@ -3308,7 +3742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>557</v>
       </c>
@@ -3328,7 +3762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>558</v>
       </c>
@@ -3348,7 +3782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>559</v>
       </c>
@@ -3368,7 +3802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>561</v>
       </c>
@@ -3388,7 +3822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>562</v>
       </c>
@@ -3408,7 +3842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>563</v>
       </c>
@@ -3428,7 +3862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>565</v>
       </c>
@@ -3448,7 +3882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>566</v>
       </c>
@@ -3468,7 +3902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>567</v>
       </c>
@@ -3488,7 +3922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>568</v>
       </c>
@@ -3508,7 +3942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>569</v>
       </c>
@@ -3528,7 +3962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>570</v>
       </c>
@@ -3550,8 +3984,14 @@
       <c r="M63" s="1">
         <v>45761.67496527778</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>572</v>
       </c>
@@ -3571,7 +4011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>573</v>
       </c>
@@ -3593,8 +4033,14 @@
       <c r="M65" s="1">
         <v>45761.588125000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>574</v>
       </c>
@@ -3614,7 +4060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>575</v>
       </c>
@@ -3634,7 +4080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>576</v>
       </c>
@@ -3656,8 +4102,14 @@
       <c r="M68" s="1">
         <v>45761.61440972222</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>577</v>
       </c>
@@ -3677,7 +4129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>578</v>
       </c>
@@ -3697,7 +4149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>579</v>
       </c>
@@ -3717,7 +4169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>580</v>
       </c>
@@ -3737,7 +4189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>581</v>
       </c>
@@ -3759,8 +4211,14 @@
       <c r="M73" s="1">
         <v>45761.694710648146</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>584</v>
       </c>
@@ -3780,7 +4238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>585</v>
       </c>
@@ -3800,7 +4258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>586</v>
       </c>
@@ -3820,7 +4278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>587</v>
       </c>
@@ -3840,7 +4298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>588</v>
       </c>
@@ -3860,7 +4318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>589</v>
       </c>
@@ -3880,7 +4338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>590</v>
       </c>
@@ -3902,8 +4360,14 @@
       <c r="M80" s="1">
         <v>45757.349930555552</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>591</v>
       </c>
@@ -3923,7 +4387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>592</v>
       </c>
@@ -3945,8 +4409,14 @@
       <c r="M82" s="1">
         <v>45761.561400462961</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>593</v>
       </c>
@@ -3966,7 +4436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>594</v>
       </c>
@@ -3988,8 +4458,14 @@
       <c r="M84" s="1">
         <v>45761.562210648146</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>597</v>
       </c>
@@ -4009,7 +4485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>598</v>
       </c>
@@ -4029,7 +4505,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>600</v>
       </c>
@@ -4049,7 +4525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>601</v>
       </c>
@@ -4069,7 +4545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>605</v>
       </c>
@@ -4089,7 +4565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>607</v>
       </c>
@@ -4109,7 +4585,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>608</v>
       </c>
@@ -4129,7 +4605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>609</v>
       </c>
@@ -4151,8 +4627,14 @@
       <c r="M92" s="1">
         <v>45761.757037037038</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>611</v>
       </c>
@@ -4172,7 +4654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>612</v>
       </c>
@@ -4192,7 +4674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>613</v>
       </c>
@@ -4212,7 +4694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>615</v>
       </c>
@@ -4234,8 +4716,14 @@
       <c r="M96" s="1">
         <v>45761.600775462961</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>616</v>
       </c>
@@ -4255,7 +4743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>617</v>
       </c>
@@ -4277,8 +4765,14 @@
       <c r="M98" s="1">
         <v>45761.611886574072</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>618</v>
       </c>
@@ -4298,7 +4792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>619</v>
       </c>
@@ -4318,7 +4812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>620</v>
       </c>
@@ -4340,8 +4834,14 @@
       <c r="M101" s="1">
         <v>45761.601111111115</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>621</v>
       </c>
@@ -4363,8 +4863,14 @@
       <c r="M102" s="1">
         <v>45761.562430555554</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>622</v>
       </c>
@@ -4384,7 +4890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>623</v>
       </c>
@@ -4404,7 +4910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>624</v>
       </c>
@@ -4426,8 +4932,14 @@
       <c r="M105" s="1">
         <v>45761.593888888892</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>625</v>
       </c>
@@ -4449,8 +4961,14 @@
       <c r="M106" s="1">
         <v>45761.608206018522</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>627</v>
       </c>
@@ -4470,7 +4988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>628</v>
       </c>
@@ -4492,8 +5010,14 @@
       <c r="M108" s="1">
         <v>45761.552025462966</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>629</v>
       </c>
@@ -4513,7 +5037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>630</v>
       </c>
@@ -4533,7 +5057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>631</v>
       </c>
@@ -4553,7 +5077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>635</v>
       </c>
@@ -4573,7 +5097,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>637</v>
       </c>
@@ -4593,7 +5117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>638</v>
       </c>
@@ -4613,7 +5137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>639</v>
       </c>
@@ -4635,8 +5159,14 @@
       <c r="M115" s="1">
         <v>45761.541678240741</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>640</v>
       </c>
@@ -4658,8 +5188,14 @@
       <c r="M116" s="1">
         <v>45761.562893518516</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>641</v>
       </c>
@@ -4681,8 +5217,14 @@
       <c r="M117" s="1">
         <v>45761.675127314818</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>642</v>
       </c>
@@ -4704,8 +5246,14 @@
       <c r="M118" s="1">
         <v>45746.42459490741</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>643</v>
       </c>
@@ -4725,7 +5273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>644</v>
       </c>
@@ -4747,8 +5295,14 @@
       <c r="M120" s="1">
         <v>45761.614166666666</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>645</v>
       </c>
@@ -4768,7 +5322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>646</v>
       </c>
@@ -4790,8 +5344,14 @@
       <c r="M122" s="1">
         <v>45761.61246527778</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>647</v>
       </c>
@@ -4811,7 +5371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>648</v>
       </c>
@@ -4833,8 +5393,14 @@
       <c r="M124" s="1">
         <v>45761.58326388889</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>649</v>
       </c>
@@ -4856,8 +5422,14 @@
       <c r="M125" s="1">
         <v>45761.574907407405</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>650</v>
       </c>
@@ -4879,8 +5451,14 @@
       <c r="M126" s="1">
         <v>45761.453923611109</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>651</v>
       </c>
@@ -4900,7 +5478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>652</v>
       </c>
@@ -4922,8 +5500,14 @@
       <c r="M128" s="1">
         <v>45761.581875000003</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>653</v>
       </c>
@@ -4943,7 +5527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>654</v>
       </c>
@@ -4965,8 +5549,14 @@
       <c r="M130" s="1">
         <v>45761.575787037036</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>656</v>
       </c>
@@ -4986,7 +5576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>657</v>
       </c>
@@ -5008,8 +5598,14 @@
       <c r="M132" s="1">
         <v>45761.584166666667</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>658</v>
       </c>
@@ -5029,7 +5625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>660</v>
       </c>
@@ -5049,7 +5645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>662</v>
       </c>
@@ -5069,7 +5665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>663</v>
       </c>
@@ -5089,7 +5685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>664</v>
       </c>
@@ -5109,7 +5705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>665</v>
       </c>
@@ -5129,7 +5725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>667</v>
       </c>
@@ -5148,8 +5744,14 @@
       <c r="M139" s="1">
         <v>45761.529270833336</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>669</v>
       </c>
@@ -5171,8 +5773,14 @@
       <c r="M140" s="1">
         <v>45761.572060185186</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>670</v>
       </c>
@@ -5192,7 +5800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>672</v>
       </c>
@@ -5214,8 +5822,14 @@
       <c r="M142" s="1">
         <v>45761.581365740742</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>673</v>
       </c>
@@ -5235,7 +5849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>674</v>
       </c>
@@ -5255,7 +5869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>675</v>
       </c>
@@ -5277,8 +5891,14 @@
       <c r="M145" s="1">
         <v>45746.429988425924</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>676</v>
       </c>
@@ -5300,8 +5920,14 @@
       <c r="M146" s="1">
         <v>45761.581712962965</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>677</v>
       </c>
@@ -5323,8 +5949,14 @@
       <c r="M147" s="1">
         <v>45761.53769675926</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>678</v>
       </c>
@@ -5346,8 +5978,14 @@
       <c r="M148" s="1">
         <v>45746.438900462963</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>679</v>
       </c>
@@ -5367,7 +6005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>680</v>
       </c>
@@ -5387,7 +6025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>681</v>
       </c>
@@ -5409,8 +6047,14 @@
       <c r="M151" s="1">
         <v>45761.526678240742</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>682</v>
       </c>
@@ -5430,7 +6074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>683</v>
       </c>
@@ -5452,8 +6096,14 @@
       <c r="M153" s="1">
         <v>45761.590138888889</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>684</v>
       </c>
@@ -5475,8 +6125,14 @@
       <c r="M154" s="1">
         <v>45761.527395833335</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>686</v>
       </c>
@@ -5498,8 +6154,14 @@
       <c r="M155" s="1">
         <v>45746.432546296295</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>687</v>
       </c>
@@ -5521,8 +6183,14 @@
       <c r="M156" s="1">
         <v>45746.431377314817</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>688</v>
       </c>

--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9E0CD655-8585-8C4C-905E-085305CBE540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F1205EA-3FA6-D54F-9029-442B42EBFEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="544">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1472,6 +1472,186 @@
   </si>
   <si>
     <t>10.1177/014107688207500207</t>
+  </si>
+  <si>
+    <t>Single psychiatric patient</t>
+  </si>
+  <si>
+    <t>Tulane University School of Medicine</t>
+  </si>
+  <si>
+    <t>New Orleans, Lousiana, USA</t>
+  </si>
+  <si>
+    <t>10.1016/s0016-5107(83)72564-2</t>
+  </si>
+  <si>
+    <t>Non-intentional - "swallowing a toothbrush during one of his seizure episodes"</t>
+  </si>
+  <si>
+    <t>Single psychiatric prisoner</t>
+  </si>
+  <si>
+    <t>Miami School of Medicine</t>
+  </si>
+  <si>
+    <t>Miami, Florida, USA</t>
+  </si>
+  <si>
+    <t>10.1097/00005053-198305000-00012</t>
+  </si>
+  <si>
+    <t>Does not report outcomes for individual ingestions.</t>
+  </si>
+  <si>
+    <t>University of Texas</t>
+  </si>
+  <si>
+    <t>Galveston, Texas, USA</t>
+  </si>
+  <si>
+    <t>10.1097/00007611-198309000-00015</t>
+  </si>
+  <si>
+    <t>Psychiatric patients</t>
+  </si>
+  <si>
+    <t>Mixed intentional, non-intentional and food bolus. No information on rates of intentional ingestion so unable to differentiate empirical data. Exclude.</t>
+  </si>
+  <si>
+    <t>Tampa General Hospital and the James A. Haley Veterans Hospital</t>
+  </si>
+  <si>
+    <t>All patients with a foreign body of the upper gastrointestinal tract endoscopically</t>
+  </si>
+  <si>
+    <t>Tampa, Florida, USA</t>
+  </si>
+  <si>
+    <t>10.1016/s0016-5107(83)72586-1</t>
+  </si>
+  <si>
+    <t>University of California, Davis, Medical Center</t>
+  </si>
+  <si>
+    <t>Davis, California, USA</t>
+  </si>
+  <si>
+    <t>10.1016/s0196-0644(84)80380-7</t>
+  </si>
+  <si>
+    <t>Mixed population, adult and child with inteional and non-intentional ingestion</t>
+  </si>
+  <si>
+    <t>10.1016/s0016-5107(86)71926-3</t>
+  </si>
+  <si>
+    <t>10.1097/00000658-198402000-00010</t>
+  </si>
+  <si>
+    <t>Not explicitly intentional - "ahistory of ingestion of aquarter 20 years previously was elicited."</t>
+  </si>
+  <si>
+    <t>Case Series</t>
+  </si>
+  <si>
+    <t>All accidental</t>
+  </si>
+  <si>
+    <t>10.1001/archsurg.1988.01400270122020</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Accidental</t>
+  </si>
+  <si>
+    <t>10.1097/00006565-198812000-00004</t>
+  </si>
+  <si>
+    <t>Bib_Search_Complete</t>
+  </si>
+  <si>
+    <t>10.1111/j.1440-1673.1988.tb02755.x</t>
+  </si>
+  <si>
+    <t>10.1016/0016-5085(88)90632-4</t>
+  </si>
+  <si>
+    <t>Review, no empirical evidence</t>
+  </si>
+  <si>
+    <t>Not explicitly intentional</t>
+  </si>
+  <si>
+    <t>10.1097/00000433-199012000-00014</t>
+  </si>
+  <si>
+    <t>Co-existing mechanism of death - "death was attributed to cardiorespiratory arrest in delayed shock accompanying peritonitis and mechanical obstruction of the airways"</t>
+  </si>
+  <si>
+    <t>10.1148/radiology.174.1.2294547</t>
+  </si>
+  <si>
+    <t>Intention not reported. Likely mixed cohort. Exclude.</t>
+  </si>
+  <si>
+    <t>10.1007/BF01665320</t>
+  </si>
+  <si>
+    <t>The Gregorio Marafirn Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Madrid, Spain</t>
+  </si>
+  <si>
+    <t>Mixed population</t>
+  </si>
+  <si>
+    <t>all patients (N= 19) admitted to a medical prison ward for men in a New York City public general hospital for delib erately swallowing objects between September 1, 1985, and October 15,</t>
+  </si>
+  <si>
+    <t>New York City Public General Hospital</t>
+  </si>
+  <si>
+    <t>10.1176/ps.42.5.533</t>
+  </si>
+  <si>
+    <t>10.1016/S0025-7125(16)30212-7</t>
+  </si>
+  <si>
+    <t>10.1097/00063110-199506000-00005</t>
+  </si>
+  <si>
+    <t>COPROPHAGIA  = eatings ones own faeces. Exclude.</t>
+  </si>
+  <si>
+    <t>10.1016/0005-7916(94)00065-t</t>
+  </si>
+  <si>
+    <t>10.1007/s002689900152</t>
+  </si>
+  <si>
+    <t>10.1155/1997/815876</t>
+  </si>
+  <si>
+    <t>Patients with occult liver abscess</t>
+  </si>
+  <si>
+    <t>Royal Alexandra Hospital</t>
+  </si>
+  <si>
+    <t>Edmonton, Alberta, Canada</t>
+  </si>
+  <si>
+    <t>One intentional, one unitentional</t>
+  </si>
+  <si>
+    <t>Accidental - "A 20-year-old Asian female presented to the emergency room complaining of having swallowed her toothbrush. She stated that she had been attempting to scratch her pharynx with the handle of her toothbrush when a spontaneous gag reflex caused her to swallow the toothbrush"</t>
+  </si>
+  <si>
+    <t>10.1007/s004649900393</t>
   </si>
 </sst>
 </file>
@@ -2334,20 +2514,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A81A345-0683-F840-B0F4-445E0232AC4D}">
-  <dimension ref="A1:T157"/>
+  <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="15.33203125" customWidth="1"/>
+    <col min="14" max="20" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2406,10 +2586,13 @@
         <v>448</v>
       </c>
       <c r="T1" t="s">
+        <v>516</v>
+      </c>
+      <c r="U1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>492</v>
       </c>
@@ -2453,11 +2636,14 @@
       <c r="S2" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U2" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>495</v>
       </c>
@@ -2506,8 +2692,11 @@
       <c r="S3" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T3" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>496</v>
       </c>
@@ -2548,11 +2737,14 @@
       <c r="S4" t="s">
         <v>449</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U4" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>497</v>
       </c>
@@ -2599,11 +2791,14 @@
       <c r="S5" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>498</v>
       </c>
@@ -2655,8 +2850,11 @@
       <c r="S6" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T6" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>499</v>
       </c>
@@ -2708,8 +2906,11 @@
       <c r="S7" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T7" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>501</v>
       </c>
@@ -2765,10 +2966,13 @@
         <v>449</v>
       </c>
       <c r="T8" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>504</v>
       </c>
@@ -2820,8 +3024,11 @@
       <c r="S9" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T9" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>505</v>
       </c>
@@ -2840,8 +3047,50 @@
       <c r="F10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>45762.489583333336</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="P10" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="R10" t="s">
+        <v>487</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>506</v>
       </c>
@@ -2860,8 +3109,50 @@
       <c r="F11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>45762.495138888888</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="P11" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>491</v>
+      </c>
+      <c r="R11" t="s">
+        <v>492</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>507</v>
       </c>
@@ -2880,17 +3171,41 @@
       <c r="F12" t="s">
         <v>17</v>
       </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
       <c r="M12" s="1">
         <v>45757.375856481478</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N12" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>508</v>
       </c>
@@ -2909,8 +3224,44 @@
       <c r="F13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>45762.506249999999</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O13" t="s">
+        <v>500</v>
+      </c>
+      <c r="P13" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="R13" t="s">
+        <v>502</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U13" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>509</v>
       </c>
@@ -2929,8 +3280,44 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>45762.508333333331</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O14" t="s">
+        <v>506</v>
+      </c>
+      <c r="P14" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R14" t="s">
+        <v>505</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>511</v>
       </c>
@@ -2949,8 +3336,32 @@
       <c r="F15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>45762.557638888888</v>
+      </c>
+      <c r="R15" t="s">
+        <v>508</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>512</v>
       </c>
@@ -2969,8 +3380,38 @@
       <c r="F16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>45762.581944444442</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R16" t="s">
+        <v>507</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>514</v>
       </c>
@@ -2989,8 +3430,38 @@
       <c r="F17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>45762.586111111108</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="R17" t="s">
+        <v>512</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U17" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>515</v>
       </c>
@@ -3009,8 +3480,41 @@
       <c r="F18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>45762.587500000001</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="R18" t="s">
+        <v>515</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>516</v>
       </c>
@@ -3029,17 +3533,41 @@
       <c r="F19" t="s">
         <v>17</v>
       </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
       <c r="M19" s="1">
-        <v>45761.67255787037</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>45762.590277777781</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R19" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>517</v>
       </c>
@@ -3058,8 +3586,38 @@
       <c r="F20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>45762.591666666667</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="R20" t="s">
+        <v>518</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>518</v>
       </c>
@@ -3078,17 +3636,41 @@
       <c r="F21" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="1">
-        <v>45761.563564814816</v>
-      </c>
-      <c r="N21" s="1"/>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>45762.592361111114</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R21" t="s">
+        <v>521</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U21" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>520</v>
       </c>
@@ -3107,8 +3689,38 @@
       <c r="F22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>45762.599305555559</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R22" t="s">
+        <v>523</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U22" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>522</v>
       </c>
@@ -3127,8 +3739,41 @@
       <c r="F23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>45762.602777777778</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O23" t="s">
+        <v>528</v>
+      </c>
+      <c r="P23" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>527</v>
+      </c>
+      <c r="R23" t="s">
+        <v>525</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>523</v>
       </c>
@@ -3147,8 +3792,41 @@
       <c r="F24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>45762.635416666664</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O24" t="s">
+        <v>529</v>
+      </c>
+      <c r="P24" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>471</v>
+      </c>
+      <c r="R24" t="s">
+        <v>531</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>524</v>
       </c>
@@ -3167,17 +3845,35 @@
       <c r="F25" t="s">
         <v>17</v>
       </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
       <c r="M25" s="1">
         <v>45761.540856481479</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R25" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>525</v>
       </c>
@@ -3196,8 +3892,41 @@
       <c r="F26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>45397.660416666666</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R26" t="s">
+        <v>533</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U26" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>526</v>
       </c>
@@ -3216,8 +3945,32 @@
       <c r="F27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="M27" s="1">
+        <v>45762.663194444445</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R27" t="s">
+        <v>533</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>527</v>
       </c>
@@ -3236,8 +3989,35 @@
       <c r="F28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>45762.665277777778</v>
+      </c>
+      <c r="R28" t="s">
+        <v>535</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U28" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>530</v>
       </c>
@@ -3256,17 +4036,38 @@
       <c r="F29" t="s">
         <v>17</v>
       </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
       <c r="M29" s="1">
         <v>45761.539814814816</v>
       </c>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R29" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>532</v>
       </c>
@@ -3285,8 +4086,44 @@
       <c r="F30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>45762.675694444442</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="O30" t="s">
+        <v>538</v>
+      </c>
+      <c r="P30" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>540</v>
+      </c>
+      <c r="R30" t="s">
+        <v>537</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U30" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>533</v>
       </c>
@@ -3305,8 +4142,29 @@
       <c r="F31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>45762.677777777775</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R31" t="s">
+        <v>543</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U31" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>534</v>
       </c>
@@ -3325,8 +4183,11 @@
       <c r="F32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>535</v>
       </c>
@@ -3345,8 +4206,11 @@
       <c r="F33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>536</v>
       </c>
@@ -3374,8 +4238,11 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>537</v>
       </c>
@@ -3394,8 +4261,11 @@
       <c r="F35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>539</v>
       </c>
@@ -3423,8 +4293,11 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T36" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>541</v>
       </c>
@@ -3452,8 +4325,11 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T37" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>542</v>
       </c>
@@ -3472,8 +4348,11 @@
       <c r="F38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>543</v>
       </c>
@@ -3492,8 +4371,11 @@
       <c r="F39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>544</v>
       </c>
@@ -3512,8 +4394,11 @@
       <c r="F40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>546</v>
       </c>
@@ -3532,8 +4417,11 @@
       <c r="F41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>547</v>
       </c>
@@ -3552,8 +4440,11 @@
       <c r="F42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>548</v>
       </c>
@@ -3572,8 +4463,11 @@
       <c r="F43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>549</v>
       </c>
@@ -3592,8 +4486,11 @@
       <c r="F44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>550</v>
       </c>
@@ -3612,8 +4509,11 @@
       <c r="F45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>551</v>
       </c>
@@ -3632,8 +4532,11 @@
       <c r="F46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>552</v>
       </c>
@@ -3652,8 +4555,11 @@
       <c r="F47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>553</v>
       </c>
@@ -3681,8 +4587,11 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>554</v>
       </c>
@@ -3701,8 +4610,11 @@
       <c r="F49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>555</v>
       </c>
@@ -3721,8 +4633,11 @@
       <c r="F50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>556</v>
       </c>
@@ -3741,8 +4656,11 @@
       <c r="F51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>557</v>
       </c>
@@ -3761,8 +4679,11 @@
       <c r="F52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>558</v>
       </c>
@@ -3781,8 +4702,11 @@
       <c r="F53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>559</v>
       </c>
@@ -3801,8 +4725,11 @@
       <c r="F54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>561</v>
       </c>
@@ -3821,8 +4748,11 @@
       <c r="F55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>562</v>
       </c>
@@ -3841,8 +4771,11 @@
       <c r="F56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>563</v>
       </c>
@@ -3861,8 +4794,11 @@
       <c r="F57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>565</v>
       </c>
@@ -3881,8 +4817,11 @@
       <c r="F58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>566</v>
       </c>
@@ -3901,8 +4840,11 @@
       <c r="F59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>567</v>
       </c>
@@ -3921,8 +4863,11 @@
       <c r="F60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>568</v>
       </c>
@@ -3941,8 +4886,11 @@
       <c r="F61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>569</v>
       </c>
@@ -3961,8 +4909,11 @@
       <c r="F62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>570</v>
       </c>
@@ -3990,8 +4941,11 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>572</v>
       </c>
@@ -4010,8 +4964,11 @@
       <c r="F64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>573</v>
       </c>
@@ -4039,8 +4996,11 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>574</v>
       </c>
@@ -4059,8 +5019,11 @@
       <c r="F66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>575</v>
       </c>
@@ -4079,8 +5042,11 @@
       <c r="F67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>576</v>
       </c>
@@ -4108,8 +5074,11 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>577</v>
       </c>
@@ -4128,8 +5097,11 @@
       <c r="F69" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>578</v>
       </c>
@@ -4148,8 +5120,11 @@
       <c r="F70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>579</v>
       </c>
@@ -4168,8 +5143,11 @@
       <c r="F71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>580</v>
       </c>
@@ -4188,8 +5166,11 @@
       <c r="F72" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>581</v>
       </c>
@@ -4217,8 +5198,11 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>584</v>
       </c>
@@ -4237,8 +5221,11 @@
       <c r="F74" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>585</v>
       </c>
@@ -4257,8 +5244,11 @@
       <c r="F75" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>586</v>
       </c>
@@ -4277,8 +5267,11 @@
       <c r="F76" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>587</v>
       </c>
@@ -4297,8 +5290,11 @@
       <c r="F77" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>588</v>
       </c>
@@ -4317,8 +5313,11 @@
       <c r="F78" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T78" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>589</v>
       </c>
@@ -4337,8 +5336,11 @@
       <c r="F79" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T79" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>590</v>
       </c>
@@ -4366,8 +5368,11 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>591</v>
       </c>
@@ -4386,8 +5391,11 @@
       <c r="F81" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>592</v>
       </c>
@@ -4415,8 +5423,11 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>593</v>
       </c>
@@ -4435,8 +5446,11 @@
       <c r="F83" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>594</v>
       </c>
@@ -4464,8 +5478,11 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>597</v>
       </c>
@@ -4484,8 +5501,11 @@
       <c r="F85" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>598</v>
       </c>
@@ -4504,8 +5524,11 @@
       <c r="F86" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>600</v>
       </c>
@@ -4524,8 +5547,11 @@
       <c r="F87" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>601</v>
       </c>
@@ -4544,8 +5570,11 @@
       <c r="F88" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>605</v>
       </c>
@@ -4564,8 +5593,11 @@
       <c r="F89" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>607</v>
       </c>
@@ -4584,8 +5616,11 @@
       <c r="F90" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>608</v>
       </c>
@@ -4604,8 +5639,11 @@
       <c r="F91" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>609</v>
       </c>
@@ -4633,8 +5671,11 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>611</v>
       </c>
@@ -4653,8 +5694,11 @@
       <c r="F93" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>612</v>
       </c>
@@ -4673,8 +5717,11 @@
       <c r="F94" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>613</v>
       </c>
@@ -4693,8 +5740,11 @@
       <c r="F95" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>615</v>
       </c>
@@ -4722,8 +5772,11 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>616</v>
       </c>
@@ -4742,8 +5795,11 @@
       <c r="F97" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>617</v>
       </c>
@@ -4771,8 +5827,11 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>618</v>
       </c>
@@ -4791,8 +5850,11 @@
       <c r="F99" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>619</v>
       </c>
@@ -4811,8 +5873,11 @@
       <c r="F100" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>620</v>
       </c>
@@ -4840,8 +5905,11 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>621</v>
       </c>
@@ -4869,8 +5937,11 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T102" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>622</v>
       </c>
@@ -4889,8 +5960,11 @@
       <c r="F103" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T103" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>623</v>
       </c>
@@ -4909,8 +5983,11 @@
       <c r="F104" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T104" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>624</v>
       </c>
@@ -4938,8 +6015,11 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T105" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>625</v>
       </c>
@@ -4967,8 +6047,11 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T106" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>627</v>
       </c>
@@ -4987,8 +6070,11 @@
       <c r="F107" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T107" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>628</v>
       </c>
@@ -5016,8 +6102,11 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T108" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>629</v>
       </c>
@@ -5036,8 +6125,11 @@
       <c r="F109" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T109" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>630</v>
       </c>
@@ -5056,8 +6148,11 @@
       <c r="F110" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T110" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>631</v>
       </c>
@@ -5076,8 +6171,11 @@
       <c r="F111" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T111" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>635</v>
       </c>
@@ -5096,8 +6194,11 @@
       <c r="F112" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T112" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>637</v>
       </c>
@@ -5116,8 +6217,11 @@
       <c r="F113" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T113" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>638</v>
       </c>
@@ -5136,8 +6240,11 @@
       <c r="F114" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T114" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>639</v>
       </c>
@@ -5165,8 +6272,11 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T115" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>640</v>
       </c>
@@ -5194,8 +6304,11 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T116" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>641</v>
       </c>
@@ -5223,8 +6336,11 @@
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T117" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>642</v>
       </c>
@@ -5252,8 +6368,11 @@
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T118" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>643</v>
       </c>
@@ -5272,8 +6391,11 @@
       <c r="F119" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T119" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>644</v>
       </c>
@@ -5301,8 +6423,11 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T120" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>645</v>
       </c>
@@ -5321,8 +6446,11 @@
       <c r="F121" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T121" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>646</v>
       </c>
@@ -5350,8 +6478,11 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T122" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>647</v>
       </c>
@@ -5370,8 +6501,11 @@
       <c r="F123" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T123" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>648</v>
       </c>
@@ -5399,8 +6533,11 @@
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T124" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>649</v>
       </c>
@@ -5428,8 +6565,11 @@
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T125" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>650</v>
       </c>
@@ -5457,8 +6597,11 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T126" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>651</v>
       </c>
@@ -5477,8 +6620,11 @@
       <c r="F127" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T127" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>652</v>
       </c>
@@ -5506,8 +6652,11 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T128" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>653</v>
       </c>
@@ -5526,8 +6675,11 @@
       <c r="F129" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T129" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>654</v>
       </c>
@@ -5555,8 +6707,11 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T130" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>656</v>
       </c>
@@ -5575,8 +6730,11 @@
       <c r="F131" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T131" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>657</v>
       </c>
@@ -5604,8 +6762,11 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T132" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>658</v>
       </c>
@@ -5624,8 +6785,11 @@
       <c r="F133" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T133" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>660</v>
       </c>
@@ -5644,8 +6808,11 @@
       <c r="F134" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T134" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>662</v>
       </c>
@@ -5664,8 +6831,11 @@
       <c r="F135" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T135" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>663</v>
       </c>
@@ -5684,8 +6854,11 @@
       <c r="F136" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T136" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>664</v>
       </c>
@@ -5704,8 +6877,11 @@
       <c r="F137" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T137" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>665</v>
       </c>
@@ -5724,8 +6900,11 @@
       <c r="F138" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T138" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>667</v>
       </c>
@@ -5750,8 +6929,11 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T139" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>669</v>
       </c>
@@ -5779,8 +6961,11 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T140" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>670</v>
       </c>
@@ -5799,8 +6984,11 @@
       <c r="F141" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T141" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>672</v>
       </c>
@@ -5828,8 +7016,11 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T142" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>673</v>
       </c>
@@ -5848,8 +7039,11 @@
       <c r="F143" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T143" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>674</v>
       </c>
@@ -5868,8 +7062,11 @@
       <c r="F144" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T144" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>675</v>
       </c>
@@ -5897,8 +7094,11 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T145" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>676</v>
       </c>
@@ -5926,8 +7126,11 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T146" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>677</v>
       </c>
@@ -5955,8 +7158,11 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T147" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>678</v>
       </c>
@@ -5984,8 +7190,11 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T148" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>679</v>
       </c>
@@ -6004,8 +7213,11 @@
       <c r="F149" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T149" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>680</v>
       </c>
@@ -6024,8 +7236,11 @@
       <c r="F150" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T150" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>681</v>
       </c>
@@ -6053,8 +7268,11 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T151" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>682</v>
       </c>
@@ -6073,8 +7291,11 @@
       <c r="F152" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T152" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>683</v>
       </c>
@@ -6102,8 +7323,11 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T153" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>684</v>
       </c>
@@ -6131,8 +7355,11 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T154" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>686</v>
       </c>
@@ -6160,8 +7387,11 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T155" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>687</v>
       </c>
@@ -6189,8 +7419,11 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T156" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>688</v>
       </c>
@@ -6208,6 +7441,9 @@
       </c>
       <c r="F157" t="s">
         <v>17</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2F1205EA-3FA6-D54F-9029-442B42EBFEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D35A22FD-4DE9-1040-AD08-EC9805802C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
   <sheets>
     <sheet name="bib_search_screen_start" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="635">
   <si>
     <t>Study_ID</t>
   </si>
@@ -1652,6 +1653,279 @@
   </si>
   <si>
     <t>10.1007/s004649900393</t>
+  </si>
+  <si>
+    <t>Perelman, H.</t>
+  </si>
+  <si>
+    <t>Toothpick perforations of the gastrointestinal tract</t>
+  </si>
+  <si>
+    <t>The Journal of Abdominal Surgery</t>
+  </si>
+  <si>
+    <t>Sloop, R. D.; Thompson, J. C.</t>
+  </si>
+  <si>
+    <t>Aorto-esophageal fistula: report of a case and review of literature</t>
+  </si>
+  <si>
+    <t>Neil, J. F.; Horn, T. L.; Himmelhoch, J. M.</t>
+  </si>
+  <si>
+    <t>Psychotic pica, nicotinism, and complicated myocardial infarction</t>
+  </si>
+  <si>
+    <t>Diseases of the Nervous System</t>
+  </si>
+  <si>
+    <t>Ctercteko, G.; Mok, C. K.</t>
+  </si>
+  <si>
+    <t>Aorta-esophageal fistula induced by a foreign body: the first recorded survival</t>
+  </si>
+  <si>
+    <t>The Journal of Thoracic and Cardiovascular Surgery</t>
+  </si>
+  <si>
+    <t>Danford, D. E.; Huber, A. M.</t>
+  </si>
+  <si>
+    <t>Pica among mentally retarded adults</t>
+  </si>
+  <si>
+    <t>American Journal of Mental Deficiency</t>
+  </si>
+  <si>
+    <t>Price, W. A.; Giannini, A. J.</t>
+  </si>
+  <si>
+    <t>Attempted suicide by ingestion of dentures</t>
+  </si>
+  <si>
+    <t>The Journal of Clinical Psychiatry</t>
+  </si>
+  <si>
+    <t>Bloom, R. R.; Nakano, P. H.; Gray, S. W.; Skandalakis, J. E.</t>
+  </si>
+  <si>
+    <t>The American Surgeon</t>
+  </si>
+  <si>
+    <t>Ohri, S. K.; Hutton, K. A.; Walsh, R.; Desa, L. A.; Wood, C. B.</t>
+  </si>
+  <si>
+    <t>Foreign body perforation of the ileum</t>
+  </si>
+  <si>
+    <t>The British Journal of Clinical Practice</t>
+  </si>
+  <si>
+    <t>Soong, C. V.; Harvey, C.; Doherty, M.</t>
+  </si>
+  <si>
+    <t>Self-mutilating behaviour and deliberate ingestion of foreign bodies</t>
+  </si>
+  <si>
+    <t>The Ulster Medical Journal</t>
+  </si>
+  <si>
+    <t>K√ºrkciyan, I.; Frossard, M.; Kettenbach, J.; Meron, G.; Sterz, F.; R√∂ggla, M.; Laggner, A. N.</t>
+  </si>
+  <si>
+    <t>Conservative management of foreign bodies in the gastrointestinal tract</t>
+  </si>
+  <si>
+    <t>Stein, D. J.; Bouwer, C.; van Heerden, B.</t>
+  </si>
+  <si>
+    <t>Pica and the obsessive-compulsive spectrum disorders</t>
+  </si>
+  <si>
+    <t>Bennett, Daniel R.; Baird, Curtis J.; Chan, Kwok-Ming; Crookes, Peter F.; Bremner, Cedric G.; Gottlieb, Michael M.; Naritoku, Wesley Y.</t>
+  </si>
+  <si>
+    <t>Zinc Toxicity Following Massive Coin Ingestion</t>
+  </si>
+  <si>
+    <t>Murshid, K. R.; Khairy, G. E.</t>
+  </si>
+  <si>
+    <t>Laparoscopic removal of a foreign body from the intestine</t>
+  </si>
+  <si>
+    <t>Journal of the Royal College of Surgeons of Edinburgh</t>
+  </si>
+  <si>
+    <t>Kamal, I.; Thompson, J.; Paquette, D. M.</t>
+  </si>
+  <si>
+    <t>The hazards of vinyl glove ingestion in the mentally retarded patient with pica: new implications for surgical management</t>
+  </si>
+  <si>
+    <t>Canadian Journal of Surgery. Journal Canadien De Chirurgie</t>
+  </si>
+  <si>
+    <t>McNutt, T. K.; Chambers-Emerson, J.; Dethlefsen, M.; Shah, R.</t>
+  </si>
+  <si>
+    <t>Bite the bullet: lead poisoning after ingestion of 206 lead bullets</t>
+  </si>
+  <si>
+    <t>Veterinary and Human Toxicology</t>
+  </si>
+  <si>
+    <t>Williams, Christina; McHenry, Christopher R.</t>
+  </si>
+  <si>
+    <t>Unrecognized foreign body ingestion: an unusual cause for abdominal pain in a healthy adult</t>
+  </si>
+  <si>
+    <t>Hsieh, Chi-Hsun; Wang, Yu-Chun; Chen, Ray-Jade; Fang, Jen-Feng; Lin, Being-Chuan; Hsu, Yu-Pao; Kao, Jung-Liang; Kao, Yi-Chin; Yu, Po-Chin; Kang, Shih-Ching</t>
+  </si>
+  <si>
+    <t>Comparison of the clinical presentations of ingested foreign bodies requiring operative and nonoperative management</t>
+  </si>
+  <si>
+    <t>Jiang, Chun-li; Gu, Tian-xiang; Wang, Chun</t>
+  </si>
+  <si>
+    <t>Surgical treatment of posttraumatic foreign bodies in the heart or great vessels</t>
+  </si>
+  <si>
+    <t>Chinese Medical Journal</t>
+  </si>
+  <si>
+    <t>Bhattacharjee, Prosanta; Singh, Om</t>
+  </si>
+  <si>
+    <t>Repeated ingestion of sharp-pointed metallic objects</t>
+  </si>
+  <si>
+    <t>Archives of Iranian medicine</t>
+  </si>
+  <si>
+    <t>Bisharat, May; O'Donnell, Mark E.; Gibson, Niall; Mitchell, Michael; Refsum, Sigi R.; Carey, P. Declan; Spence, Roy Aj; Lee, Jack</t>
+  </si>
+  <si>
+    <t>Foreign body ingestion in prisoners - the Belfast experience</t>
+  </si>
+  <si>
+    <t>Ahmed, Ali M.; Hassab, Mohamed H.; Al-Hussaini, Abdulrahman A.; Al-Tokhais, Tariq I.</t>
+  </si>
+  <si>
+    <t>Magnetic toy ingestion leading to jejunocecal fistula in a child</t>
+  </si>
+  <si>
+    <t>Saudi Medical Journal</t>
+  </si>
+  <si>
+    <t>Ba≈üpinar, Irfan; Sahin, Sava≈ü; Erdoƒüan, G√ºltekin</t>
+  </si>
+  <si>
+    <t>[Acute mechanical intestinal obstruction after ingestion of foreign bodies: a case report]</t>
+  </si>
+  <si>
+    <t>Siddiqui, Zaka Ur Rab</t>
+  </si>
+  <si>
+    <t>Metal bezoars causing upper gastrointestinal obstruction in a schizophrenic</t>
+  </si>
+  <si>
+    <t>APSP journal of case reports</t>
+  </si>
+  <si>
+    <t>te Wildt, Bert T.; Tettenborn, Christian; Schneider, Udo; Ohlmeier, Martin D.; Zedler, Markus; Zakhalev, Roman; Krueger, Martin</t>
+  </si>
+  <si>
+    <t>Swallowing Foreign Bodies as an Example of Impulse Control Disorder in a Patient With Intellectual Disabilities</t>
+  </si>
+  <si>
+    <t>Psychiatry (Edgmont)</t>
+  </si>
+  <si>
+    <t>Tokarski, Zbigniew; Florkowski, Antoni; Talarowska, Monika; Wierzbi≈Ñski, Piotr; ≈Åopaci≈Ñska, Iwona; Zboralski, Krzysztof; Szubert, S≈Çawomir</t>
+  </si>
+  <si>
+    <t>[Self-aggressive behavior in prisons]</t>
+  </si>
+  <si>
+    <t>Polski Merkuriusz Lekarski: Organ Polskiego Towarzystwa Lekarskiego</t>
+  </si>
+  <si>
+    <t>Atluri, Dileep; Veluru, Chandra; Chopra, Anish; Mullen, Kevin D.</t>
+  </si>
+  <si>
+    <t>Recurrent Intentional Foreign Body Ingestion: An Endoscopist's Dilemma</t>
+  </si>
+  <si>
+    <t>Gastroenterology &amp; Hepatology</t>
+  </si>
+  <si>
+    <t>Palese, Caren; Al-Kawas, Firas H.</t>
+  </si>
+  <si>
+    <t>Repeat intentional foreign body ingestion: the importance of a multidisciplinary approach</t>
+  </si>
+  <si>
+    <t>Bhasin, Sanjay K.; Kachroo, S. L.; Kumar, Vijay; Kumar, Raj; Chandail, Viajaynt Singh</t>
+  </si>
+  <si>
+    <t>7‚Äù long knife for 7 years in the duodenum: a rare case report and review of literature</t>
+  </si>
+  <si>
+    <t>Petrea, S.; Brezean, I.</t>
+  </si>
+  <si>
+    <t>Self-ingested intraduodenal foreign bodies--expectancy or surgical sanction?</t>
+  </si>
+  <si>
+    <t>Journal of Medicine and Life</t>
+  </si>
+  <si>
+    <t>Ribas, Yolanda; Ruiz-Luna, David; Garrido, Marina; Bargall√≥, Josep; Campillo, Francesc</t>
+  </si>
+  <si>
+    <t>Ingested foreign bodies: do we need a specific approach when treating inmates?</t>
+  </si>
+  <si>
+    <t>Emamhadi, Mohammad Ali; Najari, Fares; Hedayatshode, Mohammad Javad; Sharif, Shokoufeh</t>
+  </si>
+  <si>
+    <t>Sudden Death Following Oral Intake of Metal Objects (Acuphagia): a Case Report</t>
+  </si>
+  <si>
+    <t>Emergency (Tehran, Iran)</t>
+  </si>
+  <si>
+    <t>(PDF) Doormatobezoar: first case report of a bezoar formed by doormat ingestion</t>
+  </si>
+  <si>
+    <t>ResearchGate</t>
+  </si>
+  <si>
+    <t>Bite the bullet: Lead poisoning after ingestion of 206 lead bullets</t>
+  </si>
+  <si>
+    <t>Song, Young S; Covarrubias, Diego A; Nardi, Peter M</t>
+  </si>
+  <si>
+    <t>Foreign Body Appendicitis</t>
+  </si>
+  <si>
+    <t>Endoscopic Retrieval of an Intentionally Ingested Mobile Phone in an Adult: First Case Report of its Kind</t>
+  </si>
+  <si>
+    <t>Escalating Ingestion of Razor Blades in a Patient With Borderline Personality Disorder</t>
+  </si>
+  <si>
+    <t>Psychiatrist.com</t>
+  </si>
+  <si>
+    <t>Frequent Deliberate Self-Harm: Repetition, Suicide and Cost after Three or More Years - C R Rodger, 1995</t>
+  </si>
+  <si>
+    <t>Journey of a Swallowed Toothbrush to the Colon</t>
   </si>
 </sst>
 </file>
@@ -2514,10 +2788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A81A345-0683-F840-B0F4-445E0232AC4D}">
-  <dimension ref="A1:U157"/>
+  <dimension ref="A1:U195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T188" sqref="T188:T195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2645,348 +2919,270 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B3">
-        <v>1969</v>
+        <v>1962</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>544</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>545</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>546</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>45761.607939814814</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B4">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>548</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>45762.43472222222</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="S4" t="s">
-        <v>449</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U4" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B5">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>45761.671574074076</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+        <v>45761.607939814814</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>460</v>
+      </c>
       <c r="R5" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="U5" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B6">
-        <v>1974</v>
+        <v>1969</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
       <c r="M6" s="1">
-        <v>45397.443749999999</v>
-      </c>
-      <c r="N6" t="s">
-        <v>458</v>
-      </c>
-      <c r="O6" t="s">
-        <v>461</v>
-      </c>
-      <c r="P6" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>465</v>
-      </c>
-      <c r="R6" t="s">
-        <v>466</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>455</v>
+        <v>45762.43472222222</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="S6" t="s">
+        <v>449</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>449</v>
+      </c>
+      <c r="U6" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B7">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>45397.447916666664</v>
-      </c>
-      <c r="N7" t="s">
-        <v>458</v>
-      </c>
-      <c r="O7" t="s">
-        <v>472</v>
-      </c>
-      <c r="P7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>471</v>
-      </c>
-      <c r="R7" t="s">
-        <v>469</v>
+        <v>45761.671574074076</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>467</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>449</v>
+      </c>
+      <c r="U7" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B8">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8" t="b">
+      <c r="K8" t="b">
         <v>1</v>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>45397.456944444442</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>476</v>
+      <c r="M8" s="1">
+        <v>45397.443749999999</v>
+      </c>
+      <c r="N8" t="s">
+        <v>458</v>
+      </c>
+      <c r="O8" t="s">
+        <v>461</v>
+      </c>
+      <c r="P8" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>465</v>
       </c>
       <c r="R8" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B9">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -2995,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -3004,22 +3200,22 @@
         <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>45762.482638888891</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>480</v>
+        <v>45397.447916666664</v>
+      </c>
+      <c r="N9" t="s">
+        <v>458</v>
+      </c>
+      <c r="O9" t="s">
+        <v>472</v>
       </c>
       <c r="P9" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>471</v>
       </c>
       <c r="R9" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>455</v>
@@ -3030,81 +3226,39 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B10">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>549</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>550</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>551</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>45762.489583333336</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="P10" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="R10" t="s">
-        <v>487</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U10" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B11">
-        <v>1983</v>
+        <v>1978</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -3113,34 +3267,34 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>45762.495138888888</v>
+        <v>45397.456944444442</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="P11" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>491</v>
+        <v>474</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="R11" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>449</v>
@@ -3148,134 +3302,65 @@
       <c r="T11" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="U11" t="s">
-        <v>493</v>
+      <c r="U11" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B12">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>552</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>553</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>554</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>45757.375856481478</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B13">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>555</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>556</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>557</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>45762.506249999999</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O13" t="s">
-        <v>500</v>
-      </c>
-      <c r="P13" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="R13" t="s">
-        <v>502</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U13" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B14">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -3293,22 +3378,22 @@
         <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>45762.508333333331</v>
+        <v>45762.482638888891</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O14" t="s">
-        <v>506</v>
+        <v>479</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="P14" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="R14" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>455</v>
@@ -3319,19 +3404,19 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B15">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -3340,42 +3425,60 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>45762.557638888888</v>
+        <v>45762.489583333336</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="P15" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="R15" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>449</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>449</v>
+      </c>
+      <c r="U15" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B16">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -3384,22 +3487,34 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
       <c r="J16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>45762.581944444442</v>
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>45762.495138888888</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="O16" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="P16" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>491</v>
+      </c>
       <c r="R16" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>449</v>
@@ -3408,74 +3523,77 @@
         <v>449</v>
       </c>
       <c r="U16" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B17">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
       </c>
       <c r="K17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>45762.586111111108</v>
+        <v>45757.375856481478</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="R17" t="s">
-        <v>512</v>
+        <v>479</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="U17" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B18">
-        <v>1988</v>
+        <v>1983</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -3483,26 +3601,29 @@
       <c r="G18" t="b">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>45762.587500000001</v>
+        <v>45762.506249999999</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>513</v>
+        <v>473</v>
+      </c>
+      <c r="O18" t="s">
+        <v>500</v>
+      </c>
+      <c r="P18" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="R18" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>449</v>
@@ -3511,127 +3632,100 @@
         <v>449</v>
       </c>
       <c r="U18" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B19">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
         <v>1</v>
       </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
       <c r="J19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>45762.590277777781</v>
+        <v>45762.508333333331</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="s">
-        <v>517</v>
+        <v>473</v>
+      </c>
+      <c r="O19" t="s">
+        <v>506</v>
+      </c>
+      <c r="P19" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R19" t="s">
+        <v>505</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B20">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>558</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>559</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>560</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
-        <v>45762.591666666667</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="R20" t="s">
-        <v>518</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U20" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B21">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -3640,51 +3734,42 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
-        <v>45762.592361111114</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>45762.557638888888</v>
+      </c>
       <c r="R21" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>449</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="U21" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B22">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -3702,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="1">
-        <v>45762.599305555559</v>
+        <v>45762.581944444442</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="R22" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>449</v>
@@ -3717,130 +3802,94 @@
         <v>449</v>
       </c>
       <c r="U22" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B23">
-        <v>1991</v>
+        <v>1986</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>561</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>562</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1">
-        <v>45762.602777777778</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O23" t="s">
-        <v>528</v>
-      </c>
-      <c r="P23" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>527</v>
-      </c>
-      <c r="R23" t="s">
-        <v>525</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B24">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
       </c>
       <c r="K24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="1">
-        <v>45762.635416666664</v>
+        <v>45762.586111111108</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O24" t="s">
-        <v>529</v>
-      </c>
-      <c r="P24" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="R24" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>449</v>
+      </c>
+      <c r="U24" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B25">
-        <v>1993</v>
+        <v>1988</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -3849,19 +3898,25 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
       </c>
       <c r="M25" s="1">
-        <v>45761.540856481479</v>
+        <v>45762.587500000001</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
-        <v>532</v>
+      <c r="R25" t="s">
+        <v>515</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>449</v>
@@ -3869,25 +3924,25 @@
       <c r="T25" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="U25" s="1" t="s">
-        <v>519</v>
+      <c r="U25" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B26">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -3898,9 +3953,6 @@
       <c r="H26">
         <v>9</v>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
@@ -3908,13 +3960,16 @@
         <v>0</v>
       </c>
       <c r="M26" s="1">
-        <v>45397.660416666666</v>
+        <v>45762.590277777781</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="R26" t="s">
-        <v>533</v>
+        <v>458</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>517</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>449</v>
@@ -3922,25 +3977,25 @@
       <c r="T26" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="U26" t="s">
-        <v>478</v>
+      <c r="U26" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B27">
-        <v>1995</v>
+        <v>1988</v>
       </c>
       <c r="C27" t="s">
         <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -3949,16 +4004,22 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>45762.663194444445</v>
+        <v>45762.591666666667</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="R27" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>449</v>
@@ -3967,24 +4028,24 @@
         <v>449</v>
       </c>
       <c r="U27" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B28">
-        <v>1995</v>
+        <v>1990</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -3993,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -4001,11 +4062,17 @@
       <c r="K28" t="b">
         <v>1</v>
       </c>
-      <c r="M28" s="1">
-        <v>45762.665277777778</v>
-      </c>
+      <c r="M28" s="2">
+        <v>45762.592361111114</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
       <c r="R28" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>449</v>
@@ -4014,544 +4081,700 @@
         <v>449</v>
       </c>
       <c r="U28" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B29">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>563</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>564</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>565</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>9</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="M29" s="1">
-        <v>45761.539814814816</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B30">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
-      <c r="J30" t="b">
-        <v>1</v>
-      </c>
       <c r="K30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>45762.675694444442</v>
+        <v>45762.599305555559</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="O30" t="s">
-        <v>538</v>
-      </c>
-      <c r="P30" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
       <c r="R30" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>449</v>
       </c>
       <c r="U30" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B31">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>566</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>567</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>568</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="M31" s="1">
-        <v>45762.677777777775</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="R31" t="s">
-        <v>543</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U31" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B32">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>45762.602777777778</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O32" t="s">
+        <v>528</v>
+      </c>
+      <c r="P32" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>527</v>
+      </c>
+      <c r="R32" t="s">
+        <v>525</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="T32" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="B33">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
       </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>45762.635416666664</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O33" t="s">
+        <v>529</v>
+      </c>
+      <c r="P33" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>471</v>
+      </c>
+      <c r="R33" t="s">
+        <v>531</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="T33" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B34">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
       </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
       <c r="M34" s="1">
-        <v>45761.607071759259</v>
-      </c>
-      <c r="N34" s="1"/>
+        <v>45761.540856481479</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>513</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="R34" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>449</v>
+      </c>
       <c r="T34" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
+        <v>525</v>
+      </c>
+      <c r="B35">
+        <v>1995</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>45397.660416666666</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R35" t="s">
+        <v>533</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>526</v>
+      </c>
+      <c r="B36">
+        <v>1995</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="M36" s="1">
+        <v>45762.663194444445</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R36" t="s">
+        <v>533</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U36" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>527</v>
+      </c>
+      <c r="B37">
+        <v>1995</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>7</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>45762.665277777778</v>
+      </c>
+      <c r="R37" t="s">
+        <v>535</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U37" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>528</v>
+      </c>
+      <c r="B38">
+        <v>1996</v>
+      </c>
+      <c r="C38" t="s">
+        <v>569</v>
+      </c>
+      <c r="D38" t="s">
+        <v>570</v>
+      </c>
+      <c r="E38" t="s">
+        <v>407</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>529</v>
+      </c>
+      <c r="B39">
+        <v>1996</v>
+      </c>
+      <c r="C39" t="s">
+        <v>571</v>
+      </c>
+      <c r="D39" t="s">
+        <v>572</v>
+      </c>
+      <c r="E39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>530</v>
+      </c>
+      <c r="B40">
+        <v>1996</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>45761.539814814816</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>531</v>
+      </c>
+      <c r="B41">
+        <v>1997</v>
+      </c>
+      <c r="C41" t="s">
+        <v>573</v>
+      </c>
+      <c r="D41" t="s">
+        <v>574</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="1">
+        <v>45761.553611111114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>532</v>
+      </c>
+      <c r="B42">
+        <v>1997</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>45762.675694444442</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="O42" t="s">
+        <v>538</v>
+      </c>
+      <c r="P42" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>540</v>
+      </c>
+      <c r="R42" t="s">
         <v>537</v>
       </c>
-      <c r="B35">
+      <c r="S42" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U42" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>533</v>
+      </c>
+      <c r="B43">
+        <v>1997</v>
+      </c>
+      <c r="C43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>45762.677777777775</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R43" t="s">
+        <v>543</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="U43" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>534</v>
+      </c>
+      <c r="B44">
         <v>1998</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>535</v>
+      </c>
+      <c r="B45">
+        <v>1998</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>536</v>
+      </c>
+      <c r="B46">
+        <v>1998</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="1">
+        <v>45761.607071759259</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>537</v>
+      </c>
+      <c r="B47">
+        <v>1998</v>
+      </c>
+      <c r="C47" t="s">
         <v>108</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D47" t="s">
         <v>109</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E47" t="s">
         <v>110</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>539</v>
-      </c>
-      <c r="B36">
-        <v>1999</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" t="s">
-        <v>113</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="1">
-        <v>45761.687175925923</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>541</v>
-      </c>
-      <c r="B37">
-        <v>1999</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="1">
-        <v>45761.671203703707</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>542</v>
-      </c>
-      <c r="B38">
-        <v>2000</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>543</v>
-      </c>
-      <c r="B39">
-        <v>2001</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E39" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>544</v>
-      </c>
-      <c r="B40">
-        <v>2001</v>
-      </c>
-      <c r="C40" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>546</v>
-      </c>
-      <c r="B41">
-        <v>2001</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>547</v>
-      </c>
-      <c r="B42">
-        <v>2002</v>
-      </c>
-      <c r="C42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>548</v>
-      </c>
-      <c r="B43">
-        <v>2002</v>
-      </c>
-      <c r="C43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>549</v>
-      </c>
-      <c r="B44">
-        <v>2002</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>550</v>
-      </c>
-      <c r="B45">
-        <v>2002</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>551</v>
-      </c>
-      <c r="B46">
-        <v>2002</v>
-      </c>
-      <c r="C46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E46" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>552</v>
-      </c>
-      <c r="B47">
-        <v>2002</v>
-      </c>
-      <c r="C47" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" t="s">
-        <v>98</v>
-      </c>
       <c r="F47" t="s">
         <v>17</v>
       </c>
@@ -4559,122 +4782,125 @@
         <v>449</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="B48">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>575</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>576</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>577</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
-      </c>
-      <c r="M48" s="1">
-        <v>45761.541284722225</v>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="B49">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
+      <c r="M49" s="1">
+        <v>45761.687175925923</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
       <c r="T49" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B50">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>578</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>579</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>580</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B51">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
       </c>
+      <c r="M51" s="1">
+        <v>45761.671203703707</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
       <c r="T51" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B52">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -4685,19 +4911,19 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="B53">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -4708,19 +4934,19 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B54">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -4731,42 +4957,39 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B55">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>581</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>582</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>583</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B56">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -4777,19 +5000,19 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="B57">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -4800,19 +5023,19 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="B58">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -4823,19 +5046,19 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B59">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -4846,19 +5069,19 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="B60">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -4869,19 +5092,19 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="B61">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -4892,19 +5115,19 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="B62">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -4915,25 +5138,25 @@
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="B63">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
       </c>
       <c r="M63" s="1">
-        <v>45761.67496527778</v>
+        <v>45761.541284722225</v>
       </c>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -4947,19 +5170,19 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="B64">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -4970,51 +5193,42 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="B65">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
       </c>
-      <c r="M65" s="1">
-        <v>45761.588125000002</v>
-      </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
       <c r="T65" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="B66">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -5025,19 +5239,19 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="B67">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C67" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="E67" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -5048,51 +5262,42 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="B68">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
-      <c r="M68" s="1">
-        <v>45761.61440972222</v>
-      </c>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
       <c r="T68" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B69">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -5103,42 +5308,39 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="B70">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C70" t="s">
-        <v>204</v>
+        <v>584</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>585</v>
       </c>
       <c r="E70" t="s">
-        <v>206</v>
+        <v>562</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
-      </c>
-      <c r="T70" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="B71">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="E71" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -5149,19 +5351,19 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="B72">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -5172,74 +5374,62 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="B73">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
       </c>
-      <c r="M73" s="1">
-        <v>45761.694710648146</v>
-      </c>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
       <c r="T73" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="B74">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C74" t="s">
-        <v>215</v>
+        <v>586</v>
       </c>
       <c r="D74" t="s">
-        <v>216</v>
+        <v>587</v>
       </c>
       <c r="E74" t="s">
-        <v>190</v>
+        <v>350</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="B75">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C75" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -5250,19 +5440,19 @@
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B76">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="E76" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -5273,19 +5463,19 @@
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="B77">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -5296,19 +5486,19 @@
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="B78">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -5319,19 +5509,19 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="B79">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="E79" t="s">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -5342,25 +5532,25 @@
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="B80">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="E80" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
       </c>
       <c r="M80" s="1">
-        <v>45757.349930555552</v>
+        <v>45761.67496527778</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -5374,129 +5564,117 @@
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="B81">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>588</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>589</v>
       </c>
       <c r="E81" t="s">
-        <v>236</v>
+        <v>590</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
-      </c>
-      <c r="T81" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="B82">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="E82" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
       </c>
-      <c r="M82" s="1">
-        <v>45761.561400462961</v>
-      </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
       <c r="T82" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="B83">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
       </c>
+      <c r="M83" s="1">
+        <v>45761.588125000002</v>
+      </c>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
       <c r="T83" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="B84">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C84" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
-      <c r="M84" s="1">
-        <v>45761.562210648146</v>
-      </c>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
       <c r="T84" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="B85">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C85" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="D85" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="E85" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
@@ -5507,42 +5685,51 @@
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>598</v>
+        <v>576</v>
       </c>
       <c r="B86">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C86" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="E86" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
       </c>
+      <c r="M86" s="1">
+        <v>45761.61440972222</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
       <c r="T86" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="B87">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C87" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -5553,19 +5740,19 @@
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="B88">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C88" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="E88" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -5576,19 +5763,19 @@
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="B89">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C89" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="E89" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -5599,19 +5786,19 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="B90">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C90" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="D90" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="E90" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -5622,97 +5809,91 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="B91">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C91" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="E91" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
+      <c r="M91" s="1">
+        <v>45761.694710648146</v>
+      </c>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
       <c r="T91" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="B92">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C92" t="s">
-        <v>264</v>
+        <v>591</v>
       </c>
       <c r="D92" t="s">
-        <v>265</v>
+        <v>592</v>
       </c>
       <c r="E92" t="s">
-        <v>266</v>
+        <v>593</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
-      </c>
-      <c r="M92" s="1">
-        <v>45761.757037037038</v>
-      </c>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="B93">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C93" t="s">
-        <v>267</v>
+        <v>594</v>
       </c>
       <c r="D93" t="s">
-        <v>268</v>
+        <v>595</v>
       </c>
       <c r="E93" t="s">
-        <v>269</v>
+        <v>568</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="B94">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C94" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="D94" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="E94" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -5723,19 +5904,19 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="B95">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>217</v>
       </c>
       <c r="D95" t="s">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="E95" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -5746,51 +5927,42 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="B96">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C96" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="E96" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
-      <c r="M96" s="1">
-        <v>45761.600775462961</v>
-      </c>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
       <c r="T96" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>616</v>
+        <v>587</v>
       </c>
       <c r="B97">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C97" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="D97" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="E97" t="s">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -5801,51 +5973,42 @@
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>617</v>
+        <v>588</v>
       </c>
       <c r="B98">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C98" t="s">
-        <v>282</v>
+        <v>226</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>227</v>
       </c>
       <c r="E98" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
-      <c r="M98" s="1">
-        <v>45761.611886574072</v>
-      </c>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
       <c r="T98" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="B99">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C99" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="D99" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
@@ -5856,80 +6019,80 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="B100">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C100" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="D100" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="E100" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
       </c>
+      <c r="M100" s="1">
+        <v>45757.349930555552</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
       <c r="T100" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="B101">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C101" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="D101" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="E101" t="s">
-        <v>68</v>
+        <v>236</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="1">
-        <v>45761.601111111115</v>
-      </c>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
       <c r="T101" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>621</v>
+        <v>592</v>
       </c>
       <c r="B102">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C102" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="D102" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
       </c>
       <c r="M102" s="1">
-        <v>45761.562430555554</v>
+        <v>45761.561400462961</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -5943,19 +6106,19 @@
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>622</v>
+        <v>593</v>
       </c>
       <c r="B103">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C103" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="D103" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="E103" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -5966,106 +6129,91 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>623</v>
+        <v>594</v>
       </c>
       <c r="B104">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C104" t="s">
-        <v>296</v>
+        <v>243</v>
       </c>
       <c r="D104" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="E104" t="s">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
       </c>
+      <c r="M104" s="1">
+        <v>45761.562210648146</v>
+      </c>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
       <c r="T104" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="B105">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C105" t="s">
-        <v>299</v>
+        <v>596</v>
       </c>
       <c r="D105" t="s">
-        <v>300</v>
+        <v>597</v>
       </c>
       <c r="E105" t="s">
-        <v>301</v>
+        <v>598</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
-      </c>
-      <c r="M105" s="1">
-        <v>45761.593888888892</v>
-      </c>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>625</v>
+        <v>596</v>
       </c>
       <c r="B106">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C106" t="s">
-        <v>302</v>
+        <v>599</v>
       </c>
       <c r="D106" t="s">
-        <v>303</v>
+        <v>600</v>
       </c>
       <c r="E106" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
-      </c>
-      <c r="M106" s="1">
-        <v>45761.608206018522</v>
-      </c>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="B107">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C107" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="D107" t="s">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="E107" t="s">
-        <v>307</v>
+        <v>119</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -6076,51 +6224,42 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="B108">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C108" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="D108" t="s">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c r="E108" t="s">
-        <v>310</v>
+        <v>119</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
       </c>
-      <c r="M108" s="1">
-        <v>45761.552025462966</v>
-      </c>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
       <c r="T108" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>629</v>
+        <v>600</v>
       </c>
       <c r="B109">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C109" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="D109" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="E109" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
@@ -6131,19 +6270,19 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>630</v>
+        <v>601</v>
       </c>
       <c r="B110">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C110" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="D110" t="s">
-        <v>315</v>
+        <v>254</v>
       </c>
       <c r="E110" t="s">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -6154,65 +6293,62 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>631</v>
+        <v>602</v>
       </c>
       <c r="B111">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>604</v>
       </c>
       <c r="D111" t="s">
-        <v>318</v>
+        <v>605</v>
       </c>
       <c r="E111" t="s">
-        <v>319</v>
+        <v>606</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
       </c>
-      <c r="T111" s="1" t="s">
-        <v>449</v>
+      <c r="M111" s="1">
+        <v>45761.554131944446</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>635</v>
+        <v>604</v>
       </c>
       <c r="B112">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C112" t="s">
-        <v>320</v>
+        <v>601</v>
       </c>
       <c r="D112" t="s">
-        <v>321</v>
+        <v>602</v>
       </c>
       <c r="E112" t="s">
-        <v>322</v>
+        <v>603</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
-      </c>
-      <c r="T112" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="B113">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C113" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="D113" t="s">
-        <v>324</v>
+        <v>257</v>
       </c>
       <c r="E113" t="s">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
@@ -6223,112 +6359,91 @@
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>638</v>
+        <v>606</v>
       </c>
       <c r="B114">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C114" t="s">
-        <v>326</v>
+        <v>607</v>
       </c>
       <c r="D114" t="s">
-        <v>327</v>
+        <v>608</v>
       </c>
       <c r="E114" t="s">
-        <v>328</v>
+        <v>609</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
-      </c>
-      <c r="T114" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>639</v>
+        <v>607</v>
       </c>
       <c r="B115">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C115" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="D115" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="E115" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
       </c>
-      <c r="M115" s="1">
-        <v>45761.541678240741</v>
-      </c>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
       <c r="T115" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="B116">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C116" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="D116" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="E116" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
       </c>
-      <c r="M116" s="1">
-        <v>45761.562893518516</v>
-      </c>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
       <c r="T116" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="B117">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C117" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="D117" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="E117" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="M117" s="1">
-        <v>45761.675127314818</v>
+        <v>45761.757037037038</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="1"/>
@@ -6342,51 +6457,39 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="B118">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C118" t="s">
-        <v>336</v>
+        <v>610</v>
       </c>
       <c r="D118" t="s">
-        <v>337</v>
+        <v>611</v>
       </c>
       <c r="E118" t="s">
-        <v>338</v>
+        <v>612</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
-      </c>
-      <c r="M118" s="1">
-        <v>45746.42459490741</v>
-      </c>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="B119">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C119" t="s">
-        <v>339</v>
+        <v>267</v>
       </c>
       <c r="D119" t="s">
-        <v>340</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -6397,51 +6500,42 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="B120">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C120" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="D120" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="E120" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
       </c>
-      <c r="M120" s="1">
-        <v>45761.614166666666</v>
-      </c>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
       <c r="T120" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="B121">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C121" t="s">
-        <v>345</v>
+        <v>273</v>
       </c>
       <c r="D121" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="E121" t="s">
-        <v>347</v>
+        <v>275</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -6452,112 +6546,100 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="B122">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C122" t="s">
-        <v>348</v>
+        <v>613</v>
       </c>
       <c r="D122" t="s">
-        <v>349</v>
+        <v>614</v>
       </c>
       <c r="E122" t="s">
-        <v>350</v>
+        <v>612</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
-      </c>
-      <c r="M122" s="1">
-        <v>45761.61246527778</v>
-      </c>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="B123">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C123" t="s">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="D123" t="s">
-        <v>352</v>
+        <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>353</v>
+        <v>278</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
       </c>
+      <c r="M123" s="1">
+        <v>45761.600775462961</v>
+      </c>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
       <c r="T123" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="B124">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C124" t="s">
-        <v>354</v>
+        <v>279</v>
       </c>
       <c r="D124" t="s">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="E124" t="s">
-        <v>356</v>
+        <v>281</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
       </c>
-      <c r="M124" s="1">
-        <v>45761.58326388889</v>
-      </c>
-      <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
-      <c r="R124" s="1"/>
-      <c r="S124" s="1"/>
       <c r="T124" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="B125">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
+        <v>282</v>
       </c>
       <c r="D125" t="s">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="E125" t="s">
-        <v>359</v>
+        <v>284</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
       </c>
       <c r="M125" s="1">
-        <v>45761.574907407405</v>
+        <v>45761.611886574072</v>
       </c>
       <c r="N125" s="1"/>
       <c r="O125" s="1"/>
@@ -6571,51 +6653,42 @@
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="B126">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C126" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
       <c r="D126" t="s">
-        <v>361</v>
+        <v>286</v>
       </c>
       <c r="E126" t="s">
-        <v>362</v>
+        <v>62</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
       </c>
-      <c r="M126" s="1">
-        <v>45761.453923611109</v>
-      </c>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1"/>
       <c r="T126" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="B127">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C127" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="E127" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="F127" t="s">
         <v>17</v>
@@ -6626,25 +6699,25 @@
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="B128">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C128" t="s">
-        <v>365</v>
+        <v>289</v>
       </c>
       <c r="D128" t="s">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
       </c>
       <c r="M128" s="1">
-        <v>45761.581875000003</v>
+        <v>45761.601111111115</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
@@ -6658,74 +6731,74 @@
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="B129">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C129" t="s">
-        <v>367</v>
+        <v>291</v>
       </c>
       <c r="D129" t="s">
-        <v>368</v>
+        <v>292</v>
       </c>
       <c r="E129" t="s">
-        <v>369</v>
+        <v>293</v>
       </c>
       <c r="F129" t="s">
         <v>17</v>
       </c>
+      <c r="M129" s="1">
+        <v>45761.562430555554</v>
+      </c>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
       <c r="T129" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="B130">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C130" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="D130" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="E130" t="s">
-        <v>372</v>
+        <v>190</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
       </c>
-      <c r="M130" s="1">
-        <v>45761.575787037036</v>
-      </c>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-      <c r="S130" s="1"/>
       <c r="T130" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="B131">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C131" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="D131" t="s">
-        <v>374</v>
+        <v>297</v>
       </c>
       <c r="E131" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
       <c r="F131" t="s">
         <v>17</v>
@@ -6736,25 +6809,25 @@
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="B132">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C132" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="D132" t="s">
-        <v>377</v>
+        <v>300</v>
       </c>
       <c r="E132" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
       </c>
       <c r="M132" s="1">
-        <v>45761.584166666667</v>
+        <v>45761.593888888892</v>
       </c>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
@@ -6768,65 +6841,74 @@
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="B133">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C133" t="s">
-        <v>379</v>
+        <v>302</v>
       </c>
       <c r="D133" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
       <c r="E133" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
       <c r="F133" t="s">
         <v>17</v>
       </c>
+      <c r="M133" s="1">
+        <v>45761.608206018522</v>
+      </c>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
       <c r="T133" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>660</v>
+        <v>626</v>
       </c>
       <c r="B134">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C134" t="s">
-        <v>382</v>
+        <v>615</v>
       </c>
       <c r="D134" t="s">
-        <v>383</v>
+        <v>616</v>
       </c>
       <c r="E134" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="F134" t="s">
         <v>17</v>
       </c>
-      <c r="T134" s="1" t="s">
-        <v>449</v>
+      <c r="M134" s="1">
+        <v>45761.669560185182</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>662</v>
+        <v>627</v>
       </c>
       <c r="B135">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C135" t="s">
-        <v>385</v>
+        <v>305</v>
       </c>
       <c r="D135" t="s">
-        <v>386</v>
+        <v>306</v>
       </c>
       <c r="E135" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
@@ -6837,42 +6919,51 @@
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>663</v>
+        <v>628</v>
       </c>
       <c r="B136">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C136" t="s">
-        <v>388</v>
+        <v>308</v>
       </c>
       <c r="D136" t="s">
-        <v>389</v>
+        <v>309</v>
       </c>
       <c r="E136" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="F136" t="s">
         <v>17</v>
       </c>
+      <c r="M136" s="1">
+        <v>45761.552025462966</v>
+      </c>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
       <c r="T136" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>664</v>
+        <v>629</v>
       </c>
       <c r="B137">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="D137" t="s">
-        <v>392</v>
+        <v>312</v>
       </c>
       <c r="E137" t="s">
-        <v>393</v>
+        <v>313</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
@@ -6883,19 +6974,19 @@
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>665</v>
+        <v>630</v>
       </c>
       <c r="B138">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C138" t="s">
-        <v>394</v>
+        <v>314</v>
       </c>
       <c r="D138" t="s">
-        <v>395</v>
+        <v>315</v>
       </c>
       <c r="E138" t="s">
-        <v>396</v>
+        <v>316</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
@@ -6906,135 +6997,105 @@
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="B139">
-        <v>2019</v>
+        <v>2014</v>
+      </c>
+      <c r="C139" t="s">
+        <v>317</v>
       </c>
       <c r="D139" t="s">
-        <v>397</v>
+        <v>318</v>
       </c>
       <c r="E139" t="s">
-        <v>398</v>
+        <v>319</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
       </c>
-      <c r="M139" s="1">
-        <v>45761.529270833336</v>
-      </c>
-      <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
-      <c r="S139" s="1"/>
       <c r="T139" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>669</v>
+        <v>632</v>
       </c>
       <c r="B140">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C140" t="s">
-        <v>399</v>
+        <v>617</v>
       </c>
       <c r="D140" t="s">
-        <v>400</v>
+        <v>618</v>
       </c>
       <c r="E140" t="s">
-        <v>175</v>
+        <v>619</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
-      </c>
-      <c r="M140" s="1">
-        <v>45761.572060185186</v>
-      </c>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
-      <c r="T140" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>670</v>
+        <v>633</v>
       </c>
       <c r="B141">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C141" t="s">
-        <v>401</v>
+        <v>620</v>
       </c>
       <c r="D141" t="s">
-        <v>402</v>
+        <v>621</v>
       </c>
       <c r="E141" t="s">
-        <v>322</v>
+        <v>562</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
-      </c>
-      <c r="T141" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>672</v>
+        <v>635</v>
       </c>
       <c r="B142">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="C142" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
       <c r="D142" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="E142" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="F142" t="s">
         <v>17</v>
       </c>
-      <c r="M142" s="1">
-        <v>45761.581365740742</v>
-      </c>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1"/>
       <c r="T142" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>673</v>
+        <v>637</v>
       </c>
       <c r="B143">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C143" t="s">
-        <v>405</v>
+        <v>323</v>
       </c>
       <c r="D143" t="s">
-        <v>406</v>
+        <v>324</v>
       </c>
       <c r="E143" t="s">
-        <v>407</v>
+        <v>325</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
@@ -7045,19 +7106,19 @@
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="B144">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C144" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="D144" t="s">
-        <v>409</v>
+        <v>327</v>
       </c>
       <c r="E144" t="s">
-        <v>410</v>
+        <v>328</v>
       </c>
       <c r="F144" t="s">
         <v>17</v>
@@ -7068,25 +7129,25 @@
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>675</v>
+        <v>639</v>
       </c>
       <c r="B145">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C145" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="D145" t="s">
-        <v>412</v>
+        <v>330</v>
       </c>
       <c r="E145" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
       </c>
       <c r="M145" s="1">
-        <v>45746.429988425924</v>
+        <v>45761.541678240741</v>
       </c>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
@@ -7100,25 +7161,25 @@
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>676</v>
+        <v>640</v>
       </c>
       <c r="B146">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C146" t="s">
-        <v>413</v>
+        <v>332</v>
       </c>
       <c r="D146" t="s">
-        <v>414</v>
+        <v>333</v>
       </c>
       <c r="E146" t="s">
-        <v>415</v>
+        <v>128</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
       </c>
       <c r="M146" s="1">
-        <v>45761.581712962965</v>
+        <v>45761.562893518516</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
@@ -7132,25 +7193,25 @@
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>677</v>
+        <v>641</v>
       </c>
       <c r="B147">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C147" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="D147" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="E147" t="s">
-        <v>418</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
       </c>
       <c r="M147" s="1">
-        <v>45761.53769675926</v>
+        <v>45761.675127314818</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
@@ -7164,25 +7225,25 @@
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>678</v>
+        <v>642</v>
       </c>
       <c r="B148">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C148" t="s">
-        <v>419</v>
+        <v>336</v>
       </c>
       <c r="D148" t="s">
-        <v>420</v>
+        <v>337</v>
       </c>
       <c r="E148" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
       </c>
       <c r="M148" s="1">
-        <v>45746.438900462963</v>
+        <v>45746.42459490741</v>
       </c>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
@@ -7196,19 +7257,19 @@
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>679</v>
+        <v>643</v>
       </c>
       <c r="B149">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C149" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="D149" t="s">
-        <v>423</v>
+        <v>340</v>
       </c>
       <c r="E149" t="s">
-        <v>424</v>
+        <v>341</v>
       </c>
       <c r="F149" t="s">
         <v>17</v>
@@ -7219,135 +7280,135 @@
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>680</v>
+        <v>644</v>
       </c>
       <c r="B150">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C150" t="s">
-        <v>425</v>
+        <v>342</v>
       </c>
       <c r="D150" t="s">
-        <v>426</v>
+        <v>343</v>
       </c>
       <c r="E150" t="s">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="F150" t="s">
         <v>17</v>
       </c>
+      <c r="M150" s="1">
+        <v>45761.614166666666</v>
+      </c>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
       <c r="T150" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>681</v>
+        <v>645</v>
       </c>
       <c r="B151">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C151" t="s">
-        <v>428</v>
+        <v>345</v>
       </c>
       <c r="D151" t="s">
-        <v>429</v>
+        <v>346</v>
       </c>
       <c r="E151" t="s">
-        <v>430</v>
+        <v>347</v>
       </c>
       <c r="F151" t="s">
         <v>17</v>
       </c>
-      <c r="M151" s="1">
-        <v>45761.526678240742</v>
-      </c>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
       <c r="T151" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>682</v>
+        <v>646</v>
       </c>
       <c r="B152">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C152" t="s">
-        <v>431</v>
+        <v>348</v>
       </c>
       <c r="D152" t="s">
-        <v>432</v>
+        <v>349</v>
       </c>
       <c r="E152" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
       </c>
+      <c r="M152" s="1">
+        <v>45761.61246527778</v>
+      </c>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
       <c r="T152" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>683</v>
+        <v>647</v>
       </c>
       <c r="B153">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C153" t="s">
-        <v>433</v>
+        <v>351</v>
       </c>
       <c r="D153" t="s">
-        <v>434</v>
+        <v>352</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="F153" t="s">
         <v>17</v>
       </c>
-      <c r="M153" s="1">
-        <v>45761.590138888889</v>
-      </c>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
       <c r="T153" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="B154">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="C154" t="s">
-        <v>435</v>
+        <v>354</v>
       </c>
       <c r="D154" t="s">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="E154" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="F154" t="s">
         <v>17</v>
       </c>
       <c r="M154" s="1">
-        <v>45761.527395833335</v>
+        <v>45761.58326388889</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
@@ -7361,25 +7422,25 @@
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>686</v>
+        <v>649</v>
       </c>
       <c r="B155">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="C155" t="s">
-        <v>438</v>
+        <v>357</v>
       </c>
       <c r="D155" t="s">
-        <v>439</v>
+        <v>358</v>
       </c>
       <c r="E155" t="s">
-        <v>440</v>
+        <v>359</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
       </c>
       <c r="M155" s="1">
-        <v>45746.432546296295</v>
+        <v>45761.574907407405</v>
       </c>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
@@ -7393,25 +7454,25 @@
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>687</v>
+        <v>650</v>
       </c>
       <c r="B156">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="C156" t="s">
-        <v>441</v>
+        <v>360</v>
       </c>
       <c r="D156" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="E156" t="s">
-        <v>443</v>
+        <v>362</v>
       </c>
       <c r="F156" t="s">
         <v>17</v>
       </c>
       <c r="M156" s="1">
-        <v>45746.431377314817</v>
+        <v>45761.453923611109</v>
       </c>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
@@ -7425,28 +7486,1016 @@
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157">
+        <v>651</v>
+      </c>
+      <c r="B157">
+        <v>2016</v>
+      </c>
+      <c r="C157" t="s">
+        <v>363</v>
+      </c>
+      <c r="D157" t="s">
+        <v>364</v>
+      </c>
+      <c r="E157" t="s">
+        <v>272</v>
+      </c>
+      <c r="F157" t="s">
+        <v>17</v>
+      </c>
+      <c r="T157" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>652</v>
+      </c>
+      <c r="B158">
+        <v>2016</v>
+      </c>
+      <c r="C158" t="s">
+        <v>365</v>
+      </c>
+      <c r="D158" t="s">
+        <v>366</v>
+      </c>
+      <c r="E158" t="s">
+        <v>281</v>
+      </c>
+      <c r="F158" t="s">
+        <v>17</v>
+      </c>
+      <c r="M158" s="1">
+        <v>45761.581875000003</v>
+      </c>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+      <c r="T158" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>653</v>
+      </c>
+      <c r="B159">
+        <v>2016</v>
+      </c>
+      <c r="C159" t="s">
+        <v>367</v>
+      </c>
+      <c r="D159" t="s">
+        <v>368</v>
+      </c>
+      <c r="E159" t="s">
+        <v>369</v>
+      </c>
+      <c r="F159" t="s">
+        <v>17</v>
+      </c>
+      <c r="T159" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>654</v>
+      </c>
+      <c r="B160">
+        <v>2017</v>
+      </c>
+      <c r="C160" t="s">
+        <v>370</v>
+      </c>
+      <c r="D160" t="s">
+        <v>371</v>
+      </c>
+      <c r="E160" t="s">
+        <v>372</v>
+      </c>
+      <c r="F160" t="s">
+        <v>17</v>
+      </c>
+      <c r="M160" s="1">
+        <v>45761.575787037036</v>
+      </c>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+      <c r="T160" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>656</v>
+      </c>
+      <c r="B161">
+        <v>2017</v>
+      </c>
+      <c r="C161" t="s">
+        <v>373</v>
+      </c>
+      <c r="D161" t="s">
+        <v>374</v>
+      </c>
+      <c r="E161" t="s">
+        <v>375</v>
+      </c>
+      <c r="F161" t="s">
+        <v>17</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>657</v>
+      </c>
+      <c r="B162">
+        <v>2017</v>
+      </c>
+      <c r="C162" t="s">
+        <v>376</v>
+      </c>
+      <c r="D162" t="s">
+        <v>377</v>
+      </c>
+      <c r="E162" t="s">
+        <v>378</v>
+      </c>
+      <c r="F162" t="s">
+        <v>17</v>
+      </c>
+      <c r="M162" s="1">
+        <v>45761.584166666667</v>
+      </c>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>658</v>
+      </c>
+      <c r="B163">
+        <v>2018</v>
+      </c>
+      <c r="C163" t="s">
+        <v>379</v>
+      </c>
+      <c r="D163" t="s">
+        <v>380</v>
+      </c>
+      <c r="E163" t="s">
+        <v>381</v>
+      </c>
+      <c r="F163" t="s">
+        <v>17</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>660</v>
+      </c>
+      <c r="B164">
+        <v>2018</v>
+      </c>
+      <c r="C164" t="s">
+        <v>382</v>
+      </c>
+      <c r="D164" t="s">
+        <v>383</v>
+      </c>
+      <c r="E164" t="s">
+        <v>384</v>
+      </c>
+      <c r="F164" t="s">
+        <v>17</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>661</v>
+      </c>
+      <c r="B165">
+        <v>2018</v>
+      </c>
+      <c r="C165" t="s">
+        <v>622</v>
+      </c>
+      <c r="D165" t="s">
+        <v>623</v>
+      </c>
+      <c r="E165" t="s">
+        <v>624</v>
+      </c>
+      <c r="F165" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>662</v>
+      </c>
+      <c r="B166">
+        <v>2018</v>
+      </c>
+      <c r="C166" t="s">
+        <v>385</v>
+      </c>
+      <c r="D166" t="s">
+        <v>386</v>
+      </c>
+      <c r="E166" t="s">
+        <v>387</v>
+      </c>
+      <c r="F166" t="s">
+        <v>17</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>663</v>
+      </c>
+      <c r="B167">
+        <v>2018</v>
+      </c>
+      <c r="C167" t="s">
+        <v>388</v>
+      </c>
+      <c r="D167" t="s">
+        <v>389</v>
+      </c>
+      <c r="E167" t="s">
+        <v>390</v>
+      </c>
+      <c r="F167" t="s">
+        <v>17</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>664</v>
+      </c>
+      <c r="B168">
+        <v>2018</v>
+      </c>
+      <c r="C168" t="s">
+        <v>391</v>
+      </c>
+      <c r="D168" t="s">
+        <v>392</v>
+      </c>
+      <c r="E168" t="s">
+        <v>393</v>
+      </c>
+      <c r="F168" t="s">
+        <v>17</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>665</v>
+      </c>
+      <c r="B169">
+        <v>2019</v>
+      </c>
+      <c r="C169" t="s">
+        <v>394</v>
+      </c>
+      <c r="D169" t="s">
+        <v>395</v>
+      </c>
+      <c r="E169" t="s">
+        <v>396</v>
+      </c>
+      <c r="F169" t="s">
+        <v>17</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>667</v>
+      </c>
+      <c r="B170">
+        <v>2019</v>
+      </c>
+      <c r="D170" t="s">
+        <v>397</v>
+      </c>
+      <c r="E170" t="s">
+        <v>398</v>
+      </c>
+      <c r="F170" t="s">
+        <v>17</v>
+      </c>
+      <c r="M170" s="1">
+        <v>45761.529270833336</v>
+      </c>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>669</v>
+      </c>
+      <c r="B171">
+        <v>2020</v>
+      </c>
+      <c r="C171" t="s">
+        <v>399</v>
+      </c>
+      <c r="D171" t="s">
+        <v>400</v>
+      </c>
+      <c r="E171" t="s">
+        <v>175</v>
+      </c>
+      <c r="F171" t="s">
+        <v>17</v>
+      </c>
+      <c r="M171" s="1">
+        <v>45761.572060185186</v>
+      </c>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>670</v>
+      </c>
+      <c r="B172">
+        <v>2020</v>
+      </c>
+      <c r="C172" t="s">
+        <v>401</v>
+      </c>
+      <c r="D172" t="s">
+        <v>402</v>
+      </c>
+      <c r="E172" t="s">
+        <v>322</v>
+      </c>
+      <c r="F172" t="s">
+        <v>17</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>672</v>
+      </c>
+      <c r="B173">
+        <v>2020</v>
+      </c>
+      <c r="C173" t="s">
+        <v>403</v>
+      </c>
+      <c r="D173" t="s">
+        <v>404</v>
+      </c>
+      <c r="E173" t="s">
+        <v>359</v>
+      </c>
+      <c r="F173" t="s">
+        <v>17</v>
+      </c>
+      <c r="M173" s="1">
+        <v>45761.581365740742</v>
+      </c>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>673</v>
+      </c>
+      <c r="B174">
+        <v>2020</v>
+      </c>
+      <c r="C174" t="s">
+        <v>405</v>
+      </c>
+      <c r="D174" t="s">
+        <v>406</v>
+      </c>
+      <c r="E174" t="s">
+        <v>407</v>
+      </c>
+      <c r="F174" t="s">
+        <v>17</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>674</v>
+      </c>
+      <c r="B175">
+        <v>2020</v>
+      </c>
+      <c r="C175" t="s">
+        <v>408</v>
+      </c>
+      <c r="D175" t="s">
+        <v>409</v>
+      </c>
+      <c r="E175" t="s">
+        <v>410</v>
+      </c>
+      <c r="F175" t="s">
+        <v>17</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>675</v>
+      </c>
+      <c r="B176">
+        <v>2021</v>
+      </c>
+      <c r="C176" t="s">
+        <v>411</v>
+      </c>
+      <c r="D176" t="s">
+        <v>412</v>
+      </c>
+      <c r="E176" t="s">
+        <v>396</v>
+      </c>
+      <c r="F176" t="s">
+        <v>17</v>
+      </c>
+      <c r="M176" s="1">
+        <v>45746.429988425924</v>
+      </c>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>676</v>
+      </c>
+      <c r="B177">
+        <v>2021</v>
+      </c>
+      <c r="C177" t="s">
+        <v>413</v>
+      </c>
+      <c r="D177" t="s">
+        <v>414</v>
+      </c>
+      <c r="E177" t="s">
+        <v>415</v>
+      </c>
+      <c r="F177" t="s">
+        <v>17</v>
+      </c>
+      <c r="M177" s="1">
+        <v>45761.581712962965</v>
+      </c>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>677</v>
+      </c>
+      <c r="B178">
+        <v>2021</v>
+      </c>
+      <c r="C178" t="s">
+        <v>416</v>
+      </c>
+      <c r="D178" t="s">
+        <v>417</v>
+      </c>
+      <c r="E178" t="s">
+        <v>418</v>
+      </c>
+      <c r="F178" t="s">
+        <v>17</v>
+      </c>
+      <c r="M178" s="1">
+        <v>45761.53769675926</v>
+      </c>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>678</v>
+      </c>
+      <c r="B179">
+        <v>2021</v>
+      </c>
+      <c r="C179" t="s">
+        <v>419</v>
+      </c>
+      <c r="D179" t="s">
+        <v>420</v>
+      </c>
+      <c r="E179" t="s">
+        <v>421</v>
+      </c>
+      <c r="F179" t="s">
+        <v>17</v>
+      </c>
+      <c r="M179" s="1">
+        <v>45746.438900462963</v>
+      </c>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>679</v>
+      </c>
+      <c r="B180">
+        <v>2022</v>
+      </c>
+      <c r="C180" t="s">
+        <v>422</v>
+      </c>
+      <c r="D180" t="s">
+        <v>423</v>
+      </c>
+      <c r="E180" t="s">
+        <v>424</v>
+      </c>
+      <c r="F180" t="s">
+        <v>17</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>680</v>
+      </c>
+      <c r="B181">
+        <v>2022</v>
+      </c>
+      <c r="C181" t="s">
+        <v>425</v>
+      </c>
+      <c r="D181" t="s">
+        <v>426</v>
+      </c>
+      <c r="E181" t="s">
+        <v>427</v>
+      </c>
+      <c r="F181" t="s">
+        <v>17</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>681</v>
+      </c>
+      <c r="B182">
+        <v>2022</v>
+      </c>
+      <c r="C182" t="s">
+        <v>428</v>
+      </c>
+      <c r="D182" t="s">
+        <v>429</v>
+      </c>
+      <c r="E182" t="s">
+        <v>430</v>
+      </c>
+      <c r="F182" t="s">
+        <v>17</v>
+      </c>
+      <c r="M182" s="1">
+        <v>45761.526678240742</v>
+      </c>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+      <c r="T182" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>682</v>
+      </c>
+      <c r="B183">
+        <v>2022</v>
+      </c>
+      <c r="C183" t="s">
+        <v>431</v>
+      </c>
+      <c r="D183" t="s">
+        <v>432</v>
+      </c>
+      <c r="E183" t="s">
+        <v>396</v>
+      </c>
+      <c r="F183" t="s">
+        <v>17</v>
+      </c>
+      <c r="T183" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>683</v>
+      </c>
+      <c r="B184">
+        <v>2022</v>
+      </c>
+      <c r="C184" t="s">
+        <v>433</v>
+      </c>
+      <c r="D184" t="s">
+        <v>434</v>
+      </c>
+      <c r="E184" t="s">
+        <v>281</v>
+      </c>
+      <c r="F184" t="s">
+        <v>17</v>
+      </c>
+      <c r="M184" s="1">
+        <v>45761.590138888889</v>
+      </c>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>684</v>
+      </c>
+      <c r="B185">
+        <v>2023</v>
+      </c>
+      <c r="C185" t="s">
+        <v>435</v>
+      </c>
+      <c r="D185" t="s">
+        <v>436</v>
+      </c>
+      <c r="E185" t="s">
+        <v>437</v>
+      </c>
+      <c r="F185" t="s">
+        <v>17</v>
+      </c>
+      <c r="M185" s="1">
+        <v>45761.527395833335</v>
+      </c>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>686</v>
+      </c>
+      <c r="B186">
+        <v>2023</v>
+      </c>
+      <c r="C186" t="s">
+        <v>438</v>
+      </c>
+      <c r="D186" t="s">
+        <v>439</v>
+      </c>
+      <c r="E186" t="s">
+        <v>440</v>
+      </c>
+      <c r="F186" t="s">
+        <v>17</v>
+      </c>
+      <c r="M186" s="1">
+        <v>45746.432546296295</v>
+      </c>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>687</v>
+      </c>
+      <c r="B187">
+        <v>2023</v>
+      </c>
+      <c r="C187" t="s">
+        <v>441</v>
+      </c>
+      <c r="D187" t="s">
+        <v>442</v>
+      </c>
+      <c r="E187" t="s">
+        <v>443</v>
+      </c>
+      <c r="F187" t="s">
+        <v>17</v>
+      </c>
+      <c r="M187" s="1">
+        <v>45746.431377314817</v>
+      </c>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A188">
         <v>688</v>
       </c>
-      <c r="B157">
+      <c r="B188">
         <v>2023</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C188" t="s">
         <v>444</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D188" t="s">
         <v>445</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E188" t="s">
         <v>446</v>
       </c>
-      <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="T157" s="1" t="s">
+      <c r="F188" t="s">
+        <v>17</v>
+      </c>
+      <c r="T188" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>689</v>
+      </c>
+      <c r="B189">
+        <v>2024</v>
+      </c>
+      <c r="D189" t="s">
+        <v>625</v>
+      </c>
+      <c r="E189" t="s">
+        <v>626</v>
+      </c>
+      <c r="F189" t="s">
+        <v>17</v>
+      </c>
+      <c r="M189" s="1">
+        <v>45761.527615740742</v>
+      </c>
+      <c r="T189" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>690</v>
+      </c>
+      <c r="B190">
+        <v>2024</v>
+      </c>
+      <c r="D190" t="s">
+        <v>627</v>
+      </c>
+      <c r="E190" t="s">
+        <v>626</v>
+      </c>
+      <c r="F190" t="s">
+        <v>17</v>
+      </c>
+      <c r="M190" s="1">
+        <v>45728.65116898148</v>
+      </c>
+      <c r="T190" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>691</v>
+      </c>
+      <c r="C191" t="s">
+        <v>628</v>
+      </c>
+      <c r="D191" t="s">
+        <v>629</v>
+      </c>
+      <c r="F191" t="s">
+        <v>17</v>
+      </c>
+      <c r="T191" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>692</v>
+      </c>
+      <c r="D192" t="s">
+        <v>630</v>
+      </c>
+      <c r="F192" t="s">
+        <v>17</v>
+      </c>
+      <c r="M192" s="1">
+        <v>45761.581562500003</v>
+      </c>
+      <c r="T192" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>693</v>
+      </c>
+      <c r="D193" t="s">
+        <v>631</v>
+      </c>
+      <c r="E193" t="s">
+        <v>632</v>
+      </c>
+      <c r="F193" t="s">
+        <v>17</v>
+      </c>
+      <c r="M193" s="1">
+        <v>45761.607372685183</v>
+      </c>
+      <c r="T193" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>694</v>
+      </c>
+      <c r="D194" t="s">
+        <v>633</v>
+      </c>
+      <c r="F194" t="s">
+        <v>17</v>
+      </c>
+      <c r="M194" s="1">
+        <v>45728.646597222221</v>
+      </c>
+      <c r="T194" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>695</v>
+      </c>
+      <c r="D195" t="s">
+        <v>634</v>
+      </c>
+      <c r="F195" t="s">
+        <v>17</v>
+      </c>
+      <c r="M195" s="1">
+        <v>45761.590821759259</v>
+      </c>
+      <c r="T195" s="1" t="s">
         <v>449</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336BB1F2-F36B-B148-B0CC-DA9DDE5D9F92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D35A22FD-4DE9-1040-AD08-EC9805802C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E38C18A-0B33-2F4E-B313-5DB585695A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="786">
   <si>
     <t>Study_ID</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Blaho, Kari E.; Merigian, Kevin S.; Winbery, Stephen L.; Park, Lynda J.; Cockrell, Mike</t>
   </si>
   <si>
-    <t>Foreign Body Ingestions in the Emergency Department: Case Reports and Review of Treatment</t>
-  </si>
-  <si>
     <t>Journal of Emergency Medicine</t>
   </si>
   <si>
@@ -1926,6 +1923,462 @@
   </si>
   <si>
     <t>Journey of a Swallowed Toothbrush to the Colon</t>
+  </si>
+  <si>
+    <t>Full text not available</t>
+  </si>
+  <si>
+    <t>Nicotine ingestion</t>
+  </si>
+  <si>
+    <t>10.1016/s0022-5223(19)37796-7</t>
+  </si>
+  <si>
+    <t>Chicken bones. Not explicitly intentional</t>
+  </si>
+  <si>
+    <t>10.1097/00000433-199706000-00008</t>
+  </si>
+  <si>
+    <t>10.1016/s1010-7940(98)00068-2</t>
+  </si>
+  <si>
+    <t>Schizophrenic female with pica</t>
+  </si>
+  <si>
+    <t>Emergency Department</t>
+  </si>
+  <si>
+    <t>10.1002/(sici)1099-1166(199809)13:9&lt;638::aid-gps837&gt;3.0.co;2-n</t>
+  </si>
+  <si>
+    <t>10.1016/S0033-3182(98)71309-X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychiatric case report. Discusses extended case history, not intentional ingestion of foreign objects, motivations and outcomes. </t>
+  </si>
+  <si>
+    <t>Patient who ingest batteries at Broadmoor Psychiatric Hospital</t>
+  </si>
+  <si>
+    <t>Crowthorne, England, UK</t>
+  </si>
+  <si>
+    <t>Broadmoor Hospital</t>
+  </si>
+  <si>
+    <t>10.1192/pb.23.4.224</t>
+  </si>
+  <si>
+    <t>Two university-affiliated hospitals.</t>
+  </si>
+  <si>
+    <t>Kingston, Ontaria, Canada</t>
+  </si>
+  <si>
+    <t>Five mentally retarded patients, 4 with a history of pica, who were admitted for the management of complications resulting from the ingestion of vinyl gloves</t>
+  </si>
+  <si>
+    <t>Single female patient with schizophrenia and dementia</t>
+  </si>
+  <si>
+    <t>Salem Virginia Medical Center</t>
+  </si>
+  <si>
+    <t>Salem, Virginia, USA</t>
+  </si>
+  <si>
+    <t>10.1016/s0736-4679(99)00222-x</t>
+  </si>
+  <si>
+    <t>Single schizophrenic male with history of pica</t>
+  </si>
+  <si>
+    <t>University of Arkansas for Medical Sciences</t>
+  </si>
+  <si>
+    <t>Little Rock, Arkansas, USA</t>
+  </si>
+  <si>
+    <t>10.1002/1096-8652(200102)66:2&lt;126::AID-AJH1029&gt;3.0.CO;2-J</t>
+  </si>
+  <si>
+    <t>Single schizophrenic male intentionally ingested 206 lead bullets</t>
+  </si>
+  <si>
+    <t>Single 12 year old female ingested magnets to apply external jewelery to</t>
+  </si>
+  <si>
+    <t>Sheffield Children’s Hospital</t>
+  </si>
+  <si>
+    <t>Sheffield, UK</t>
+  </si>
+  <si>
+    <t>10.1136/adc.87.6.539</t>
+  </si>
+  <si>
+    <t>Two major referral hospitals</t>
+  </si>
+  <si>
+    <t>All patients admitted with esophageal FB during a period of 9 years from January 1992 to January 2000</t>
+  </si>
+  <si>
+    <t>Irbid, Jordan</t>
+  </si>
+  <si>
+    <t>10.1016/s0165-5876(02)00113-1</t>
+  </si>
+  <si>
+    <t>24 cases presented to the Sheffield Children’s Hospital over a period of eight weeks</t>
+  </si>
+  <si>
+    <t>10.1136/emj.19.1.71</t>
+  </si>
+  <si>
+    <t>Mixture of ingestions and magnets trapping skin. Magnets ingested whilst using them to immitate a tongue piercing. Sounds accidental. Other cases given in table, but intention not reported in table. Exclude.</t>
+  </si>
+  <si>
+    <t>10.1007/s00247-001-0611-5</t>
+  </si>
+  <si>
+    <t>Istanbul University Cerrahpasa Medical Faculty</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>Single 12 year old girl inserted needle into thorax in suicide attmempt</t>
+  </si>
+  <si>
+    <t>"A case of a woman who unknowingly ingested a pin that perforated the duodenum causing only few acute symptoms is presented. Biliary tract pathology was suspected"</t>
+  </si>
+  <si>
+    <t>10.1007/s00464-001-4240-8</t>
+  </si>
+  <si>
+    <t>University Medical Centre</t>
+  </si>
+  <si>
+    <t>Ljubljana, Slovenia</t>
+  </si>
+  <si>
+    <t>All adults requiring admision for foreign body ingestion</t>
+  </si>
+  <si>
+    <t>University of Wisconsin Hospital</t>
+  </si>
+  <si>
+    <t>Wisconsin, USA</t>
+  </si>
+  <si>
+    <t>10.1016/S1091-255X(01)00027-0</t>
+  </si>
+  <si>
+    <t>10.1177/0891988703256049</t>
+  </si>
+  <si>
+    <t>3 patients with severe disability, psychiatric disease and pica</t>
+  </si>
+  <si>
+    <t>Psychiatric inpatients</t>
+  </si>
+  <si>
+    <t>Testing application of The Yale-Brown obsessive-compulsive scale on patients with PICA to determine if pica in the spectrum of obsessive compulsive disorders.</t>
+  </si>
+  <si>
+    <t>10.1016/s0163-8343(03)00039-2</t>
+  </si>
+  <si>
+    <t>Single 12 year old autistic male ingested multiple magnets</t>
+  </si>
+  <si>
+    <t>Cincinnati Children’s Hospital</t>
+  </si>
+  <si>
+    <t>Cincinnati, Ohia, USA</t>
+  </si>
+  <si>
+    <t>10.1148/radiol.2332041446</t>
+  </si>
+  <si>
+    <t>53F AEF after swallowing fishbone</t>
+  </si>
+  <si>
+    <t>John Radcliffe Hospital</t>
+  </si>
+  <si>
+    <t>Oxford, UK</t>
+  </si>
+  <si>
+    <t>10.1016/j.athoracsur.2003.06.031</t>
+  </si>
+  <si>
+    <t>9M perforation and bowel obstruction after intentional ingestion of magnet earrings to hide from mother</t>
+  </si>
+  <si>
+    <t>Montefiore Medical Center, Albert Einstein College of Medicine</t>
+  </si>
+  <si>
+    <t>Bronx, New York, USA</t>
+  </si>
+  <si>
+    <t>10.1097/01.pec.0000134926.03030.a7</t>
+  </si>
+  <si>
+    <t>20-year-old female prisoner who died due to cardiac tamponade caused by a swallowed sewing needle migration</t>
+  </si>
+  <si>
+    <t>Belgrade, Serbia</t>
+  </si>
+  <si>
+    <t>10.1016/j.forsciint.2003.10.013</t>
+  </si>
+  <si>
+    <t>Forensic Case Report</t>
+  </si>
+  <si>
+    <t>16M "severely retarded and non-verbal" - author unsure if object ingested or inserted, therefore exclude.</t>
+  </si>
+  <si>
+    <t>10.1016/j.cursur.2004.12.014</t>
+  </si>
+  <si>
+    <t>10.1111/j.1463-1318.2004.00699.x</t>
+  </si>
+  <si>
+    <t>Mixture of insertio and ingestion. Empirical data not available to separate cases and outcomes for each pathology.</t>
+  </si>
+  <si>
+    <t>10.1157/13080414</t>
+  </si>
+  <si>
+    <t>Article in Spanish.</t>
+  </si>
+  <si>
+    <t>17/04/202509:36</t>
+  </si>
+  <si>
+    <t>10.1258/0022215011909756</t>
+  </si>
+  <si>
+    <t>Patients referred to ENT unit with foreign body ingestion</t>
+  </si>
+  <si>
+    <t>Ear Nose and Throat Unit of the Prince of Wales Hospital</t>
+  </si>
+  <si>
+    <t>All patients with foreign body ingestion admitted to hospital between May 1995 and December 1999.</t>
+  </si>
+  <si>
+    <t>a regional referral center for gastrointestinal emergencies, serving a population of about five million people</t>
+  </si>
+  <si>
+    <t>Naples, Italy</t>
+  </si>
+  <si>
+    <t>From 1962 through 1998, 400 consecutive patients with EFB were treated in our department on an emergency basis.</t>
+  </si>
+  <si>
+    <t>General Hospital of Nikea</t>
+  </si>
+  <si>
+    <t>Piraeus, Greece</t>
+  </si>
+  <si>
+    <t>Intention not reported.</t>
+  </si>
+  <si>
+    <t>7M with severe developmental delay and pica</t>
+  </si>
+  <si>
+    <t>Children’s Hospital of Philadelphia</t>
+  </si>
+  <si>
+    <t>Philadelphia, Pennsylvania, USA</t>
+  </si>
+  <si>
+    <t>10.1055/s-2001-16212</t>
+  </si>
+  <si>
+    <t>10.1016/s1010-7940(02)00032-5</t>
+  </si>
+  <si>
+    <t>10.1097/01.mpg.0000177703.99786.c9</t>
+  </si>
+  <si>
+    <t>10.1007/s00383-005-1422-9</t>
+  </si>
+  <si>
+    <t>10M intentionally ingested button battery, magnet and metal ball.</t>
+  </si>
+  <si>
+    <t>University of Louisville</t>
+  </si>
+  <si>
+    <t>Louisville, Kentucky, USA</t>
+  </si>
+  <si>
+    <t>7-year-old autistic girl with parorexia</t>
+  </si>
+  <si>
+    <t>Surgical Centre</t>
+  </si>
+  <si>
+    <t>Nagasaki, Japan</t>
+  </si>
+  <si>
+    <t>10.1016/s0016-5107(04)02387-9</t>
+  </si>
+  <si>
+    <t>University of Children’s Hospital</t>
+  </si>
+  <si>
+    <t>Geneva, Switzerland</t>
+  </si>
+  <si>
+    <t>10.1016/j.jpedsurg.2005.06.022</t>
+  </si>
+  <si>
+    <t>9F intentional ingestion</t>
+  </si>
+  <si>
+    <t>10.1176/appi.psy.47.6.531</t>
+  </si>
+  <si>
+    <t>12F Baking soda ingestion,background pica.</t>
+  </si>
+  <si>
+    <t>Baking soda ingestion. Exclude</t>
+  </si>
+  <si>
+    <t>62 consecutive patients who underwent surgery for an ingested FB perforation of the GI tract between 1990 and 2005</t>
+  </si>
+  <si>
+    <t>Singapore General Hospital</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>10.1007/s00268-005-0490-2</t>
+  </si>
+  <si>
+    <t>No mention of ingestion.</t>
+  </si>
+  <si>
+    <t>31M swallowed toothbrush</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>10.3748/wjg.v12.i15.2464</t>
+  </si>
+  <si>
+    <t>Between January 1980 and January 2005, a total of 1088 patients (685 men and 403 women; age range, 1 day to 96 years old) with suspected foreign bodies</t>
+  </si>
+  <si>
+    <t>Endoscopy Centre</t>
+  </si>
+  <si>
+    <t>Shanghai, China</t>
+  </si>
+  <si>
+    <t>10.1016/j.gie.2006.01.059</t>
+  </si>
+  <si>
+    <t>67M schizophrenia ingested needles</t>
+  </si>
+  <si>
+    <t>Department of Surgery, Kaohsiung Medical University Hospital</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>10.1016/S1607-551X(09)70338-9</t>
+  </si>
+  <si>
+    <t>Charts of all patients who underwent surgery at our institution for ingested drug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drug ingestion - exclude. "Charts of all patients who underwent surgery at our institution for ingested drug packets between January 1990 and January 2005 were reviewed." </t>
+  </si>
+  <si>
+    <t>11M swallowed two large magnets</t>
+  </si>
+  <si>
+    <t>University of Medicine and Dentistry of New Jersey, Combined Medicine-Pediatrics, Atlantic Health System</t>
+  </si>
+  <si>
+    <t>Summit, New Jersey, USA</t>
+  </si>
+  <si>
+    <t>10.3122/jabfm.19.5.511</t>
+  </si>
+  <si>
+    <t>10.1111/j.1440-1754.2007.01121.x</t>
+  </si>
+  <si>
+    <t>Department of Academic Surgery, The Children’s Hospital at Westmead, Westmead and 2University of Sydney</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>4M magnet ingestion</t>
+  </si>
+  <si>
+    <t>33F presented to ED 2 years after ingestion</t>
+  </si>
+  <si>
+    <t>Charing Cross Hospital</t>
+  </si>
+  <si>
+    <t>10.12968/hmed.2007.68.10.27330</t>
+  </si>
+  <si>
+    <t>6M ingested two magnets</t>
+  </si>
+  <si>
+    <t>Primary Children’s Medical Center</t>
+  </si>
+  <si>
+    <t>Salt Lake City, Utah, USA</t>
+  </si>
+  <si>
+    <t>10.1007/s00383-007-1997-4</t>
+  </si>
+  <si>
+    <t>Department of Pediatric Surgery, Cerrahpas ̧a Medical Faculty</t>
+  </si>
+  <si>
+    <t>10.1007/s00595-006-3330-6</t>
+  </si>
+  <si>
+    <t>Young (4 year old) child with ingestion of magnets. No mention of intention.</t>
+  </si>
+  <si>
+    <t>10.3904/kjim.2007.22.4.275</t>
+  </si>
+  <si>
+    <t>33 Korean prisoners (52 episodes) who were admitted due to ingestion of foreign objects between January 1998 and June 2004</t>
+  </si>
+  <si>
+    <t>Konyang University Hospital and Gyeongsang National University Hospital</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>A 20-year-old woman was brought to the surgical outpatient department with the strange history of irresistible desire to ingest metallic substances, mainly nails and pins</t>
+  </si>
+  <si>
+    <t>Department of Surgery, I.P.G.M.E. &amp; R/ S.S.K.M. Hospital</t>
+  </si>
+  <si>
+    <t>Kolkata, India</t>
   </si>
 </sst>
 </file>
@@ -2791,7 +3244,9 @@
   <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T188" sqref="T188:T195"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2842,25 +3297,25 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" t="s">
         <v>450</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>451</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>452</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>453</v>
       </c>
-      <c r="R1" t="s">
-        <v>454</v>
-      </c>
       <c r="S1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="U1" t="s">
         <v>13</v>
@@ -2905,16 +3360,16 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -2925,16 +3380,31 @@
         <v>1962</v>
       </c>
       <c r="C3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D3" t="s">
         <v>544</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>545</v>
       </c>
-      <c r="E3" t="s">
-        <v>546</v>
-      </c>
       <c r="F3" t="s">
         <v>17</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>448</v>
+      </c>
+      <c r="T3" t="s">
+        <v>448</v>
+      </c>
+      <c r="U3" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -2945,16 +3415,31 @@
         <v>1967</v>
       </c>
       <c r="C4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D4" t="s">
         <v>547</v>
-      </c>
-      <c r="D4" t="s">
-        <v>548</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>448</v>
+      </c>
+      <c r="T4" t="s">
+        <v>448</v>
+      </c>
+      <c r="U4" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -2989,25 +3474,25 @@
         <v>45761.607939814814</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>460</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -3046,16 +3531,16 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -3100,16 +3585,16 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -3144,28 +3629,28 @@
         <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>45397.443749999999</v>
+        <v>45762.443749999999</v>
       </c>
       <c r="N8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P8" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q8" t="s">
         <v>464</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>465</v>
       </c>
-      <c r="R8" t="s">
-        <v>466</v>
-      </c>
       <c r="S8" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -3200,28 +3685,28 @@
         <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>45397.447916666664</v>
+        <v>45762.447916666664</v>
       </c>
       <c r="N9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P9" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q9" t="s">
         <v>470</v>
       </c>
-      <c r="Q9" t="s">
-        <v>471</v>
-      </c>
       <c r="R9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -3232,16 +3717,34 @@
         <v>1977</v>
       </c>
       <c r="C10" t="s">
+        <v>548</v>
+      </c>
+      <c r="D10" t="s">
         <v>549</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>550</v>
       </c>
-      <c r="E10" t="s">
-        <v>551</v>
-      </c>
       <c r="F10" t="s">
         <v>17</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="M10" s="2">
+        <v>45762.451388888891</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U10" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -3282,28 +3785,28 @@
         <v>45397.456944444442</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" t="s">
         <v>476</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -3314,16 +3817,34 @@
         <v>1980</v>
       </c>
       <c r="C12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D12" t="s">
         <v>552</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>553</v>
       </c>
-      <c r="E12" t="s">
-        <v>554</v>
-      </c>
       <c r="F12" t="s">
         <v>17</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="R12" t="s">
+        <v>636</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U12" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -3334,16 +3855,31 @@
         <v>1982</v>
       </c>
       <c r="C13" t="s">
+        <v>554</v>
+      </c>
+      <c r="D13" t="s">
         <v>555</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>556</v>
       </c>
-      <c r="E13" t="s">
-        <v>557</v>
-      </c>
       <c r="F13" t="s">
         <v>17</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U13" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -3381,25 +3917,25 @@
         <v>45762.482638888891</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" t="s">
         <v>480</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" t="s">
         <v>482</v>
       </c>
-      <c r="R14" t="s">
-        <v>483</v>
-      </c>
       <c r="S14" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -3440,28 +3976,28 @@
         <v>45762.489583333336</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="P15" t="s">
         <v>484</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" t="s">
         <v>486</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U15" t="s">
         <v>487</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U15" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -3502,28 +4038,28 @@
         <v>45762.495138888888</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P16" t="s">
         <v>489</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>490</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>491</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U16" t="s">
         <v>492</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U16" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -3558,25 +4094,25 @@
         <v>45757.375856481478</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>496</v>
-      </c>
       <c r="S17" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -3611,28 +4147,28 @@
         <v>45762.506249999999</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O18" t="s">
+        <v>499</v>
+      </c>
+      <c r="P18" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="P18" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" t="s">
         <v>501</v>
       </c>
-      <c r="R18" t="s">
-        <v>502</v>
-      </c>
       <c r="S18" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -3670,25 +4206,25 @@
         <v>45762.508333333331</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O19" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P19" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" t="s">
         <v>504</v>
       </c>
-      <c r="R19" t="s">
-        <v>505</v>
-      </c>
       <c r="S19" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -3699,16 +4235,31 @@
         <v>1984</v>
       </c>
       <c r="C20" t="s">
+        <v>557</v>
+      </c>
+      <c r="D20" t="s">
         <v>558</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>559</v>
       </c>
-      <c r="E20" t="s">
-        <v>560</v>
-      </c>
       <c r="F20" t="s">
         <v>17</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U20" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -3746,13 +4297,13 @@
         <v>45762.557638888888</v>
       </c>
       <c r="R21" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -3790,19 +4341,19 @@
         <v>45762.581944444442</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -3813,16 +4364,31 @@
         <v>1986</v>
       </c>
       <c r="C23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D23" t="s">
         <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U23" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -3860,19 +4426,19 @@
         <v>45762.586111111108</v>
       </c>
       <c r="N24" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R24" t="s">
+        <v>511</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U24" t="s">
         <v>510</v>
-      </c>
-      <c r="R24" t="s">
-        <v>512</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U24" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -3913,19 +4479,19 @@
         <v>45762.587500000001</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="R25" t="s">
+        <v>514</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U25" t="s">
         <v>513</v>
-      </c>
-      <c r="R25" t="s">
-        <v>515</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U25" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -3963,22 +4529,22 @@
         <v>45762.590277777781</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -4016,19 +4582,19 @@
         <v>45762.591666666667</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="R27" t="s">
+        <v>517</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U27" t="s">
         <v>518</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U27" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -4066,22 +4632,22 @@
         <v>45762.592361111114</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" t="s">
+        <v>520</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U28" t="s">
         <v>521</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U28" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -4092,16 +4658,31 @@
         <v>1990</v>
       </c>
       <c r="C29" t="s">
+        <v>562</v>
+      </c>
+      <c r="D29" t="s">
         <v>563</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>564</v>
       </c>
-      <c r="E29" t="s">
-        <v>565</v>
-      </c>
       <c r="F29" t="s">
         <v>17</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U29" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -4139,19 +4720,19 @@
         <v>45762.599305555559</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R30" t="s">
+        <v>522</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U30" t="s">
         <v>523</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U30" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -4162,16 +4743,31 @@
         <v>1990</v>
       </c>
       <c r="C31" t="s">
+        <v>565</v>
+      </c>
+      <c r="D31" t="s">
         <v>566</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>567</v>
       </c>
-      <c r="E31" t="s">
-        <v>568</v>
-      </c>
       <c r="F31" t="s">
         <v>17</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U31" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -4206,25 +4802,25 @@
         <v>45762.602777777778</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P32" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q32" t="s">
         <v>526</v>
       </c>
-      <c r="Q32" t="s">
-        <v>527</v>
-      </c>
       <c r="R32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -4259,25 +4855,25 @@
         <v>45762.635416666664</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O33" t="s">
+        <v>528</v>
+      </c>
+      <c r="P33" t="s">
         <v>529</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
+        <v>470</v>
+      </c>
+      <c r="R33" t="s">
         <v>530</v>
       </c>
-      <c r="Q33" t="s">
-        <v>471</v>
-      </c>
-      <c r="R33" t="s">
-        <v>531</v>
-      </c>
       <c r="S33" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -4309,22 +4905,22 @@
         <v>45761.540856481479</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -4365,19 +4961,19 @@
         <v>45397.660416666666</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -4409,19 +5005,19 @@
         <v>45762.663194444445</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -4459,16 +5055,16 @@
         <v>45762.665277777778</v>
       </c>
       <c r="R37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -4479,16 +5075,31 @@
         <v>1996</v>
       </c>
       <c r="C38" t="s">
+        <v>568</v>
+      </c>
+      <c r="D38" t="s">
         <v>569</v>
       </c>
-      <c r="D38" t="s">
-        <v>570</v>
-      </c>
       <c r="E38" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U38" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -4499,16 +5110,31 @@
         <v>1996</v>
       </c>
       <c r="C39" t="s">
+        <v>570</v>
+      </c>
+      <c r="D39" t="s">
         <v>571</v>
       </c>
-      <c r="D39" t="s">
-        <v>572</v>
-      </c>
       <c r="E39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U39" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -4543,22 +5169,22 @@
         <v>45761.539814814816</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -4569,10 +5195,10 @@
         <v>1997</v>
       </c>
       <c r="C41" t="s">
+        <v>572</v>
+      </c>
+      <c r="D41" t="s">
         <v>573</v>
-      </c>
-      <c r="D41" t="s">
-        <v>574</v>
       </c>
       <c r="E41" t="s">
         <v>71</v>
@@ -4580,8 +5206,24 @@
       <c r="F41" t="s">
         <v>17</v>
       </c>
-      <c r="M41" s="1">
-        <v>45761.553611111114</v>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="R41" t="s">
+        <v>638</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U41" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -4616,28 +5258,28 @@
         <v>45762.675694444442</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O42" t="s">
+        <v>537</v>
+      </c>
+      <c r="P42" t="s">
         <v>538</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>539</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="R42" t="s">
+        <v>536</v>
+      </c>
+      <c r="S42" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U42" t="s">
         <v>540</v>
-      </c>
-      <c r="R42" t="s">
-        <v>537</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="U42" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -4669,16 +5311,16 @@
         <v>45762.677777777775</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -4700,8 +5342,29 @@
       <c r="F44" t="s">
         <v>17</v>
       </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="M44" s="1">
+        <v>45763.463194444441</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="R44" t="s">
+        <v>639</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T44" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
+      </c>
+      <c r="U44" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -4723,8 +5386,38 @@
       <c r="F45" t="s">
         <v>17</v>
       </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1">
+        <v>45763.473611111112</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O45" t="s">
+        <v>640</v>
+      </c>
+      <c r="P45" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>481</v>
+      </c>
+      <c r="R45" t="s">
+        <v>642</v>
+      </c>
+      <c r="S45" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T45" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -4738,25 +5431,38 @@
         <v>105</v>
       </c>
       <c r="D46" t="s">
+        <v>472</v>
+      </c>
+      <c r="E46" t="s">
         <v>106</v>
       </c>
-      <c r="E46" t="s">
-        <v>107</v>
-      </c>
       <c r="F46" t="s">
         <v>17</v>
       </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
       <c r="M46" s="1">
-        <v>45761.607071759259</v>
-      </c>
-      <c r="N46" s="1"/>
+        <v>45398.475694444445</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
+      <c r="S46" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T46" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -4767,19 +5473,40 @@
         <v>1998</v>
       </c>
       <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
         <v>108</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>109</v>
       </c>
-      <c r="E47" t="s">
-        <v>110</v>
-      </c>
       <c r="F47" t="s">
         <v>17</v>
       </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="M47" s="1">
+        <v>45763.5</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R47" t="s">
+        <v>643</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T47" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
+      </c>
+      <c r="U47" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -4790,19 +5517,34 @@
         <v>1998</v>
       </c>
       <c r="C48" t="s">
+        <v>574</v>
+      </c>
+      <c r="D48" t="s">
         <v>575</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>576</v>
       </c>
-      <c r="E48" t="s">
-        <v>577</v>
-      </c>
       <c r="F48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T48" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U48" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>539</v>
       </c>
@@ -4810,31 +5552,52 @@
         <v>1999</v>
       </c>
       <c r="C49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" t="s">
         <v>111</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>112</v>
       </c>
-      <c r="E49" t="s">
-        <v>113</v>
-      </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
       <c r="M49" s="1">
-        <v>45761.687175925923</v>
-      </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
+        <v>45763.511111111111</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="S49" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T49" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>540</v>
       </c>
@@ -4842,19 +5605,49 @@
         <v>1999</v>
       </c>
       <c r="C50" t="s">
+        <v>577</v>
+      </c>
+      <c r="D50" t="s">
         <v>578</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>579</v>
       </c>
-      <c r="E50" t="s">
-        <v>580</v>
-      </c>
       <c r="F50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>45763.521527777775</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O50" t="s">
+        <v>651</v>
+      </c>
+      <c r="P50" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>650</v>
+      </c>
+      <c r="S50" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>541</v>
       </c>
@@ -4862,13 +5655,13 @@
         <v>1999</v>
       </c>
       <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
         <v>114</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>115</v>
-      </c>
-      <c r="E51" t="s">
-        <v>116</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -4881,12 +5674,14 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
+      <c r="S51" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T51" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>542</v>
       </c>
@@ -4894,22 +5689,55 @@
         <v>2000</v>
       </c>
       <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
         <v>117</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>118</v>
       </c>
-      <c r="E52" t="s">
-        <v>119</v>
-      </c>
       <c r="F52" t="s">
         <v>17</v>
       </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>9</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>45763.616666666669</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O52" t="s">
+        <v>652</v>
+      </c>
+      <c r="P52" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>654</v>
+      </c>
+      <c r="R52" t="s">
+        <v>655</v>
+      </c>
+      <c r="S52" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T52" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>543</v>
       </c>
@@ -4917,22 +5745,52 @@
         <v>2001</v>
       </c>
       <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
         <v>120</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>121</v>
       </c>
-      <c r="E53" t="s">
-        <v>122</v>
-      </c>
       <c r="F53" t="s">
         <v>17</v>
       </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1">
+        <v>45763.627083333333</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="P53" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="R53" t="s">
+        <v>659</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T53" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>544</v>
       </c>
@@ -4940,22 +5798,58 @@
         <v>2001</v>
       </c>
       <c r="C54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" t="s">
         <v>123</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>124</v>
       </c>
-      <c r="E54" t="s">
-        <v>125</v>
-      </c>
       <c r="F54" t="s">
         <v>17</v>
       </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>9</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>711</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O54" t="s">
+        <v>713</v>
+      </c>
+      <c r="P54" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>475</v>
+      </c>
+      <c r="R54" t="s">
+        <v>712</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T54" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U54" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>545</v>
       </c>
@@ -4963,19 +5857,46 @@
         <v>2001</v>
       </c>
       <c r="C55" t="s">
+        <v>580</v>
+      </c>
+      <c r="D55" t="s">
         <v>581</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>582</v>
       </c>
-      <c r="E55" t="s">
-        <v>583</v>
-      </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="S55" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U55" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>546</v>
       </c>
@@ -4983,22 +5904,52 @@
         <v>2001</v>
       </c>
       <c r="C56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" t="s">
         <v>126</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>127</v>
       </c>
-      <c r="E56" t="s">
-        <v>128</v>
-      </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1">
+        <v>45764.47152777778</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O56" t="s">
+        <v>715</v>
+      </c>
+      <c r="P56" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>717</v>
+      </c>
+      <c r="R56" t="s">
+        <v>725</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T56" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>547</v>
       </c>
@@ -5006,10 +5957,10 @@
         <v>2002</v>
       </c>
       <c r="C57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" t="s">
         <v>129</v>
-      </c>
-      <c r="D57" t="s">
-        <v>130</v>
       </c>
       <c r="E57" t="s">
         <v>101</v>
@@ -5017,11 +5968,38 @@
       <c r="F57" t="s">
         <v>17</v>
       </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>45764.474999999999</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O57" t="s">
+        <v>718</v>
+      </c>
+      <c r="P57" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>720</v>
+      </c>
+      <c r="R57" t="s">
+        <v>726</v>
+      </c>
+      <c r="S57" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T57" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>548</v>
       </c>
@@ -5029,22 +6007,52 @@
         <v>2002</v>
       </c>
       <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
         <v>131</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>132</v>
       </c>
-      <c r="E58" t="s">
-        <v>133</v>
-      </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>45763.657638888886</v>
+      </c>
+      <c r="N58" t="s">
+        <v>457</v>
+      </c>
+      <c r="O58" t="s">
+        <v>661</v>
+      </c>
+      <c r="P58" t="s">
+        <v>662</v>
+      </c>
+      <c r="R58" t="s">
+        <v>664</v>
+      </c>
+      <c r="S58" t="s">
+        <v>454</v>
+      </c>
       <c r="T58" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>549</v>
       </c>
@@ -5052,22 +6060,58 @@
         <v>2002</v>
       </c>
       <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
         <v>134</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>135</v>
       </c>
-      <c r="E59" t="s">
-        <v>136</v>
-      </c>
       <c r="F59" t="s">
         <v>17</v>
       </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>9</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>45763.661111111112</v>
+      </c>
+      <c r="N59" t="s">
+        <v>472</v>
+      </c>
+      <c r="O59" t="s">
+        <v>666</v>
+      </c>
+      <c r="P59" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>667</v>
+      </c>
+      <c r="R59" t="s">
+        <v>668</v>
+      </c>
+      <c r="S59" t="s">
+        <v>448</v>
+      </c>
       <c r="T59" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U59" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>550</v>
       </c>
@@ -5075,22 +6119,61 @@
         <v>2002</v>
       </c>
       <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
         <v>137</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>138</v>
       </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>45763.663888888892</v>
+      </c>
+      <c r="N60" t="s">
+        <v>478</v>
+      </c>
+      <c r="O60" t="s">
+        <v>669</v>
+      </c>
+      <c r="P60" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>663</v>
+      </c>
+      <c r="R60" t="s">
+        <v>670</v>
+      </c>
+      <c r="S60" t="s">
+        <v>448</v>
+      </c>
       <c r="T60" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U60" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>551</v>
       </c>
@@ -5098,22 +6181,52 @@
         <v>2002</v>
       </c>
       <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" t="s">
         <v>140</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>141</v>
       </c>
-      <c r="E61" t="s">
-        <v>142</v>
-      </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>45763.668749999997</v>
+      </c>
+      <c r="N61" t="s">
+        <v>457</v>
+      </c>
+      <c r="O61" t="s">
+        <v>675</v>
+      </c>
+      <c r="P61" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>674</v>
+      </c>
+      <c r="R61" t="s">
+        <v>672</v>
+      </c>
+      <c r="S61" t="s">
+        <v>448</v>
+      </c>
       <c r="T61" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>552</v>
       </c>
@@ -5121,10 +6234,10 @@
         <v>2002</v>
       </c>
       <c r="C62" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" t="s">
         <v>143</v>
-      </c>
-      <c r="D62" t="s">
-        <v>144</v>
       </c>
       <c r="E62" t="s">
         <v>98</v>
@@ -5132,11 +6245,47 @@
       <c r="F62" t="s">
         <v>17</v>
       </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>45763.670138888891</v>
+      </c>
+      <c r="N62" t="s">
+        <v>457</v>
+      </c>
+      <c r="P62" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>679</v>
+      </c>
+      <c r="R62" t="s">
+        <v>677</v>
+      </c>
+      <c r="S62" t="s">
+        <v>448</v>
+      </c>
       <c r="T62" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U62" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>553</v>
       </c>
@@ -5144,31 +6293,52 @@
         <v>2002</v>
       </c>
       <c r="C63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D63" t="s">
         <v>145</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>146</v>
       </c>
-      <c r="E63" t="s">
-        <v>147</v>
-      </c>
       <c r="F63" t="s">
         <v>17</v>
       </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
       <c r="M63" s="1">
-        <v>45761.541284722225</v>
-      </c>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
+        <v>45763.671527777777</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T63" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>554</v>
       </c>
@@ -5176,22 +6346,52 @@
         <v>2003</v>
       </c>
       <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
         <v>148</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>149</v>
       </c>
-      <c r="E64" t="s">
-        <v>150</v>
-      </c>
       <c r="F64" t="s">
         <v>17</v>
       </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1">
+        <v>45763.708333333336</v>
+      </c>
+      <c r="N64" t="s">
+        <v>478</v>
+      </c>
+      <c r="O64" t="s">
+        <v>685</v>
+      </c>
+      <c r="P64" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>470</v>
+      </c>
+      <c r="R64" t="s">
+        <v>684</v>
+      </c>
+      <c r="S64" t="s">
+        <v>454</v>
+      </c>
       <c r="T64" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>555</v>
       </c>
@@ -5199,22 +6399,49 @@
         <v>2003</v>
       </c>
       <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" t="s">
         <v>151</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>152</v>
       </c>
-      <c r="E65" t="s">
-        <v>153</v>
-      </c>
       <c r="F65" t="s">
         <v>17</v>
       </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" s="2">
+        <v>45763.710416666669</v>
+      </c>
+      <c r="N65" t="s">
+        <v>478</v>
+      </c>
+      <c r="R65" t="s">
+        <v>688</v>
+      </c>
+      <c r="S65" t="s">
+        <v>448</v>
+      </c>
       <c r="T65" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U65" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>556</v>
       </c>
@@ -5222,10 +6449,10 @@
         <v>2004</v>
       </c>
       <c r="C66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" t="s">
         <v>154</v>
-      </c>
-      <c r="D66" t="s">
-        <v>155</v>
       </c>
       <c r="E66" t="s">
         <v>74</v>
@@ -5233,11 +6460,38 @@
       <c r="F66" t="s">
         <v>17</v>
       </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1">
+        <v>45398.714583333334</v>
+      </c>
+      <c r="N66" t="s">
+        <v>457</v>
+      </c>
+      <c r="O66" t="s">
+        <v>689</v>
+      </c>
+      <c r="P66" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>691</v>
+      </c>
+      <c r="R66" t="s">
+        <v>692</v>
+      </c>
+      <c r="S66" t="s">
+        <v>454</v>
+      </c>
       <c r="T66" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>557</v>
       </c>
@@ -5245,22 +6499,58 @@
         <v>2004</v>
       </c>
       <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" t="s">
         <v>156</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>157</v>
       </c>
-      <c r="E67" t="s">
-        <v>158</v>
-      </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>9</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>45763.717361111114</v>
+      </c>
+      <c r="N67" t="s">
+        <v>457</v>
+      </c>
+      <c r="O67" t="s">
+        <v>693</v>
+      </c>
+      <c r="P67" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>695</v>
+      </c>
+      <c r="R67" t="s">
+        <v>696</v>
+      </c>
+      <c r="S67" t="s">
+        <v>448</v>
+      </c>
       <c r="T67" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>558</v>
       </c>
@@ -5268,10 +6558,10 @@
         <v>2004</v>
       </c>
       <c r="C68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" t="s">
         <v>159</v>
-      </c>
-      <c r="D68" t="s">
-        <v>160</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
@@ -5279,11 +6569,44 @@
       <c r="F68" t="s">
         <v>17</v>
       </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1">
+        <v>45763.722222222219</v>
+      </c>
+      <c r="N68" t="s">
+        <v>457</v>
+      </c>
+      <c r="O68" t="s">
+        <v>697</v>
+      </c>
+      <c r="P68" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>699</v>
+      </c>
+      <c r="R68" t="s">
+        <v>700</v>
+      </c>
+      <c r="S68" t="s">
+        <v>454</v>
+      </c>
       <c r="T68" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>559</v>
       </c>
@@ -5291,22 +6614,55 @@
         <v>2004</v>
       </c>
       <c r="C69" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" t="s">
         <v>161</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>162</v>
       </c>
-      <c r="E69" t="s">
-        <v>163</v>
-      </c>
       <c r="F69" t="s">
         <v>17</v>
       </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <v>45763.728472222225</v>
+      </c>
+      <c r="N69" t="s">
+        <v>457</v>
+      </c>
+      <c r="O69" t="s">
+        <v>701</v>
+      </c>
+      <c r="P69" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>702</v>
+      </c>
+      <c r="R69" t="s">
+        <v>703</v>
+      </c>
+      <c r="S69" t="s">
+        <v>454</v>
+      </c>
       <c r="T69" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>560</v>
       </c>
@@ -5314,19 +6670,34 @@
         <v>2004</v>
       </c>
       <c r="C70" t="s">
+        <v>583</v>
+      </c>
+      <c r="D70" t="s">
         <v>584</v>
       </c>
-      <c r="D70" t="s">
-        <v>585</v>
-      </c>
       <c r="E70" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="S70" t="s">
+        <v>448</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U70" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>561</v>
       </c>
@@ -5334,22 +6705,43 @@
         <v>2005</v>
       </c>
       <c r="C71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" t="s">
         <v>164</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>165</v>
       </c>
-      <c r="E71" t="s">
-        <v>166</v>
-      </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="M71" s="1">
+        <v>45763.732638888891</v>
+      </c>
+      <c r="N71" t="s">
+        <v>457</v>
+      </c>
+      <c r="R71" t="s">
+        <v>706</v>
+      </c>
+      <c r="S71" t="s">
+        <v>448</v>
+      </c>
       <c r="T71" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U71" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>562</v>
       </c>
@@ -5357,22 +6749,46 @@
         <v>2005</v>
       </c>
       <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" t="s">
         <v>167</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>168</v>
       </c>
-      <c r="E72" t="s">
-        <v>169</v>
-      </c>
       <c r="F72" t="s">
         <v>17</v>
       </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1">
+        <v>45763.741666666669</v>
+      </c>
+      <c r="N72" t="s">
+        <v>478</v>
+      </c>
+      <c r="R72" t="s">
+        <v>707</v>
+      </c>
+      <c r="S72" t="s">
+        <v>448</v>
+      </c>
       <c r="T72" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U72" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>563</v>
       </c>
@@ -5380,22 +6796,40 @@
         <v>2005</v>
       </c>
       <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73" t="s">
         <v>170</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>171</v>
       </c>
-      <c r="E73" t="s">
-        <v>172</v>
-      </c>
       <c r="F73" t="s">
         <v>17</v>
       </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1">
+        <v>45763.743750000001</v>
+      </c>
+      <c r="R73" t="s">
+        <v>709</v>
+      </c>
+      <c r="S73" t="s">
+        <v>448</v>
+      </c>
       <c r="T73" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U73" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>564</v>
       </c>
@@ -5403,19 +6837,37 @@
         <v>2005</v>
       </c>
       <c r="C74" t="s">
+        <v>585</v>
+      </c>
+      <c r="D74" t="s">
         <v>586</v>
       </c>
-      <c r="D74" t="s">
-        <v>587</v>
-      </c>
       <c r="E74" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1">
+        <v>45763.745138888888</v>
+      </c>
+      <c r="S74" t="s">
+        <v>448</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U74" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>565</v>
       </c>
@@ -5423,22 +6875,55 @@
         <v>2005</v>
       </c>
       <c r="C75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" t="s">
         <v>173</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>174</v>
       </c>
-      <c r="E75" t="s">
-        <v>175</v>
-      </c>
       <c r="F75" t="s">
         <v>17</v>
       </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>45764.48541666667</v>
+      </c>
+      <c r="N75" t="s">
+        <v>457</v>
+      </c>
+      <c r="O75" t="s">
+        <v>722</v>
+      </c>
+      <c r="P75" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>724</v>
+      </c>
+      <c r="R75" t="s">
+        <v>727</v>
+      </c>
+      <c r="S75" t="s">
+        <v>454</v>
+      </c>
       <c r="T75" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>566</v>
       </c>
@@ -5446,22 +6931,55 @@
         <v>2005</v>
       </c>
       <c r="C76" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" t="s">
         <v>176</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>177</v>
       </c>
-      <c r="E76" t="s">
-        <v>178</v>
-      </c>
       <c r="F76" t="s">
         <v>17</v>
       </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>45764.490972222222</v>
+      </c>
+      <c r="N76" t="s">
+        <v>457</v>
+      </c>
+      <c r="O76" t="s">
+        <v>729</v>
+      </c>
+      <c r="P76" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>731</v>
+      </c>
+      <c r="R76" t="s">
+        <v>728</v>
+      </c>
+      <c r="S76" t="s">
+        <v>454</v>
+      </c>
       <c r="T76" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>567</v>
       </c>
@@ -5469,10 +6987,10 @@
         <v>2005</v>
       </c>
       <c r="C77" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" t="s">
         <v>179</v>
-      </c>
-      <c r="D77" t="s">
-        <v>180</v>
       </c>
       <c r="E77" t="s">
         <v>41</v>
@@ -5480,11 +6998,44 @@
       <c r="F77" t="s">
         <v>17</v>
       </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1">
+        <v>45764.49722222222</v>
+      </c>
+      <c r="N77" t="s">
+        <v>457</v>
+      </c>
+      <c r="O77" t="s">
+        <v>732</v>
+      </c>
+      <c r="P77" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>734</v>
+      </c>
+      <c r="R77" t="s">
+        <v>735</v>
+      </c>
+      <c r="S77" t="s">
+        <v>454</v>
+      </c>
       <c r="T77" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>568</v>
       </c>
@@ -5492,22 +7043,55 @@
         <v>2005</v>
       </c>
       <c r="C78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" t="s">
         <v>181</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>182</v>
       </c>
-      <c r="E78" t="s">
-        <v>183</v>
-      </c>
       <c r="F78" t="s">
         <v>17</v>
       </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" s="1">
+        <v>45764.502083333333</v>
+      </c>
+      <c r="N78" t="s">
+        <v>457</v>
+      </c>
+      <c r="O78" t="s">
+        <v>739</v>
+      </c>
+      <c r="P78" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>737</v>
+      </c>
+      <c r="R78" t="s">
+        <v>738</v>
+      </c>
+      <c r="S78" t="s">
+        <v>454</v>
+      </c>
       <c r="T78" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>569</v>
       </c>
@@ -5515,22 +7099,55 @@
         <v>2006</v>
       </c>
       <c r="C79" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" t="s">
         <v>184</v>
       </c>
-      <c r="D79" t="s">
-        <v>185</v>
-      </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
       </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>7</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1">
+        <v>45764.506944444445</v>
+      </c>
+      <c r="N79" t="s">
+        <v>457</v>
+      </c>
+      <c r="O79" t="s">
+        <v>741</v>
+      </c>
+      <c r="R79" t="s">
+        <v>740</v>
+      </c>
+      <c r="S79" t="s">
+        <v>448</v>
+      </c>
       <c r="T79" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U79" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>570</v>
       </c>
@@ -5538,10 +7155,10 @@
         <v>2006</v>
       </c>
       <c r="C80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" t="s">
         <v>186</v>
-      </c>
-      <c r="D80" t="s">
-        <v>187</v>
       </c>
       <c r="E80" t="s">
         <v>77</v>
@@ -5549,20 +7166,41 @@
       <c r="F80" t="s">
         <v>17</v>
       </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
       <c r="M80" s="1">
         <v>45761.67496527778</v>
       </c>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
-      <c r="S80" s="1"/>
+      <c r="N80" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="S80" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T80" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>571</v>
       </c>
@@ -5570,19 +7208,40 @@
         <v>2006</v>
       </c>
       <c r="C81" t="s">
+        <v>587</v>
+      </c>
+      <c r="D81" t="s">
         <v>588</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>589</v>
       </c>
-      <c r="E81" t="s">
-        <v>590</v>
-      </c>
       <c r="F81" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="M81" s="1">
+        <v>45399.574305555558</v>
+      </c>
+      <c r="N81" t="s">
+        <v>478</v>
+      </c>
+      <c r="S81" t="s">
+        <v>448</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U81" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>572</v>
       </c>
@@ -5590,22 +7249,52 @@
         <v>2006</v>
       </c>
       <c r="C82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" t="s">
         <v>188</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>189</v>
       </c>
-      <c r="E82" t="s">
-        <v>190</v>
-      </c>
       <c r="F82" t="s">
         <v>17</v>
       </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" s="2">
+        <v>45399.585416666669</v>
+      </c>
+      <c r="N82" t="s">
+        <v>457</v>
+      </c>
+      <c r="O82" t="s">
+        <v>748</v>
+      </c>
+      <c r="P82" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>749</v>
+      </c>
+      <c r="R82" t="s">
+        <v>750</v>
+      </c>
+      <c r="S82" t="s">
+        <v>454</v>
+      </c>
       <c r="T82" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>573</v>
       </c>
@@ -5613,10 +7302,10 @@
         <v>2006</v>
       </c>
       <c r="C83" t="s">
+        <v>190</v>
+      </c>
+      <c r="D83" t="s">
         <v>191</v>
-      </c>
-      <c r="D83" t="s">
-        <v>192</v>
       </c>
       <c r="E83" t="s">
         <v>41</v>
@@ -5624,20 +7313,44 @@
       <c r="F83" t="s">
         <v>17</v>
       </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>9</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
+      </c>
       <c r="M83" s="1">
         <v>45761.588125000002</v>
       </c>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
+      <c r="N83" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T83" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>574</v>
       </c>
@@ -5645,22 +7358,52 @@
         <v>2006</v>
       </c>
       <c r="C84" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" t="s">
         <v>193</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>194</v>
       </c>
-      <c r="E84" t="s">
-        <v>195</v>
-      </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1">
+        <v>45764.595833333333</v>
+      </c>
+      <c r="N84" t="s">
+        <v>457</v>
+      </c>
+      <c r="O84" t="s">
+        <v>755</v>
+      </c>
+      <c r="P84" t="s">
+        <v>756</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>757</v>
+      </c>
+      <c r="R84" t="s">
+        <v>758</v>
+      </c>
+      <c r="S84" t="s">
+        <v>454</v>
+      </c>
       <c r="T84" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>575</v>
       </c>
@@ -5668,10 +7411,10 @@
         <v>2006</v>
       </c>
       <c r="C85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85" t="s">
         <v>196</v>
-      </c>
-      <c r="D85" t="s">
-        <v>197</v>
       </c>
       <c r="E85" t="s">
         <v>77</v>
@@ -5679,11 +7422,29 @@
       <c r="F85" t="s">
         <v>17</v>
       </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>7</v>
+      </c>
+      <c r="M85" s="1">
+        <v>45764.600694444445</v>
+      </c>
+      <c r="N85" t="s">
+        <v>472</v>
+      </c>
+      <c r="O85" t="s">
+        <v>759</v>
+      </c>
       <c r="T85" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U85" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>576</v>
       </c>
@@ -5691,31 +7452,55 @@
         <v>2006</v>
       </c>
       <c r="C86" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" t="s">
         <v>198</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>199</v>
       </c>
-      <c r="E86" t="s">
-        <v>200</v>
-      </c>
       <c r="F86" t="s">
         <v>17</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
       </c>
       <c r="M86" s="1">
         <v>45761.61440972222</v>
       </c>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
+      <c r="N86" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T86" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>577</v>
       </c>
@@ -5723,22 +7508,61 @@
         <v>2007</v>
       </c>
       <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" t="s">
         <v>201</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>202</v>
       </c>
-      <c r="E87" t="s">
-        <v>203</v>
-      </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>9</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1">
+        <v>45764.618750000001</v>
+      </c>
+      <c r="N87" t="s">
+        <v>457</v>
+      </c>
+      <c r="O87" t="s">
+        <v>768</v>
+      </c>
+      <c r="P87" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>767</v>
+      </c>
+      <c r="R87" t="s">
+        <v>765</v>
+      </c>
+      <c r="S87" t="s">
+        <v>448</v>
+      </c>
       <c r="T87" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U87" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>578</v>
       </c>
@@ -5746,22 +7570,55 @@
         <v>2007</v>
       </c>
       <c r="C88" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" t="s">
         <v>204</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>205</v>
       </c>
-      <c r="E88" t="s">
-        <v>206</v>
-      </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>45764.709027777775</v>
+      </c>
+      <c r="N88" t="s">
+        <v>457</v>
+      </c>
+      <c r="O88" t="s">
+        <v>769</v>
+      </c>
+      <c r="P88" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>481</v>
+      </c>
+      <c r="R88" t="s">
+        <v>771</v>
+      </c>
+      <c r="S88" t="s">
+        <v>454</v>
+      </c>
       <c r="T88" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>579</v>
       </c>
@@ -5769,22 +7626,55 @@
         <v>2007</v>
       </c>
       <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" t="s">
         <v>207</v>
       </c>
-      <c r="D89" t="s">
-        <v>208</v>
-      </c>
       <c r="E89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
       </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1">
+        <v>45764.713888888888</v>
+      </c>
+      <c r="N89" t="s">
+        <v>457</v>
+      </c>
+      <c r="O89" t="s">
+        <v>772</v>
+      </c>
+      <c r="P89" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>774</v>
+      </c>
+      <c r="R89" t="s">
+        <v>775</v>
+      </c>
+      <c r="S89" t="s">
+        <v>454</v>
+      </c>
       <c r="T89" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>580</v>
       </c>
@@ -5792,22 +7682,58 @@
         <v>2007</v>
       </c>
       <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" t="s">
         <v>209</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>210</v>
       </c>
-      <c r="E90" t="s">
-        <v>211</v>
-      </c>
       <c r="F90" t="s">
         <v>17</v>
       </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>9</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>45764.716666666667</v>
+      </c>
+      <c r="N90" t="s">
+        <v>457</v>
+      </c>
+      <c r="P90" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>674</v>
+      </c>
+      <c r="R90" t="s">
+        <v>777</v>
+      </c>
+      <c r="S90" t="s">
+        <v>448</v>
+      </c>
       <c r="T90" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="U90" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>581</v>
       </c>
@@ -5815,31 +7741,55 @@
         <v>2007</v>
       </c>
       <c r="C91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" t="s">
         <v>212</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>213</v>
       </c>
-      <c r="E91" t="s">
-        <v>214</v>
-      </c>
       <c r="F91" t="s">
         <v>17</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
       </c>
       <c r="M91" s="1">
         <v>45761.694710648146</v>
       </c>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
+      <c r="N91" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T91" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>582</v>
       </c>
@@ -5847,19 +7797,52 @@
         <v>2008</v>
       </c>
       <c r="C92" t="s">
+        <v>590</v>
+      </c>
+      <c r="D92" t="s">
         <v>591</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>592</v>
       </c>
-      <c r="E92" t="s">
-        <v>593</v>
-      </c>
       <c r="F92" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>1</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1">
+        <v>45764.736111111109</v>
+      </c>
+      <c r="N92" t="s">
+        <v>457</v>
+      </c>
+      <c r="O92" t="s">
+        <v>783</v>
+      </c>
+      <c r="P92" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>785</v>
+      </c>
+      <c r="S92" t="s">
+        <v>454</v>
+      </c>
+      <c r="T92" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>583</v>
       </c>
@@ -5867,19 +7850,19 @@
         <v>2008</v>
       </c>
       <c r="C93" t="s">
+        <v>593</v>
+      </c>
+      <c r="D93" t="s">
         <v>594</v>
       </c>
-      <c r="D93" t="s">
-        <v>595</v>
-      </c>
       <c r="E93" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>584</v>
       </c>
@@ -5887,22 +7870,22 @@
         <v>2008</v>
       </c>
       <c r="C94" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
         <v>215</v>
       </c>
-      <c r="D94" t="s">
-        <v>216</v>
-      </c>
       <c r="E94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>585</v>
       </c>
@@ -5910,22 +7893,22 @@
         <v>2008</v>
       </c>
       <c r="C95" t="s">
+        <v>216</v>
+      </c>
+      <c r="D95" t="s">
         <v>217</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>218</v>
       </c>
-      <c r="E95" t="s">
-        <v>219</v>
-      </c>
       <c r="F95" t="s">
         <v>17</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>586</v>
       </c>
@@ -5933,19 +7916,19 @@
         <v>2008</v>
       </c>
       <c r="C96" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" t="s">
         <v>220</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>221</v>
       </c>
-      <c r="E96" t="s">
-        <v>222</v>
-      </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
@@ -5956,19 +7939,19 @@
         <v>2008</v>
       </c>
       <c r="C97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" t="s">
         <v>223</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>224</v>
       </c>
-      <c r="E97" t="s">
-        <v>225</v>
-      </c>
       <c r="F97" t="s">
         <v>17</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
@@ -5979,19 +7962,19 @@
         <v>2008</v>
       </c>
       <c r="C98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" t="s">
         <v>226</v>
       </c>
-      <c r="D98" t="s">
-        <v>227</v>
-      </c>
       <c r="E98" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
@@ -6002,19 +7985,19 @@
         <v>2008</v>
       </c>
       <c r="C99" t="s">
+        <v>227</v>
+      </c>
+      <c r="D99" t="s">
         <v>228</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>229</v>
       </c>
-      <c r="E99" t="s">
-        <v>230</v>
-      </c>
       <c r="F99" t="s">
         <v>17</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.2">
@@ -6025,13 +8008,13 @@
         <v>2009</v>
       </c>
       <c r="C100" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" t="s">
         <v>231</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>232</v>
-      </c>
-      <c r="E100" t="s">
-        <v>233</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -6046,7 +8029,7 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.2">
@@ -6057,19 +8040,19 @@
         <v>2009</v>
       </c>
       <c r="C101" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" t="s">
         <v>234</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>235</v>
       </c>
-      <c r="E101" t="s">
-        <v>236</v>
-      </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.2">
@@ -6080,13 +8063,13 @@
         <v>2009</v>
       </c>
       <c r="C102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" t="s">
         <v>237</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>238</v>
-      </c>
-      <c r="E102" t="s">
-        <v>239</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
@@ -6101,7 +8084,7 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.2">
@@ -6112,19 +8095,19 @@
         <v>2009</v>
       </c>
       <c r="C103" t="s">
+        <v>239</v>
+      </c>
+      <c r="D103" t="s">
         <v>240</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>241</v>
       </c>
-      <c r="E103" t="s">
-        <v>242</v>
-      </c>
       <c r="F103" t="s">
         <v>17</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.2">
@@ -6135,13 +8118,13 @@
         <v>2009</v>
       </c>
       <c r="C104" t="s">
+        <v>242</v>
+      </c>
+      <c r="D104" t="s">
         <v>243</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>244</v>
-      </c>
-      <c r="E104" t="s">
-        <v>245</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
@@ -6156,7 +8139,7 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.2">
@@ -6167,13 +8150,13 @@
         <v>2010</v>
       </c>
       <c r="C105" t="s">
+        <v>595</v>
+      </c>
+      <c r="D105" t="s">
         <v>596</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>597</v>
-      </c>
-      <c r="E105" t="s">
-        <v>598</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
@@ -6187,13 +8170,13 @@
         <v>2010</v>
       </c>
       <c r="C106" t="s">
+        <v>598</v>
+      </c>
+      <c r="D106" t="s">
         <v>599</v>
       </c>
-      <c r="D106" t="s">
-        <v>600</v>
-      </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
@@ -6207,19 +8190,19 @@
         <v>2010</v>
       </c>
       <c r="C107" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107" t="s">
         <v>246</v>
       </c>
-      <c r="D107" t="s">
-        <v>247</v>
-      </c>
       <c r="E107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
       </c>
       <c r="T107" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.2">
@@ -6230,19 +8213,19 @@
         <v>2010</v>
       </c>
       <c r="C108" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" t="s">
         <v>248</v>
       </c>
-      <c r="D108" t="s">
-        <v>249</v>
-      </c>
       <c r="E108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
       </c>
       <c r="T108" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
@@ -6253,19 +8236,19 @@
         <v>2010</v>
       </c>
       <c r="C109" t="s">
+        <v>249</v>
+      </c>
+      <c r="D109" t="s">
         <v>250</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>251</v>
       </c>
-      <c r="E109" t="s">
-        <v>252</v>
-      </c>
       <c r="F109" t="s">
         <v>17</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.2">
@@ -6276,19 +8259,19 @@
         <v>2010</v>
       </c>
       <c r="C110" t="s">
+        <v>252</v>
+      </c>
+      <c r="D110" t="s">
         <v>253</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>254</v>
       </c>
-      <c r="E110" t="s">
-        <v>255</v>
-      </c>
       <c r="F110" t="s">
         <v>17</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
@@ -6299,13 +8282,13 @@
         <v>2010</v>
       </c>
       <c r="C111" t="s">
+        <v>603</v>
+      </c>
+      <c r="D111" t="s">
         <v>604</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>605</v>
-      </c>
-      <c r="E111" t="s">
-        <v>606</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -6322,13 +8305,13 @@
         <v>2011</v>
       </c>
       <c r="C112" t="s">
+        <v>600</v>
+      </c>
+      <c r="D112" t="s">
         <v>601</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>602</v>
-      </c>
-      <c r="E112" t="s">
-        <v>603</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
@@ -6342,19 +8325,19 @@
         <v>2011</v>
       </c>
       <c r="C113" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" t="s">
         <v>256</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>257</v>
       </c>
-      <c r="E113" t="s">
-        <v>258</v>
-      </c>
       <c r="F113" t="s">
         <v>17</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.2">
@@ -6365,13 +8348,13 @@
         <v>2011</v>
       </c>
       <c r="C114" t="s">
+        <v>606</v>
+      </c>
+      <c r="D114" t="s">
         <v>607</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>608</v>
-      </c>
-      <c r="E114" t="s">
-        <v>609</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
@@ -6385,19 +8368,19 @@
         <v>2011</v>
       </c>
       <c r="C115" t="s">
+        <v>258</v>
+      </c>
+      <c r="D115" t="s">
         <v>259</v>
       </c>
-      <c r="D115" t="s">
-        <v>260</v>
-      </c>
       <c r="E115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.2">
@@ -6408,19 +8391,19 @@
         <v>2011</v>
       </c>
       <c r="C116" t="s">
+        <v>260</v>
+      </c>
+      <c r="D116" t="s">
         <v>261</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>262</v>
       </c>
-      <c r="E116" t="s">
-        <v>263</v>
-      </c>
       <c r="F116" t="s">
         <v>17</v>
       </c>
       <c r="T116" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.2">
@@ -6431,13 +8414,13 @@
         <v>2012</v>
       </c>
       <c r="C117" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" t="s">
         <v>264</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
         <v>265</v>
-      </c>
-      <c r="E117" t="s">
-        <v>266</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -6452,7 +8435,7 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.2">
@@ -6463,13 +8446,13 @@
         <v>2012</v>
       </c>
       <c r="C118" t="s">
+        <v>609</v>
+      </c>
+      <c r="D118" t="s">
         <v>610</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>611</v>
-      </c>
-      <c r="E118" t="s">
-        <v>612</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
@@ -6483,19 +8466,19 @@
         <v>2012</v>
       </c>
       <c r="C119" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" t="s">
         <v>267</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
         <v>268</v>
       </c>
-      <c r="E119" t="s">
-        <v>269</v>
-      </c>
       <c r="F119" t="s">
         <v>17</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
@@ -6506,19 +8489,19 @@
         <v>2012</v>
       </c>
       <c r="C120" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" t="s">
         <v>270</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>271</v>
       </c>
-      <c r="E120" t="s">
-        <v>272</v>
-      </c>
       <c r="F120" t="s">
         <v>17</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
@@ -6529,19 +8512,19 @@
         <v>2012</v>
       </c>
       <c r="C121" t="s">
+        <v>272</v>
+      </c>
+      <c r="D121" t="s">
         <v>273</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>274</v>
       </c>
-      <c r="E121" t="s">
-        <v>275</v>
-      </c>
       <c r="F121" t="s">
         <v>17</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.2">
@@ -6552,13 +8535,13 @@
         <v>2012</v>
       </c>
       <c r="C122" t="s">
+        <v>612</v>
+      </c>
+      <c r="D122" t="s">
         <v>613</v>
       </c>
-      <c r="D122" t="s">
-        <v>614</v>
-      </c>
       <c r="E122" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -6572,13 +8555,13 @@
         <v>2012</v>
       </c>
       <c r="C123" t="s">
+        <v>275</v>
+      </c>
+      <c r="D123" t="s">
         <v>276</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
         <v>277</v>
-      </c>
-      <c r="E123" t="s">
-        <v>278</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -6593,7 +8576,7 @@
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
@@ -6604,19 +8587,19 @@
         <v>2012</v>
       </c>
       <c r="C124" t="s">
+        <v>278</v>
+      </c>
+      <c r="D124" t="s">
         <v>279</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
         <v>280</v>
       </c>
-      <c r="E124" t="s">
-        <v>281</v>
-      </c>
       <c r="F124" t="s">
         <v>17</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.2">
@@ -6627,13 +8610,13 @@
         <v>2013</v>
       </c>
       <c r="C125" t="s">
+        <v>281</v>
+      </c>
+      <c r="D125" t="s">
         <v>282</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>283</v>
-      </c>
-      <c r="E125" t="s">
-        <v>284</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
@@ -6648,7 +8631,7 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.2">
@@ -6659,10 +8642,10 @@
         <v>2013</v>
       </c>
       <c r="C126" t="s">
+        <v>284</v>
+      </c>
+      <c r="D126" t="s">
         <v>285</v>
-      </c>
-      <c r="D126" t="s">
-        <v>286</v>
       </c>
       <c r="E126" t="s">
         <v>62</v>
@@ -6671,7 +8654,7 @@
         <v>17</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.2">
@@ -6682,19 +8665,19 @@
         <v>2013</v>
       </c>
       <c r="C127" t="s">
+        <v>286</v>
+      </c>
+      <c r="D127" t="s">
         <v>287</v>
       </c>
-      <c r="D127" t="s">
-        <v>288</v>
-      </c>
       <c r="E127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F127" t="s">
         <v>17</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.2">
@@ -6705,10 +8688,10 @@
         <v>2013</v>
       </c>
       <c r="C128" t="s">
+        <v>288</v>
+      </c>
+      <c r="D128" t="s">
         <v>289</v>
-      </c>
-      <c r="D128" t="s">
-        <v>290</v>
       </c>
       <c r="E128" t="s">
         <v>68</v>
@@ -6726,7 +8709,7 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.2">
@@ -6737,13 +8720,13 @@
         <v>2013</v>
       </c>
       <c r="C129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D129" t="s">
         <v>291</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
         <v>292</v>
-      </c>
-      <c r="E129" t="s">
-        <v>293</v>
       </c>
       <c r="F129" t="s">
         <v>17</v>
@@ -6758,7 +8741,7 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.2">
@@ -6769,19 +8752,19 @@
         <v>2013</v>
       </c>
       <c r="C130" t="s">
+        <v>293</v>
+      </c>
+      <c r="D130" t="s">
         <v>294</v>
       </c>
-      <c r="D130" t="s">
-        <v>295</v>
-      </c>
       <c r="E130" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.2">
@@ -6792,19 +8775,19 @@
         <v>2013</v>
       </c>
       <c r="C131" t="s">
+        <v>295</v>
+      </c>
+      <c r="D131" t="s">
         <v>296</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>297</v>
       </c>
-      <c r="E131" t="s">
-        <v>298</v>
-      </c>
       <c r="F131" t="s">
         <v>17</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.2">
@@ -6815,13 +8798,13 @@
         <v>2013</v>
       </c>
       <c r="C132" t="s">
+        <v>298</v>
+      </c>
+      <c r="D132" t="s">
         <v>299</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>300</v>
-      </c>
-      <c r="E132" t="s">
-        <v>301</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
@@ -6836,7 +8819,7 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.2">
@@ -6847,13 +8830,13 @@
         <v>2014</v>
       </c>
       <c r="C133" t="s">
+        <v>301</v>
+      </c>
+      <c r="D133" t="s">
         <v>302</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>303</v>
-      </c>
-      <c r="E133" t="s">
-        <v>304</v>
       </c>
       <c r="F133" t="s">
         <v>17</v>
@@ -6868,7 +8851,7 @@
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.2">
@@ -6879,13 +8862,13 @@
         <v>2014</v>
       </c>
       <c r="C134" t="s">
+        <v>614</v>
+      </c>
+      <c r="D134" t="s">
         <v>615</v>
       </c>
-      <c r="D134" t="s">
-        <v>616</v>
-      </c>
       <c r="E134" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F134" t="s">
         <v>17</v>
@@ -6902,19 +8885,19 @@
         <v>2014</v>
       </c>
       <c r="C135" t="s">
+        <v>304</v>
+      </c>
+      <c r="D135" t="s">
         <v>305</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>306</v>
       </c>
-      <c r="E135" t="s">
-        <v>307</v>
-      </c>
       <c r="F135" t="s">
         <v>17</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.2">
@@ -6925,13 +8908,13 @@
         <v>2014</v>
       </c>
       <c r="C136" t="s">
+        <v>307</v>
+      </c>
+      <c r="D136" t="s">
         <v>308</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>309</v>
-      </c>
-      <c r="E136" t="s">
-        <v>310</v>
       </c>
       <c r="F136" t="s">
         <v>17</v>
@@ -6946,7 +8929,7 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.2">
@@ -6957,19 +8940,19 @@
         <v>2014</v>
       </c>
       <c r="C137" t="s">
+        <v>310</v>
+      </c>
+      <c r="D137" t="s">
         <v>311</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>312</v>
       </c>
-      <c r="E137" t="s">
-        <v>313</v>
-      </c>
       <c r="F137" t="s">
         <v>17</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.2">
@@ -6980,19 +8963,19 @@
         <v>2014</v>
       </c>
       <c r="C138" t="s">
+        <v>313</v>
+      </c>
+      <c r="D138" t="s">
         <v>314</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
         <v>315</v>
       </c>
-      <c r="E138" t="s">
-        <v>316</v>
-      </c>
       <c r="F138" t="s">
         <v>17</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.2">
@@ -7003,19 +8986,19 @@
         <v>2014</v>
       </c>
       <c r="C139" t="s">
+        <v>316</v>
+      </c>
+      <c r="D139" t="s">
         <v>317</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
         <v>318</v>
       </c>
-      <c r="E139" t="s">
-        <v>319</v>
-      </c>
       <c r="F139" t="s">
         <v>17</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.2">
@@ -7026,13 +9009,13 @@
         <v>2014</v>
       </c>
       <c r="C140" t="s">
+        <v>616</v>
+      </c>
+      <c r="D140" t="s">
         <v>617</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
         <v>618</v>
-      </c>
-      <c r="E140" t="s">
-        <v>619</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -7046,13 +9029,13 @@
         <v>2014</v>
       </c>
       <c r="C141" t="s">
+        <v>619</v>
+      </c>
+      <c r="D141" t="s">
         <v>620</v>
       </c>
-      <c r="D141" t="s">
-        <v>621</v>
-      </c>
       <c r="E141" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
@@ -7066,19 +9049,19 @@
         <v>2014</v>
       </c>
       <c r="C142" t="s">
+        <v>319</v>
+      </c>
+      <c r="D142" t="s">
         <v>320</v>
       </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
         <v>321</v>
       </c>
-      <c r="E142" t="s">
-        <v>322</v>
-      </c>
       <c r="F142" t="s">
         <v>17</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
@@ -7089,19 +9072,19 @@
         <v>2015</v>
       </c>
       <c r="C143" t="s">
+        <v>322</v>
+      </c>
+      <c r="D143" t="s">
         <v>323</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>324</v>
       </c>
-      <c r="E143" t="s">
-        <v>325</v>
-      </c>
       <c r="F143" t="s">
         <v>17</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.2">
@@ -7112,19 +9095,19 @@
         <v>2015</v>
       </c>
       <c r="C144" t="s">
+        <v>325</v>
+      </c>
+      <c r="D144" t="s">
         <v>326</v>
       </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
         <v>327</v>
       </c>
-      <c r="E144" t="s">
-        <v>328</v>
-      </c>
       <c r="F144" t="s">
         <v>17</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.2">
@@ -7135,13 +9118,13 @@
         <v>2015</v>
       </c>
       <c r="C145" t="s">
+        <v>328</v>
+      </c>
+      <c r="D145" t="s">
         <v>329</v>
       </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
         <v>330</v>
-      </c>
-      <c r="E145" t="s">
-        <v>331</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
@@ -7156,7 +9139,7 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.2">
@@ -7167,13 +9150,13 @@
         <v>2015</v>
       </c>
       <c r="C146" t="s">
+        <v>331</v>
+      </c>
+      <c r="D146" t="s">
         <v>332</v>
       </c>
-      <c r="D146" t="s">
-        <v>333</v>
-      </c>
       <c r="E146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
@@ -7188,7 +9171,7 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.2">
@@ -7199,13 +9182,13 @@
         <v>2015</v>
       </c>
       <c r="C147" t="s">
+        <v>333</v>
+      </c>
+      <c r="D147" t="s">
         <v>334</v>
       </c>
-      <c r="D147" t="s">
-        <v>335</v>
-      </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
@@ -7220,7 +9203,7 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.2">
@@ -7231,13 +9214,13 @@
         <v>2015</v>
       </c>
       <c r="C148" t="s">
+        <v>335</v>
+      </c>
+      <c r="D148" t="s">
         <v>336</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
         <v>337</v>
-      </c>
-      <c r="E148" t="s">
-        <v>338</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
@@ -7252,7 +9235,7 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.2">
@@ -7263,19 +9246,19 @@
         <v>2016</v>
       </c>
       <c r="C149" t="s">
+        <v>338</v>
+      </c>
+      <c r="D149" t="s">
         <v>339</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
         <v>340</v>
       </c>
-      <c r="E149" t="s">
-        <v>341</v>
-      </c>
       <c r="F149" t="s">
         <v>17</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.2">
@@ -7286,13 +9269,13 @@
         <v>2016</v>
       </c>
       <c r="C150" t="s">
+        <v>341</v>
+      </c>
+      <c r="D150" t="s">
         <v>342</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
         <v>343</v>
-      </c>
-      <c r="E150" t="s">
-        <v>344</v>
       </c>
       <c r="F150" t="s">
         <v>17</v>
@@ -7307,7 +9290,7 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
@@ -7318,19 +9301,19 @@
         <v>2016</v>
       </c>
       <c r="C151" t="s">
+        <v>344</v>
+      </c>
+      <c r="D151" t="s">
         <v>345</v>
       </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
         <v>346</v>
       </c>
-      <c r="E151" t="s">
-        <v>347</v>
-      </c>
       <c r="F151" t="s">
         <v>17</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.2">
@@ -7341,13 +9324,13 @@
         <v>2016</v>
       </c>
       <c r="C152" t="s">
+        <v>347</v>
+      </c>
+      <c r="D152" t="s">
         <v>348</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>349</v>
-      </c>
-      <c r="E152" t="s">
-        <v>350</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
@@ -7362,7 +9345,7 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.2">
@@ -7373,19 +9356,19 @@
         <v>2016</v>
       </c>
       <c r="C153" t="s">
+        <v>350</v>
+      </c>
+      <c r="D153" t="s">
         <v>351</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>352</v>
       </c>
-      <c r="E153" t="s">
-        <v>353</v>
-      </c>
       <c r="F153" t="s">
         <v>17</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.2">
@@ -7396,13 +9379,13 @@
         <v>2016</v>
       </c>
       <c r="C154" t="s">
+        <v>353</v>
+      </c>
+      <c r="D154" t="s">
         <v>354</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>355</v>
-      </c>
-      <c r="E154" t="s">
-        <v>356</v>
       </c>
       <c r="F154" t="s">
         <v>17</v>
@@ -7417,7 +9400,7 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.2">
@@ -7428,13 +9411,13 @@
         <v>2016</v>
       </c>
       <c r="C155" t="s">
+        <v>356</v>
+      </c>
+      <c r="D155" t="s">
         <v>357</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>358</v>
-      </c>
-      <c r="E155" t="s">
-        <v>359</v>
       </c>
       <c r="F155" t="s">
         <v>17</v>
@@ -7449,7 +9432,7 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.2">
@@ -7460,13 +9443,13 @@
         <v>2016</v>
       </c>
       <c r="C156" t="s">
+        <v>359</v>
+      </c>
+      <c r="D156" t="s">
         <v>360</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>361</v>
-      </c>
-      <c r="E156" t="s">
-        <v>362</v>
       </c>
       <c r="F156" t="s">
         <v>17</v>
@@ -7481,7 +9464,7 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.2">
@@ -7492,19 +9475,19 @@
         <v>2016</v>
       </c>
       <c r="C157" t="s">
+        <v>362</v>
+      </c>
+      <c r="D157" t="s">
         <v>363</v>
       </c>
-      <c r="D157" t="s">
-        <v>364</v>
-      </c>
       <c r="E157" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F157" t="s">
         <v>17</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.2">
@@ -7515,13 +9498,13 @@
         <v>2016</v>
       </c>
       <c r="C158" t="s">
+        <v>364</v>
+      </c>
+      <c r="D158" t="s">
         <v>365</v>
       </c>
-      <c r="D158" t="s">
-        <v>366</v>
-      </c>
       <c r="E158" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F158" t="s">
         <v>17</v>
@@ -7536,7 +9519,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.2">
@@ -7547,19 +9530,19 @@
         <v>2016</v>
       </c>
       <c r="C159" t="s">
+        <v>366</v>
+      </c>
+      <c r="D159" t="s">
         <v>367</v>
       </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
         <v>368</v>
       </c>
-      <c r="E159" t="s">
-        <v>369</v>
-      </c>
       <c r="F159" t="s">
         <v>17</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.2">
@@ -7570,13 +9553,13 @@
         <v>2017</v>
       </c>
       <c r="C160" t="s">
+        <v>369</v>
+      </c>
+      <c r="D160" t="s">
         <v>370</v>
       </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
         <v>371</v>
-      </c>
-      <c r="E160" t="s">
-        <v>372</v>
       </c>
       <c r="F160" t="s">
         <v>17</v>
@@ -7591,7 +9574,7 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.2">
@@ -7602,19 +9585,19 @@
         <v>2017</v>
       </c>
       <c r="C161" t="s">
+        <v>372</v>
+      </c>
+      <c r="D161" t="s">
         <v>373</v>
       </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
         <v>374</v>
       </c>
-      <c r="E161" t="s">
-        <v>375</v>
-      </c>
       <c r="F161" t="s">
         <v>17</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.2">
@@ -7625,13 +9608,13 @@
         <v>2017</v>
       </c>
       <c r="C162" t="s">
+        <v>375</v>
+      </c>
+      <c r="D162" t="s">
         <v>376</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>377</v>
-      </c>
-      <c r="E162" t="s">
-        <v>378</v>
       </c>
       <c r="F162" t="s">
         <v>17</v>
@@ -7646,7 +9629,7 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.2">
@@ -7657,19 +9640,19 @@
         <v>2018</v>
       </c>
       <c r="C163" t="s">
+        <v>378</v>
+      </c>
+      <c r="D163" t="s">
         <v>379</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>380</v>
       </c>
-      <c r="E163" t="s">
-        <v>381</v>
-      </c>
       <c r="F163" t="s">
         <v>17</v>
       </c>
       <c r="T163" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.2">
@@ -7680,19 +9663,19 @@
         <v>2018</v>
       </c>
       <c r="C164" t="s">
+        <v>381</v>
+      </c>
+      <c r="D164" t="s">
         <v>382</v>
       </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
         <v>383</v>
       </c>
-      <c r="E164" t="s">
-        <v>384</v>
-      </c>
       <c r="F164" t="s">
         <v>17</v>
       </c>
       <c r="T164" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.2">
@@ -7703,13 +9686,13 @@
         <v>2018</v>
       </c>
       <c r="C165" t="s">
+        <v>621</v>
+      </c>
+      <c r="D165" t="s">
         <v>622</v>
       </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
         <v>623</v>
-      </c>
-      <c r="E165" t="s">
-        <v>624</v>
       </c>
       <c r="F165" t="s">
         <v>17</v>
@@ -7723,19 +9706,19 @@
         <v>2018</v>
       </c>
       <c r="C166" t="s">
+        <v>384</v>
+      </c>
+      <c r="D166" t="s">
         <v>385</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
         <v>386</v>
       </c>
-      <c r="E166" t="s">
-        <v>387</v>
-      </c>
       <c r="F166" t="s">
         <v>17</v>
       </c>
       <c r="T166" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.2">
@@ -7746,19 +9729,19 @@
         <v>2018</v>
       </c>
       <c r="C167" t="s">
+        <v>387</v>
+      </c>
+      <c r="D167" t="s">
         <v>388</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>389</v>
       </c>
-      <c r="E167" t="s">
-        <v>390</v>
-      </c>
       <c r="F167" t="s">
         <v>17</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.2">
@@ -7769,19 +9752,19 @@
         <v>2018</v>
       </c>
       <c r="C168" t="s">
+        <v>390</v>
+      </c>
+      <c r="D168" t="s">
         <v>391</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>392</v>
       </c>
-      <c r="E168" t="s">
-        <v>393</v>
-      </c>
       <c r="F168" t="s">
         <v>17</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.2">
@@ -7792,19 +9775,19 @@
         <v>2019</v>
       </c>
       <c r="C169" t="s">
+        <v>393</v>
+      </c>
+      <c r="D169" t="s">
         <v>394</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>395</v>
       </c>
-      <c r="E169" t="s">
-        <v>396</v>
-      </c>
       <c r="F169" t="s">
         <v>17</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.2">
@@ -7815,10 +9798,10 @@
         <v>2019</v>
       </c>
       <c r="D170" t="s">
+        <v>396</v>
+      </c>
+      <c r="E170" t="s">
         <v>397</v>
-      </c>
-      <c r="E170" t="s">
-        <v>398</v>
       </c>
       <c r="F170" t="s">
         <v>17</v>
@@ -7833,7 +9816,7 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.2">
@@ -7844,13 +9827,13 @@
         <v>2020</v>
       </c>
       <c r="C171" t="s">
+        <v>398</v>
+      </c>
+      <c r="D171" t="s">
         <v>399</v>
       </c>
-      <c r="D171" t="s">
-        <v>400</v>
-      </c>
       <c r="E171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F171" t="s">
         <v>17</v>
@@ -7865,7 +9848,7 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.2">
@@ -7876,19 +9859,19 @@
         <v>2020</v>
       </c>
       <c r="C172" t="s">
+        <v>400</v>
+      </c>
+      <c r="D172" t="s">
         <v>401</v>
       </c>
-      <c r="D172" t="s">
-        <v>402</v>
-      </c>
       <c r="E172" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
         <v>17</v>
       </c>
       <c r="T172" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.2">
@@ -7899,13 +9882,13 @@
         <v>2020</v>
       </c>
       <c r="C173" t="s">
+        <v>402</v>
+      </c>
+      <c r="D173" t="s">
         <v>403</v>
       </c>
-      <c r="D173" t="s">
-        <v>404</v>
-      </c>
       <c r="E173" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F173" t="s">
         <v>17</v>
@@ -7920,7 +9903,7 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.2">
@@ -7931,19 +9914,19 @@
         <v>2020</v>
       </c>
       <c r="C174" t="s">
+        <v>404</v>
+      </c>
+      <c r="D174" t="s">
         <v>405</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>406</v>
       </c>
-      <c r="E174" t="s">
-        <v>407</v>
-      </c>
       <c r="F174" t="s">
         <v>17</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.2">
@@ -7954,19 +9937,19 @@
         <v>2020</v>
       </c>
       <c r="C175" t="s">
+        <v>407</v>
+      </c>
+      <c r="D175" t="s">
         <v>408</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>409</v>
       </c>
-      <c r="E175" t="s">
-        <v>410</v>
-      </c>
       <c r="F175" t="s">
         <v>17</v>
       </c>
       <c r="T175" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.2">
@@ -7977,13 +9960,13 @@
         <v>2021</v>
       </c>
       <c r="C176" t="s">
+        <v>410</v>
+      </c>
+      <c r="D176" t="s">
         <v>411</v>
       </c>
-      <c r="D176" t="s">
-        <v>412</v>
-      </c>
       <c r="E176" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F176" t="s">
         <v>17</v>
@@ -7998,7 +9981,7 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.2">
@@ -8009,13 +9992,13 @@
         <v>2021</v>
       </c>
       <c r="C177" t="s">
+        <v>412</v>
+      </c>
+      <c r="D177" t="s">
         <v>413</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>414</v>
-      </c>
-      <c r="E177" t="s">
-        <v>415</v>
       </c>
       <c r="F177" t="s">
         <v>17</v>
@@ -8030,7 +10013,7 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.2">
@@ -8041,13 +10024,13 @@
         <v>2021</v>
       </c>
       <c r="C178" t="s">
+        <v>415</v>
+      </c>
+      <c r="D178" t="s">
         <v>416</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>417</v>
-      </c>
-      <c r="E178" t="s">
-        <v>418</v>
       </c>
       <c r="F178" t="s">
         <v>17</v>
@@ -8062,7 +10045,7 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.2">
@@ -8073,13 +10056,13 @@
         <v>2021</v>
       </c>
       <c r="C179" t="s">
+        <v>418</v>
+      </c>
+      <c r="D179" t="s">
         <v>419</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>420</v>
-      </c>
-      <c r="E179" t="s">
-        <v>421</v>
       </c>
       <c r="F179" t="s">
         <v>17</v>
@@ -8094,7 +10077,7 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.2">
@@ -8105,19 +10088,19 @@
         <v>2022</v>
       </c>
       <c r="C180" t="s">
+        <v>421</v>
+      </c>
+      <c r="D180" t="s">
         <v>422</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>423</v>
       </c>
-      <c r="E180" t="s">
-        <v>424</v>
-      </c>
       <c r="F180" t="s">
         <v>17</v>
       </c>
       <c r="T180" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.2">
@@ -8128,19 +10111,19 @@
         <v>2022</v>
       </c>
       <c r="C181" t="s">
+        <v>424</v>
+      </c>
+      <c r="D181" t="s">
         <v>425</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>426</v>
       </c>
-      <c r="E181" t="s">
-        <v>427</v>
-      </c>
       <c r="F181" t="s">
         <v>17</v>
       </c>
       <c r="T181" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.2">
@@ -8151,13 +10134,13 @@
         <v>2022</v>
       </c>
       <c r="C182" t="s">
+        <v>427</v>
+      </c>
+      <c r="D182" t="s">
         <v>428</v>
       </c>
-      <c r="D182" t="s">
+      <c r="E182" t="s">
         <v>429</v>
-      </c>
-      <c r="E182" t="s">
-        <v>430</v>
       </c>
       <c r="F182" t="s">
         <v>17</v>
@@ -8172,7 +10155,7 @@
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.2">
@@ -8183,19 +10166,19 @@
         <v>2022</v>
       </c>
       <c r="C183" t="s">
+        <v>430</v>
+      </c>
+      <c r="D183" t="s">
         <v>431</v>
       </c>
-      <c r="D183" t="s">
-        <v>432</v>
-      </c>
       <c r="E183" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F183" t="s">
         <v>17</v>
       </c>
       <c r="T183" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.2">
@@ -8206,13 +10189,13 @@
         <v>2022</v>
       </c>
       <c r="C184" t="s">
+        <v>432</v>
+      </c>
+      <c r="D184" t="s">
         <v>433</v>
       </c>
-      <c r="D184" t="s">
-        <v>434</v>
-      </c>
       <c r="E184" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F184" t="s">
         <v>17</v>
@@ -8227,7 +10210,7 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
       <c r="T184" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.2">
@@ -8238,13 +10221,13 @@
         <v>2023</v>
       </c>
       <c r="C185" t="s">
+        <v>434</v>
+      </c>
+      <c r="D185" t="s">
         <v>435</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>436</v>
-      </c>
-      <c r="E185" t="s">
-        <v>437</v>
       </c>
       <c r="F185" t="s">
         <v>17</v>
@@ -8259,7 +10242,7 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
       <c r="T185" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.2">
@@ -8270,13 +10253,13 @@
         <v>2023</v>
       </c>
       <c r="C186" t="s">
+        <v>437</v>
+      </c>
+      <c r="D186" t="s">
         <v>438</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>439</v>
-      </c>
-      <c r="E186" t="s">
-        <v>440</v>
       </c>
       <c r="F186" t="s">
         <v>17</v>
@@ -8291,7 +10274,7 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
       <c r="T186" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.2">
@@ -8302,13 +10285,13 @@
         <v>2023</v>
       </c>
       <c r="C187" t="s">
+        <v>440</v>
+      </c>
+      <c r="D187" t="s">
         <v>441</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>442</v>
-      </c>
-      <c r="E187" t="s">
-        <v>443</v>
       </c>
       <c r="F187" t="s">
         <v>17</v>
@@ -8323,7 +10306,7 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
       <c r="T187" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.2">
@@ -8334,19 +10317,19 @@
         <v>2023</v>
       </c>
       <c r="C188" t="s">
+        <v>443</v>
+      </c>
+      <c r="D188" t="s">
         <v>444</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>445</v>
       </c>
-      <c r="E188" t="s">
-        <v>446</v>
-      </c>
       <c r="F188" t="s">
         <v>17</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.2">
@@ -8357,10 +10340,10 @@
         <v>2024</v>
       </c>
       <c r="D189" t="s">
+        <v>624</v>
+      </c>
+      <c r="E189" t="s">
         <v>625</v>
-      </c>
-      <c r="E189" t="s">
-        <v>626</v>
       </c>
       <c r="F189" t="s">
         <v>17</v>
@@ -8369,7 +10352,7 @@
         <v>45761.527615740742</v>
       </c>
       <c r="T189" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.2">
@@ -8380,10 +10363,10 @@
         <v>2024</v>
       </c>
       <c r="D190" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E190" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F190" t="s">
         <v>17</v>
@@ -8392,7 +10375,7 @@
         <v>45728.65116898148</v>
       </c>
       <c r="T190" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.2">
@@ -8400,16 +10383,16 @@
         <v>691</v>
       </c>
       <c r="C191" t="s">
+        <v>627</v>
+      </c>
+      <c r="D191" t="s">
         <v>628</v>
       </c>
-      <c r="D191" t="s">
-        <v>629</v>
-      </c>
       <c r="F191" t="s">
         <v>17</v>
       </c>
       <c r="T191" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.2">
@@ -8417,7 +10400,7 @@
         <v>692</v>
       </c>
       <c r="D192" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F192" t="s">
         <v>17</v>
@@ -8426,7 +10409,7 @@
         <v>45761.581562500003</v>
       </c>
       <c r="T192" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.2">
@@ -8434,10 +10417,10 @@
         <v>693</v>
       </c>
       <c r="D193" t="s">
+        <v>630</v>
+      </c>
+      <c r="E193" t="s">
         <v>631</v>
-      </c>
-      <c r="E193" t="s">
-        <v>632</v>
       </c>
       <c r="F193" t="s">
         <v>17</v>
@@ -8446,7 +10429,7 @@
         <v>45761.607372685183</v>
       </c>
       <c r="T193" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.2">
@@ -8454,7 +10437,7 @@
         <v>694</v>
       </c>
       <c r="D194" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F194" t="s">
         <v>17</v>
@@ -8463,7 +10446,7 @@
         <v>45728.646597222221</v>
       </c>
       <c r="T194" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.2">
@@ -8471,7 +10454,7 @@
         <v>695</v>
       </c>
       <c r="D195" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F195" t="s">
         <v>17</v>
@@ -8480,7 +10463,7 @@
         <v>45761.590821759259</v>
       </c>
       <c r="T195" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E38C18A-0B33-2F4E-B313-5DB585695A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{27700CD6-7656-384E-9147-B146C4BFA909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="789">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2379,6 +2379,15 @@
   </si>
   <si>
     <t>Kolkata, India</t>
+  </si>
+  <si>
+    <t>Belfast City Hospital</t>
+  </si>
+  <si>
+    <t>Belfast, Northern Ireland, UK</t>
+  </si>
+  <si>
+    <t>A nine-year retrospective review of all prisoners presenting with foreign body ingestion to the Belfast City Hospital Surgical Unit</t>
   </si>
 </sst>
 </file>
@@ -3244,9 +3253,9 @@
   <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomLeft" activeCell="O93" sqref="O93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7860,6 +7869,21 @@
       </c>
       <c r="F93" t="s">
         <v>17</v>
+      </c>
+      <c r="N93" t="s">
+        <v>478</v>
+      </c>
+      <c r="O93" t="s">
+        <v>788</v>
+      </c>
+      <c r="P93" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>787</v>
+      </c>
+      <c r="S93" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">

--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{27700CD6-7656-384E-9147-B146C4BFA909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2AF4448F-1C83-3A40-97A6-7C7D08109CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="853">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2388,6 +2388,198 @@
   </si>
   <si>
     <t>A nine-year retrospective review of all prisoners presenting with foreign body ingestion to the Belfast City Hospital Surgical Unit</t>
+  </si>
+  <si>
+    <t>"accidentally swallowed the handle of the broken toothbrush, which was 12 cm long"</t>
+  </si>
+  <si>
+    <t>5 year psychiatric case review. No information on individual ingestions, items, outcomes.</t>
+  </si>
+  <si>
+    <t>10.1016/j.pnpbp.2008.09.011</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>10.1007/s12262-008-0040-x</t>
+  </si>
+  <si>
+    <t>20 year old female intentionally ingested 55 pieces of glass bangle. Subsequently diagnosed with depressive disorder and possible pica.</t>
+  </si>
+  <si>
+    <t>Surgical Case Report</t>
+  </si>
+  <si>
+    <t>10.1007/s11845-007-0080-4</t>
+  </si>
+  <si>
+    <t>Department of General Surgery, Belfast City Hospital</t>
+  </si>
+  <si>
+    <t>29M admitted to having accidentally swallowed a 20-pence coin about 4–5 months prior to this admission.</t>
+  </si>
+  <si>
+    <t>Accidental ingestion - "admitted to having accidentally swallowed a 20-pence coin about 4–5 months prior to this admission."</t>
+  </si>
+  <si>
+    <t>10.1111/j.1463-1318.2007.01401.x</t>
+  </si>
+  <si>
+    <t>Prospective Observational</t>
+  </si>
+  <si>
+    <t>Departments of Colorectal and General Surgery and †Intensive Care Unit, Hospital Universitari de Girona Dr Josep Trueta</t>
+  </si>
+  <si>
+    <t>Griona, Spain</t>
+  </si>
+  <si>
+    <t>Between January 1995 and December 2006 all patients requiring surgery for intestinal perforation after FB ingestion were prospectively recorded. Excluded: FB extracted endoscopically, FB ingestion without perforation, oesophageal perforation and cases of perforation in which no FB was identified.</t>
+  </si>
+  <si>
+    <t>10.1016/j.jpeds.2007.08.042</t>
+  </si>
+  <si>
+    <t>Section of Pediatric Gastroenterology, Department of Pediatrics, Scott and White Hospital, Texas A&amp;M Health Science Center</t>
+  </si>
+  <si>
+    <t>Temple, Texas, USA</t>
+  </si>
+  <si>
+    <t>6M intentional ingestion of magnets</t>
+  </si>
+  <si>
+    <t>10.1080/15622970701308389</t>
+  </si>
+  <si>
+    <t>Ingestion of chalk with possible pica.</t>
+  </si>
+  <si>
+    <t>Shahdara, Delhi, India</t>
+  </si>
+  <si>
+    <t>10.1080/00015458.2009.11680405</t>
+  </si>
+  <si>
+    <t>Focus on bezoars, with no mention of object ingestion. Mention of food and substances. Exclude.</t>
+  </si>
+  <si>
+    <t>10.1186/1752-1947-3-56</t>
+  </si>
+  <si>
+    <t>37M with schizophrenia presented with gastric obstruction and giant metal bezoar.</t>
+  </si>
+  <si>
+    <t>Department of General Surgery of the "Hospital Civil de Guadalajara Fray Antonio Alcalde", University of Guadalajara.</t>
+  </si>
+  <si>
+    <t>Guadalajara, Jalisco, Mexico</t>
+  </si>
+  <si>
+    <t>3, 3.5 and 11 year olds with ingestion of magnets.</t>
+  </si>
+  <si>
+    <t>10.1308/147870809X450566</t>
+  </si>
+  <si>
+    <t>Department ofPaediatric Surgery, Addenbrooke’s Hospital</t>
+  </si>
+  <si>
+    <t>Cambridge, UK</t>
+  </si>
+  <si>
+    <t>10.1136/bcr.06.2008.0278</t>
+  </si>
+  <si>
+    <t>22M paramedic with delusions metal bezoar after multple object ingestion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined Military Hospital, General Surgery </t>
+  </si>
+  <si>
+    <t>Rawalpindi, Punjab, Pakistan</t>
+  </si>
+  <si>
+    <t>Article in Turkish</t>
+  </si>
+  <si>
+    <t>10.1016/j.jemermed.2008.04.007</t>
+  </si>
+  <si>
+    <t>11M with ADHD ingestion of multiple magnets</t>
+  </si>
+  <si>
+    <t>Department of Emergency Medicine, Brooke Army Medical Center</t>
+  </si>
+  <si>
+    <t>Fort Sam, Houston, Texas, USA</t>
+  </si>
+  <si>
+    <t>38M with schizophrenia ingestion of nails in suicide attempt.</t>
+  </si>
+  <si>
+    <t>Norfolk, Virginia, USA</t>
+  </si>
+  <si>
+    <t>10.1016/j.jemermed.2007.07.018</t>
+  </si>
+  <si>
+    <t>Not explicitly intentional - "the patient did not remember how or when he had swallowed the hair comb"</t>
+  </si>
+  <si>
+    <t>Prisoners</t>
+  </si>
+  <si>
+    <t>High Secutiy PrisonMangaung Maximum Security Prison</t>
+  </si>
+  <si>
+    <t>Bloemfontein, South Africa</t>
+  </si>
+  <si>
+    <t>Focusses on all surgical pathology seen in maximum security prison. Rates of intentional ingestion given, but not outcomes of interest.</t>
+  </si>
+  <si>
+    <t>A41-year -old male patient with intellectual disabilities presented after having swallowed approximately 20 sharp objects</t>
+  </si>
+  <si>
+    <t>Psychiatric Hospital</t>
+  </si>
+  <si>
+    <t>Hannover, Germany</t>
+  </si>
+  <si>
+    <t>Jinnah Postgraduate Medical Centre</t>
+  </si>
+  <si>
+    <t>Karachi, Pakistan</t>
+  </si>
+  <si>
+    <t>17M with schizophrenia who ingested multiple metal objects resulting in bezoar.</t>
+  </si>
+  <si>
+    <t>10.1016/j.dld.2011.02.018</t>
+  </si>
+  <si>
+    <t>Split, Croatia</t>
+  </si>
+  <si>
+    <t>18-year-old woman who accidentally swallowed her toothbrush</t>
+  </si>
+  <si>
+    <t>Accidental ingestion - "18-year-old woman who accidentally swallowed her toothbrush"</t>
+  </si>
+  <si>
+    <t>10.1111/j.1442-2050.2010.01116.x</t>
+  </si>
+  <si>
+    <t>10.3238/arztebl.2012.0869</t>
+  </si>
+  <si>
+    <t>Accidental ingestion</t>
+  </si>
+  <si>
+    <t>Accidental ingestion - "After excluding articles on intentional ingestion of foreign bodies"</t>
   </si>
 </sst>
 </file>
@@ -3253,9 +3445,9 @@
   <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="O93" sqref="O93"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3970,7 +4162,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -4423,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -4473,7 +4665,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -5314,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43" s="1">
         <v>45762.677777777775</v>
@@ -7870,6 +8062,21 @@
       <c r="F93" t="s">
         <v>17</v>
       </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>45764.743055555555</v>
+      </c>
       <c r="N93" t="s">
         <v>478</v>
       </c>
@@ -7884,6 +8091,9 @@
       </c>
       <c r="S93" t="s">
         <v>454</v>
+      </c>
+      <c r="T93" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
@@ -7905,8 +8115,35 @@
       <c r="F94" t="s">
         <v>17</v>
       </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>45765.388888888891</v>
+      </c>
+      <c r="N94" t="s">
+        <v>457</v>
+      </c>
+      <c r="S94" t="s">
+        <v>448</v>
+      </c>
       <c r="T94" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U94" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
@@ -7928,8 +8165,38 @@
       <c r="F95" t="s">
         <v>17</v>
       </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1">
+        <v>45765.39166666667</v>
+      </c>
+      <c r="N95" t="s">
+        <v>457</v>
+      </c>
+      <c r="R95" t="s">
+        <v>791</v>
+      </c>
+      <c r="S95" t="s">
+        <v>448</v>
+      </c>
       <c r="T95" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U95" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
@@ -7951,11 +8218,44 @@
       <c r="F96" t="s">
         <v>17</v>
       </c>
+      <c r="G96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1">
+        <v>45765.402777777781</v>
+      </c>
+      <c r="N96" t="s">
+        <v>457</v>
+      </c>
+      <c r="O96" t="s">
+        <v>794</v>
+      </c>
+      <c r="P96" t="s">
+        <v>795</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>792</v>
+      </c>
+      <c r="R96" t="s">
+        <v>793</v>
+      </c>
+      <c r="S96" t="s">
+        <v>454</v>
+      </c>
       <c r="T96" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>587</v>
       </c>
@@ -7974,11 +8274,50 @@
       <c r="F97" t="s">
         <v>17</v>
       </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>45765.407638888886</v>
+      </c>
+      <c r="N97" t="s">
+        <v>457</v>
+      </c>
+      <c r="O97" t="s">
+        <v>798</v>
+      </c>
+      <c r="P97" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>787</v>
+      </c>
+      <c r="R97" t="s">
+        <v>796</v>
+      </c>
+      <c r="S97" t="s">
+        <v>448</v>
+      </c>
       <c r="T97" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U97" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>588</v>
       </c>
@@ -7997,11 +8336,44 @@
       <c r="F98" t="s">
         <v>17</v>
       </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" s="2">
+        <v>45765.410416666666</v>
+      </c>
+      <c r="N98" t="s">
+        <v>801</v>
+      </c>
+      <c r="O98" t="s">
+        <v>804</v>
+      </c>
+      <c r="P98" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>803</v>
+      </c>
+      <c r="R98" t="s">
+        <v>800</v>
+      </c>
+      <c r="S98" t="s">
+        <v>454</v>
+      </c>
       <c r="T98" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>589</v>
       </c>
@@ -8020,11 +8392,44 @@
       <c r="F99" t="s">
         <v>17</v>
       </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>45765.429166666669</v>
+      </c>
+      <c r="N99" t="s">
+        <v>457</v>
+      </c>
+      <c r="O99" t="s">
+        <v>808</v>
+      </c>
+      <c r="P99" t="s">
+        <v>806</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>807</v>
+      </c>
+      <c r="R99" t="s">
+        <v>805</v>
+      </c>
+      <c r="S99" t="s">
+        <v>454</v>
+      </c>
       <c r="T99" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>590</v>
       </c>
@@ -8043,20 +8448,46 @@
       <c r="F100" t="s">
         <v>17</v>
       </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>7</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
       <c r="M100" s="1">
         <v>45757.349930555552</v>
       </c>
-      <c r="N100" s="1"/>
+      <c r="N100" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
+      <c r="Q100" t="s">
+        <v>811</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="S100" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T100" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>591</v>
       </c>
@@ -8075,11 +8506,29 @@
       <c r="F101" t="s">
         <v>17</v>
       </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="M101" s="1">
+        <v>45765.436111111114</v>
+      </c>
+      <c r="R101" t="s">
+        <v>812</v>
+      </c>
+      <c r="S101" t="s">
+        <v>448</v>
+      </c>
       <c r="T101" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U101" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>592</v>
       </c>
@@ -8098,20 +8547,44 @@
       <c r="F102" t="s">
         <v>17</v>
       </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
       <c r="M102" s="1">
-        <v>45761.561400462961</v>
-      </c>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
+        <v>45765.561400462961</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="S102" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T102" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>593</v>
       </c>
@@ -8130,11 +8603,44 @@
       <c r="F103" t="s">
         <v>17</v>
       </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" s="2">
+        <v>45765.470138888886</v>
+      </c>
+      <c r="N103" t="s">
+        <v>478</v>
+      </c>
+      <c r="O103" t="s">
+        <v>818</v>
+      </c>
+      <c r="P103" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>821</v>
+      </c>
+      <c r="R103" t="s">
+        <v>819</v>
+      </c>
+      <c r="S103" t="s">
+        <v>454</v>
+      </c>
       <c r="T103" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>594</v>
       </c>
@@ -8153,20 +8659,44 @@
       <c r="F104" t="s">
         <v>17</v>
       </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
       <c r="M104" s="1">
-        <v>45761.562210648146</v>
-      </c>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
+        <v>45765.473611111112</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="P104" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="S104" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T104" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>595</v>
       </c>
@@ -8185,8 +8715,23 @@
       <c r="F105" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="S105" t="s">
+        <v>448</v>
+      </c>
+      <c r="T105" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U105" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>596</v>
       </c>
@@ -8205,8 +8750,26 @@
       <c r="F106" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>45765.479166666664</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U106" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>597</v>
       </c>
@@ -8225,11 +8788,44 @@
       <c r="F107" t="s">
         <v>17</v>
       </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>45765.48333333333</v>
+      </c>
+      <c r="N107" t="s">
+        <v>457</v>
+      </c>
+      <c r="O107" t="s">
+        <v>828</v>
+      </c>
+      <c r="P107" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>830</v>
+      </c>
+      <c r="R107" t="s">
+        <v>827</v>
+      </c>
+      <c r="S107" t="s">
+        <v>454</v>
+      </c>
       <c r="T107" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>598</v>
       </c>
@@ -8248,11 +8844,44 @@
       <c r="F108" t="s">
         <v>17</v>
       </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>45765.493055555555</v>
+      </c>
+      <c r="N108" t="s">
+        <v>457</v>
+      </c>
+      <c r="O108" t="s">
+        <v>831</v>
+      </c>
+      <c r="P108" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>832</v>
+      </c>
+      <c r="R108" t="s">
+        <v>833</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T108" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>600</v>
       </c>
@@ -8271,11 +8900,38 @@
       <c r="F109" t="s">
         <v>17</v>
       </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>9</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" s="1">
+        <v>45765.503472222219</v>
+      </c>
+      <c r="N109" t="s">
+        <v>457</v>
+      </c>
+      <c r="S109" t="s">
+        <v>448</v>
+      </c>
       <c r="T109" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U109" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>601</v>
       </c>
@@ -8294,11 +8950,47 @@
       <c r="F110" t="s">
         <v>17</v>
       </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>10</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1">
+        <v>45765.504861111112</v>
+      </c>
+      <c r="N110" t="s">
+        <v>472</v>
+      </c>
+      <c r="O110" t="s">
+        <v>835</v>
+      </c>
+      <c r="P110" t="s">
+        <v>836</v>
+      </c>
+      <c r="R110" t="s">
+        <v>837</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T110" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U110" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>602</v>
       </c>
@@ -8317,11 +9009,41 @@
       <c r="F111" t="s">
         <v>17</v>
       </c>
+      <c r="G111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
       <c r="M111" s="1">
         <v>45761.554131944446</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N111" t="s">
+        <v>457</v>
+      </c>
+      <c r="O111" t="s">
+        <v>839</v>
+      </c>
+      <c r="P111" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>841</v>
+      </c>
+      <c r="S111" t="s">
+        <v>454</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>604</v>
       </c>
@@ -8340,8 +9062,41 @@
       <c r="F112" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" s="1">
+        <v>45765.518750000003</v>
+      </c>
+      <c r="N112" t="s">
+        <v>457</v>
+      </c>
+      <c r="O112" t="s">
+        <v>844</v>
+      </c>
+      <c r="P112" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>843</v>
+      </c>
+      <c r="S112" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="T112" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>605</v>
       </c>
@@ -8360,11 +9115,44 @@
       <c r="F113" t="s">
         <v>17</v>
       </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>9</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="b">
+        <v>0</v>
+      </c>
+      <c r="K113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>45765.524305555555</v>
+      </c>
+      <c r="N113" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>782</v>
+      </c>
+      <c r="R113" t="s">
+        <v>845</v>
+      </c>
+      <c r="S113" t="s">
+        <v>448</v>
+      </c>
       <c r="T113" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U113" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>606</v>
       </c>
@@ -8383,8 +9171,23 @@
       <c r="F114" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="S114" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T114" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U114" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>607</v>
       </c>
@@ -8403,11 +9206,44 @@
       <c r="F115" t="s">
         <v>17</v>
       </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1">
+        <v>45765.52847222222</v>
+      </c>
+      <c r="N115" t="s">
+        <v>457</v>
+      </c>
+      <c r="O115" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>846</v>
+      </c>
+      <c r="S115" t="s">
+        <v>448</v>
+      </c>
       <c r="T115" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U115" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>608</v>
       </c>
@@ -8426,11 +9262,41 @@
       <c r="F116" t="s">
         <v>17</v>
       </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>9</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1">
+        <v>45765.530555555553</v>
+      </c>
+      <c r="N116" t="s">
+        <v>472</v>
+      </c>
+      <c r="R116" t="s">
+        <v>849</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T116" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U116" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>609</v>
       </c>
@@ -8449,20 +9315,43 @@
       <c r="F117" t="s">
         <v>17</v>
       </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
+      </c>
       <c r="M117" s="1">
-        <v>45761.757037037038</v>
-      </c>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
+        <v>45765.533333333333</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>851</v>
+      </c>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
+      <c r="R117" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T117" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U117" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>610</v>
       </c>
@@ -8482,7 +9371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>611</v>
       </c>
@@ -8505,7 +9394,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>612</v>
       </c>
@@ -8528,7 +9417,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>613</v>
       </c>
@@ -8551,7 +9440,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>614</v>
       </c>
@@ -8571,7 +9460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>615</v>
       </c>
@@ -8603,7 +9492,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>616</v>
       </c>
@@ -8626,7 +9515,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>617</v>
       </c>
@@ -8658,7 +9547,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>618</v>
       </c>
@@ -8681,7 +9570,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>619</v>
       </c>
@@ -8704,7 +9593,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>620</v>
       </c>

--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2AF4448F-1C83-3A40-97A6-7C7D08109CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CE35D732-6137-AA40-AB02-ED9612D9A60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="898">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2580,6 +2580,141 @@
   </si>
   <si>
     <t>Accidental ingestion - "After excluding articles on intentional ingestion of foreign bodies"</t>
+  </si>
+  <si>
+    <t>2 young adults with personality disorder and recurrent ingestion</t>
+  </si>
+  <si>
+    <t>Division of Gastroenterology, Department of Medicine, MetroHealth Medical Center and Case Western Reserve University</t>
+  </si>
+  <si>
+    <t>Cleveland, Ohio, USA</t>
+  </si>
+  <si>
+    <t>10.5505/tjtes.2012.22457</t>
+  </si>
+  <si>
+    <t>Only mentions accidental ingestions that were ignored.</t>
+  </si>
+  <si>
+    <t>10.1097/MAJ.0b013e3182263035</t>
+  </si>
+  <si>
+    <t>10.1007/s11684-012-0207-5</t>
+  </si>
+  <si>
+    <t>Review without original empirical evidence</t>
+  </si>
+  <si>
+    <t>10.1007/s00405-012-1988-5</t>
+  </si>
+  <si>
+    <t>Male with learning difficulties and schizophrenia. Mentions that swallowed a toothbrush and forget to tell anybody, but does not mention whether or not intentional.</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijscr.2012.01.008</t>
+  </si>
+  <si>
+    <t>29F with schizophrenia deliberately ingested 10 razor blades.</t>
+  </si>
+  <si>
+    <t>10.1093/qjmed/hcs165</t>
+  </si>
+  <si>
+    <t>Department of Medicine, Medicine Institute, Cleveland Clinic Foundation</t>
+  </si>
+  <si>
+    <t>10.1097/PEC.0b013e31827b5374</t>
+  </si>
+  <si>
+    <t>Data from patients who were hospitalized for FB ingestion and/or aspiration and underwent rigid bronchoscopy and esophagoscopy from 2008 to 2011 were retrospectively evaluated</t>
+  </si>
+  <si>
+    <t>Author only refers to "choking or accident".</t>
+  </si>
+  <si>
+    <t>Patients older than 16 years of age who presented to the ED between January 1st and December 31st of 2010 with complaints related to swallowed foreign bodies were identified from electronic health records and patient charts.</t>
+  </si>
+  <si>
+    <t>Department of Emergency Medicine, Faculty of Medicine, Hacettepe University</t>
+  </si>
+  <si>
+    <t>Ankara, Turkey</t>
+  </si>
+  <si>
+    <t>10.3748/wjg.v19.i38.6447</t>
+  </si>
+  <si>
+    <t>"The incident was self-reported as accidental in all patients"</t>
+  </si>
+  <si>
+    <t>Department of Internal Medicine and 2Department of Gastroenterology‡ Warren Alpert School of Medicine Brown University</t>
+  </si>
+  <si>
+    <t>Providence, Rhode Island, USA</t>
+  </si>
+  <si>
+    <t>32F with extensive IIFO history. Mediastinal migration of ingested knife</t>
+  </si>
+  <si>
+    <t>Tanda, Himachal Pradesh, India</t>
+  </si>
+  <si>
+    <t>Department of Surgery, Dr Rajinder Prasad Medical College</t>
+  </si>
+  <si>
+    <t>24M manic depressive male staggered ingestion of multiple long nails over course of one year.</t>
+  </si>
+  <si>
+    <t>10.1007/s12262-012-0706-2</t>
+  </si>
+  <si>
+    <t>Institute of Digestive Endoscopy and Medical Center for Digestive Diseases, Second Affiliated Hospital of Nanjing Medical University</t>
+  </si>
+  <si>
+    <t>Nanjing, Jiangsu Province, China</t>
+  </si>
+  <si>
+    <t>10.3748/wjg.v19.i25.4091</t>
+  </si>
+  <si>
+    <t>100F ingested 22 coins in suicide attempt due to unbearable pain</t>
+  </si>
+  <si>
+    <t>10.4103/1119-3077.116879</t>
+  </si>
+  <si>
+    <t>epartment of Surgery, C.S.M. Medical University</t>
+  </si>
+  <si>
+    <t>Lucknow, Uttar Pradesh, India</t>
+  </si>
+  <si>
+    <t>26M with schizophrenia ingested 6 long needles</t>
+  </si>
+  <si>
+    <t>10.1136/bcr-2013-009603</t>
+  </si>
+  <si>
+    <t>"The patient had no recent recollection of consuming a meal involving the product found intraoperatively"</t>
+  </si>
+  <si>
+    <t>41F with ileocecal perforation 6 years after accidental ingestion of food packaging. Previously diagnosed with crohn's disease - not IIFO</t>
+  </si>
+  <si>
+    <t>General Surgery Department, Heatherwood and Wexham Park Hospital</t>
+  </si>
+  <si>
+    <t>Slough, UK</t>
+  </si>
+  <si>
+    <t>30F ingested 10 razor blades wrapped in paper and chewing gum</t>
+  </si>
+  <si>
+    <t>Gastroenterology and Hepatology, Cleveland Clinic</t>
+  </si>
+  <si>
+    <t>10.1093/gastro/gou002</t>
   </si>
 </sst>
 </file>
@@ -3444,10 +3579,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A81A345-0683-F840-B0F4-445E0232AC4D}">
   <dimension ref="A1:U195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <selection pane="bottomLeft" activeCell="T133" sqref="T133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9370,6 +9505,33 @@
       <c r="F118" t="s">
         <v>17</v>
       </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" s="1">
+        <v>45765.541666666664</v>
+      </c>
+      <c r="N118" t="s">
+        <v>478</v>
+      </c>
+      <c r="O118" t="s">
+        <v>853</v>
+      </c>
+      <c r="P118" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>855</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="T118" s="1" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119">
@@ -9390,8 +9552,29 @@
       <c r="F119" t="s">
         <v>17</v>
       </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="M119" s="1">
+        <v>45765.554166666669</v>
+      </c>
+      <c r="N119" t="s">
+        <v>457</v>
+      </c>
+      <c r="R119" t="s">
+        <v>856</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T119" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U119" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
@@ -9413,8 +9596,38 @@
       <c r="F120" t="s">
         <v>17</v>
       </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>9</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
+        <v>0</v>
+      </c>
+      <c r="K120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" s="1">
+        <v>45765.57708333333</v>
+      </c>
+      <c r="N120" t="s">
+        <v>472</v>
+      </c>
+      <c r="R120" t="s">
+        <v>858</v>
+      </c>
+      <c r="S120" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T120" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U120" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
@@ -9436,6 +9649,18 @@
       <c r="F121" t="s">
         <v>17</v>
       </c>
+      <c r="M121" s="2">
+        <v>45765.577777777777</v>
+      </c>
+      <c r="N121" t="s">
+        <v>512</v>
+      </c>
+      <c r="R121" t="s">
+        <v>859</v>
+      </c>
+      <c r="S121" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T121" s="1" t="s">
         <v>448</v>
       </c>
@@ -9459,6 +9684,27 @@
       <c r="F122" t="s">
         <v>17</v>
       </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>5</v>
+      </c>
+      <c r="M122" s="1">
+        <v>45765.579861111109</v>
+      </c>
+      <c r="N122" t="s">
+        <v>512</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T122" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U122" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123">
@@ -9479,17 +9725,38 @@
       <c r="F123" t="s">
         <v>17</v>
       </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>9</v>
+      </c>
+      <c r="J123" t="b">
+        <v>0</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
       <c r="M123" s="1">
         <v>45761.600775462961</v>
       </c>
-      <c r="N123" s="1"/>
+      <c r="N123" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
+      <c r="R123" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T123" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U123" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
@@ -9511,8 +9778,35 @@
       <c r="F124" t="s">
         <v>17</v>
       </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>9</v>
+      </c>
+      <c r="J124" t="b">
+        <v>0</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="M124" s="1">
+        <v>45765.584722222222</v>
+      </c>
+      <c r="N124" t="s">
+        <v>457</v>
+      </c>
+      <c r="R124" t="s">
+        <v>863</v>
+      </c>
+      <c r="S124" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T124" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U124" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
@@ -9534,15 +9828,39 @@
       <c r="F125" t="s">
         <v>17</v>
       </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" t="b">
+        <v>1</v>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
       <c r="M125" s="1">
         <v>45761.611886574072</v>
       </c>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
+      <c r="N125" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="P125" t="s">
+        <v>866</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="S125" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T125" s="1" t="s">
         <v>448</v>
       </c>
@@ -9566,8 +9884,42 @@
       <c r="F126" t="s">
         <v>17</v>
       </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>9</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>45765.593055555553</v>
+      </c>
+      <c r="N126" t="s">
+        <v>472</v>
+      </c>
+      <c r="O126" t="s">
+        <v>868</v>
+      </c>
+      <c r="P126" s="1"/>
+      <c r="R126" t="s">
+        <v>867</v>
+      </c>
+      <c r="S126" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T126" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U126" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
@@ -9589,8 +9941,47 @@
       <c r="F127" t="s">
         <v>17</v>
       </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
+        <v>1</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>45765.595833333333</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O127" t="s">
+        <v>870</v>
+      </c>
+      <c r="P127" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>872</v>
+      </c>
+      <c r="R127" t="s">
+        <v>873</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T127" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U127" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
@@ -9612,20 +10003,42 @@
       <c r="F128" t="s">
         <v>17</v>
       </c>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
       <c r="M128" s="1">
-        <v>45761.601111111115</v>
-      </c>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
+        <v>45765.601111111115</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q128" s="1" t="s">
+        <v>876</v>
+      </c>
       <c r="R128" s="1"/>
-      <c r="S128" s="1"/>
+      <c r="S128" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T128" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>621</v>
       </c>
@@ -9644,20 +10057,44 @@
       <c r="F129" t="s">
         <v>17</v>
       </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
       <c r="M129" s="1">
         <v>45761.562430555554</v>
       </c>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-      <c r="S129" s="1"/>
+      <c r="N129" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="S129" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T129" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>622</v>
       </c>
@@ -9676,11 +10113,44 @@
       <c r="F130" t="s">
         <v>17</v>
       </c>
+      <c r="G130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="M130" s="1">
+        <v>45765.60833333333</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="P130" t="s">
+        <v>882</v>
+      </c>
+      <c r="Q130" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="R130" t="s">
+        <v>884</v>
+      </c>
+      <c r="S130" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T130" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>623</v>
       </c>
@@ -9699,11 +10169,44 @@
       <c r="F131" t="s">
         <v>17</v>
       </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="M131" s="1">
+        <v>45765.611111111109</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="P131" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>888</v>
+      </c>
+      <c r="R131" t="s">
+        <v>886</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T131" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>624</v>
       </c>
@@ -9722,20 +10225,50 @@
       <c r="F132" t="s">
         <v>17</v>
       </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
+      </c>
+      <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
+      </c>
       <c r="M132" s="1">
         <v>45761.593888888892</v>
       </c>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
+      <c r="N132" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q132" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T132" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U132" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>625</v>
       </c>
@@ -9754,20 +10287,44 @@
       <c r="F133" t="s">
         <v>17</v>
       </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
       <c r="M133" s="1">
-        <v>45761.608206018522</v>
-      </c>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
+        <v>45765.631249999999</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q133" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="R133" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T133" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>626</v>
       </c>
@@ -9790,7 +10347,7 @@
         <v>45761.669560185182</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>627</v>
       </c>
@@ -9813,7 +10370,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>628</v>
       </c>
@@ -9845,7 +10402,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>629</v>
       </c>
@@ -9868,7 +10425,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>630</v>
       </c>
@@ -9891,7 +10448,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>631</v>
       </c>
@@ -9914,7 +10471,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>632</v>
       </c>
@@ -9934,7 +10491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>633</v>
       </c>
@@ -9954,7 +10511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>635</v>
       </c>
@@ -9977,7 +10534,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>637</v>
       </c>
@@ -10000,7 +10557,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>638</v>
       </c>

--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CE35D732-6137-AA40-AB02-ED9612D9A60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{185B9A2E-EF3A-9C4A-A777-D46B127991F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="931">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2715,6 +2715,105 @@
   </si>
   <si>
     <t>10.1093/gastro/gou002</t>
+  </si>
+  <si>
+    <t>Postgraduate Department of Surgery, Government Medical College</t>
+  </si>
+  <si>
+    <t>Jammu, J&amp;K, India</t>
+  </si>
+  <si>
+    <t>32F intentional ingestion of knife in apparently psychosis, in situ 7 years.</t>
+  </si>
+  <si>
+    <t>10.1016/j.amjsurg.2013.12.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed cohort of intentional and non-intentional. No empirical data to separate outcomes for groups. Exclude. </t>
+  </si>
+  <si>
+    <t>22F background schizophrenia with pica</t>
+  </si>
+  <si>
+    <t>King George’s Medical University,</t>
+  </si>
+  <si>
+    <t>10.4103/2249-4863.152277</t>
+  </si>
+  <si>
+    <t>Not intentional ingestion - "It seemed most likely that a needle entered blood stream during acupuncture."</t>
+  </si>
+  <si>
+    <t>10.3349/ymj.2015.56.3.867</t>
+  </si>
+  <si>
+    <t>Not explicitly intentional - "the patient could not remember the fact of the foreign body ingestion."</t>
+  </si>
+  <si>
+    <t>10.4174/astr.2015.89.3.158</t>
+  </si>
+  <si>
+    <t>24M background of paranoid schizophrenia</t>
+  </si>
+  <si>
+    <t>Department of General, Endocrine and Transplant Surgery Medical University of Gdansk</t>
+  </si>
+  <si>
+    <t>Gdansk, Poland</t>
+  </si>
+  <si>
+    <t>10.1055/s-0034-1392611</t>
+  </si>
+  <si>
+    <t>Appears unintentional "chicken bone", "did not link symptoms to anything she had eaten"</t>
+  </si>
+  <si>
+    <t>"accidental ingestion of metallic objects which might have been mixed with minced meat of a kebab"</t>
+  </si>
+  <si>
+    <t>10.5339/qmj.2015.7</t>
+  </si>
+  <si>
+    <t>A 21-year-old male patient who had visual hallucinations and behavioral and cognitive disorders presented to the psychiatry clinic and was diagnosed with moderate mental retardation (patients were mismatched to The Wechsler Adult Intelligence Scale, IQ in the 39–49 range) and schizophrenia.</t>
+  </si>
+  <si>
+    <t>Department of Gastroenterology, G ̈ um  ̈ us  ̧hane State Hospital</t>
+  </si>
+  <si>
+    <t>G ̈ um  ̈ us  ̧hane, Turkey</t>
+  </si>
+  <si>
+    <t>10.1155/2016/6301302</t>
+  </si>
+  <si>
+    <t>10-year-old male with autism</t>
+  </si>
+  <si>
+    <t>10.1016/j.epsc.2016.07.006</t>
+  </si>
+  <si>
+    <t>Department of Surgery, Dartmouth School of Medicine</t>
+  </si>
+  <si>
+    <t>Hanover, New Hampshire, USA</t>
+  </si>
+  <si>
+    <t>Two accidental cases</t>
+  </si>
+  <si>
+    <t>"All three patients presented to the Emergency Department with a history of accidental swallowing of the toothbrush when trying to clean the posterior part of the tongue with tongue cleaner on the brush head"</t>
+  </si>
+  <si>
+    <t>A 34-year-old male inmate with a history of schizophrenia presented to the emergency department complaining of acute worsening epigastric pain for the preceding 7 days</t>
+  </si>
+  <si>
+    <t>Internal Medicine Department, Texas Tech University Health Science Center</t>
+  </si>
+  <si>
+    <t>Lubbock, Texas, USA</t>
+  </si>
+  <si>
+    <t>10.1016/j.amjms.2016.05.022</t>
   </si>
 </sst>
 </file>
@@ -3579,10 +3678,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A81A345-0683-F840-B0F4-445E0232AC4D}">
   <dimension ref="A1:U195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="T133" sqref="T133"/>
+      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10343,8 +10442,38 @@
       <c r="F134" t="s">
         <v>17</v>
       </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
       <c r="M134" s="1">
-        <v>45761.669560185182</v>
+        <v>45767.370833333334</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="P134" t="s">
+        <v>898</v>
+      </c>
+      <c r="Q134" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="S134" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="T134" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.2">
@@ -10366,8 +10495,38 @@
       <c r="F135" t="s">
         <v>17</v>
       </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>9</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="b">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="M135" s="1">
+        <v>45767.381944444445</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R135" t="s">
+        <v>901</v>
+      </c>
+      <c r="S135" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T135" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U135" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.2">
@@ -10510,6 +10669,21 @@
       <c r="F141" t="s">
         <v>17</v>
       </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="S141" t="s">
+        <v>448</v>
+      </c>
+      <c r="T141" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U141" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A142">
@@ -10553,6 +10727,39 @@
       <c r="F143" t="s">
         <v>17</v>
       </c>
+      <c r="G143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" t="b">
+        <v>1</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="M143" s="1">
+        <v>45767.393750000003</v>
+      </c>
+      <c r="N143" t="s">
+        <v>457</v>
+      </c>
+      <c r="O143" t="s">
+        <v>903</v>
+      </c>
+      <c r="P143" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>888</v>
+      </c>
+      <c r="R143" t="s">
+        <v>905</v>
+      </c>
+      <c r="S143" t="s">
+        <v>454</v>
+      </c>
       <c r="T143" s="1" t="s">
         <v>448</v>
       </c>
@@ -10576,11 +10783,41 @@
       <c r="F144" t="s">
         <v>17</v>
       </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>2</v>
+      </c>
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
+        <v>1</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" s="2">
+        <v>45767.395138888889</v>
+      </c>
+      <c r="N144" t="s">
+        <v>457</v>
+      </c>
+      <c r="R144" t="s">
+        <v>907</v>
+      </c>
+      <c r="S144" t="s">
+        <v>448</v>
+      </c>
       <c r="T144" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U144" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>639</v>
       </c>
@@ -10599,20 +10836,44 @@
       <c r="F145" t="s">
         <v>17</v>
       </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>9</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>1</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
       <c r="M145" s="1">
         <v>45761.541678240741</v>
       </c>
-      <c r="N145" s="1"/>
+      <c r="N145" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
+      <c r="R145" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="S145" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T145" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U145" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>640</v>
       </c>
@@ -10631,20 +10892,44 @@
       <c r="F146" t="s">
         <v>17</v>
       </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" t="b">
+        <v>1</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
       <c r="M146" s="1">
-        <v>45761.562893518516</v>
-      </c>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
+        <v>45767.401388888888</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q146" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="R146" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="S146" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T146" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>641</v>
       </c>
@@ -10663,20 +10948,42 @@
       <c r="F147" t="s">
         <v>17</v>
       </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
+        <v>1</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
       <c r="M147" s="1">
         <v>45761.675127314818</v>
       </c>
-      <c r="N147" s="1"/>
+      <c r="N147" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
+      <c r="S147" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T147" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U147" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>642</v>
       </c>
@@ -10695,20 +11002,44 @@
       <c r="F148" t="s">
         <v>17</v>
       </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" t="b">
+        <v>1</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
       <c r="M148" s="1">
-        <v>45746.42459490741</v>
-      </c>
-      <c r="N148" s="1"/>
+        <v>45767.404861111114</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
+      <c r="R148" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="S148" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T148" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U148" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>643</v>
       </c>
@@ -10727,11 +11058,44 @@
       <c r="F149" t="s">
         <v>17</v>
       </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" t="b">
+        <v>1</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="M149" s="1">
+        <v>45767.406944444447</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O149" t="s">
+        <v>917</v>
+      </c>
+      <c r="P149" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>919</v>
+      </c>
+      <c r="R149" t="s">
+        <v>920</v>
+      </c>
+      <c r="S149" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T149" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>644</v>
       </c>
@@ -10750,20 +11114,44 @@
       <c r="F150" t="s">
         <v>17</v>
       </c>
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="b">
+        <v>1</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
       <c r="M150" s="1">
-        <v>45761.614166666666</v>
-      </c>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
+        <v>45767.416666666664</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q150" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="R150" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="S150" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T150" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>645</v>
       </c>
@@ -10786,7 +11174,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>646</v>
       </c>
@@ -10818,7 +11206,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>647</v>
       </c>
@@ -10841,7 +11229,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>648</v>
       </c>
@@ -10860,20 +11248,42 @@
       <c r="F154" t="s">
         <v>17</v>
       </c>
+      <c r="G154" t="b">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" t="b">
+        <v>1</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
       <c r="M154" s="1">
-        <v>45761.58326388889</v>
-      </c>
-      <c r="N154" s="1"/>
+        <v>45767.418055555558</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
-      <c r="S154" s="1"/>
+      <c r="S154" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T154" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U154" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>649</v>
       </c>
@@ -10892,20 +11302,42 @@
       <c r="F155" t="s">
         <v>17</v>
       </c>
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" t="b">
+        <v>1</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
       <c r="M155" s="1">
-        <v>45761.574907407405</v>
-      </c>
-      <c r="N155" s="1"/>
+        <v>45767.420138888891</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
+      <c r="S155" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T155" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U155" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>650</v>
       </c>
@@ -10937,7 +11369,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>651</v>
       </c>
@@ -10956,11 +11388,44 @@
       <c r="F157" t="s">
         <v>17</v>
       </c>
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+      <c r="I157" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" t="b">
+        <v>1</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="M157" s="1">
+        <v>45767.427777777775</v>
+      </c>
+      <c r="N157" t="s">
+        <v>457</v>
+      </c>
+      <c r="O157" t="s">
+        <v>927</v>
+      </c>
+      <c r="P157" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>929</v>
+      </c>
+      <c r="R157" t="s">
+        <v>930</v>
+      </c>
+      <c r="S157" t="s">
+        <v>454</v>
+      </c>
       <c r="T157" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>652</v>
       </c>
@@ -10992,7 +11457,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>653</v>
       </c>
@@ -11015,7 +11480,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>654</v>
       </c>

--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{185B9A2E-EF3A-9C4A-A777-D46B127991F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5E7614D0-037E-1E4D-8FB8-1CF398D820CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="974">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2814,13 +2814,142 @@
   </si>
   <si>
     <t>10.1016/j.amjms.2016.05.022</t>
+  </si>
+  <si>
+    <t>29M Prisoner ingested mobile phone</t>
+  </si>
+  <si>
+    <t>Department of Surgery, The Adelaide and Meath Hospital</t>
+  </si>
+  <si>
+    <t>Tallaght, Dublin, Ireland</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijscr.2016.03.043</t>
+  </si>
+  <si>
+    <t>Department of Surgery, Hamad Medical Corporation</t>
+  </si>
+  <si>
+    <t>Doha, Qatar</t>
+  </si>
+  <si>
+    <t>10.19080/OAJS.2017.04.555632</t>
+  </si>
+  <si>
+    <t>21M swallowed toothbrush 1 year ago with suicidal intention</t>
+  </si>
+  <si>
+    <t>10.12659/AJCR.902004</t>
+  </si>
+  <si>
+    <t>"history of an inadvertently ingested wooden toothpick"</t>
+  </si>
+  <si>
+    <t>10.1097/TA.0000000000001265</t>
+  </si>
+  <si>
+    <t>44-year-old male with intellectual disability who, after intentional self-harm by swallowing a large number of metallic objects, went to the emergency department due to lower gastrointestinal bleeding</t>
+  </si>
+  <si>
+    <t>Cirugı  ́a General, Hospital General Universitario de Albacete</t>
+  </si>
+  <si>
+    <t>Albacete, Spain</t>
+  </si>
+  <si>
+    <t>10.1016/j.ciresp.2018.02.015</t>
+  </si>
+  <si>
+    <t>"accidentally swallowed a sewing needle seven years ago."</t>
+  </si>
+  <si>
+    <t>10.5152/turkjsurg.2017.3391</t>
+  </si>
+  <si>
+    <t>Department of Forensic Medicine, Shahid Beheshti University of Medical Sciences</t>
+  </si>
+  <si>
+    <t>Tehran, Iran</t>
+  </si>
+  <si>
+    <t>44-year-old man who was brought to emergency department following severe abdominal pain, but died before admission or receiving any treatments</t>
+  </si>
+  <si>
+    <t>Article in French</t>
+  </si>
+  <si>
+    <t>10.11604/pamj.2018.31.236.16816</t>
+  </si>
+  <si>
+    <t>"What remains uncertain in our case is how the FB was introduced into the patient’s heart."</t>
+  </si>
+  <si>
+    <t>10.7759/cureus.4829</t>
+  </si>
+  <si>
+    <t>A 91 year old female with late stage dementia presented to the emergency department with acute onset of abdominal pain and vomiting</t>
+  </si>
+  <si>
+    <t>10.20431/2455-9806.0502002</t>
+  </si>
+  <si>
+    <t>A previously healthy 15-year-old boy presented to us after he had accidentally swallowed his vaping device</t>
+  </si>
+  <si>
+    <t>"A previously healthy 15-year-old boy presented to us after he had accidentally swallowed his vaping device"</t>
+  </si>
+  <si>
+    <t>10.1097/MPG.0000000000002791</t>
+  </si>
+  <si>
+    <t>Co-ingestion of drug packets</t>
+  </si>
+  <si>
+    <t>"accidentally swallowed some needles while practicing a magic trick 2 days before"</t>
+  </si>
+  <si>
+    <t>10.1097/MD.0000000000019343</t>
+  </si>
+  <si>
+    <t>10.1055/s-0039-3401455</t>
+  </si>
+  <si>
+    <t>10.7759/cureus.12597</t>
+  </si>
+  <si>
+    <t>Department of General Surgery, Security Forces Hospital,</t>
+  </si>
+  <si>
+    <t>Dammam, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>A 29-year-old male patient was brought to the emergency department (ED) by his family after witnessing swallowing multiple sharp metallic nails a day before the presentation.</t>
+  </si>
+  <si>
+    <t>10.1016/j.ajem.2020.08.102</t>
+  </si>
+  <si>
+    <t>Co-ingestion "He also claimed that he consumed three plastic packets of herbal purgative in an unsuccessful attempt to vomit the mobile phone."</t>
+  </si>
+  <si>
+    <t>22 year old male patient who presented with abdominal distension and vomiting of ingested matter of two to three episodes per day of one month duration</t>
+  </si>
+  <si>
+    <t>Department of Medicine, Madda Walabu University Goba General Hospital</t>
+  </si>
+  <si>
+    <t>Goba, Oromia, Ethiopia</t>
+  </si>
+  <si>
+    <t>10.2147/IMCRJ.S386883</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2951,6 +3080,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3297,10 +3433,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3679,9 +3816,9 @@
   <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
+      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11444,15 +11581,39 @@
       <c r="F158" t="s">
         <v>17</v>
       </c>
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+      <c r="I158" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" t="b">
+        <v>1</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
       <c r="M158" s="1">
         <v>45761.581875000003</v>
       </c>
-      <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
+      <c r="N158" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="R158" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="S158" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T158" s="1" t="s">
         <v>448</v>
       </c>
@@ -11499,20 +11660,44 @@
       <c r="F160" t="s">
         <v>17</v>
       </c>
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+      <c r="I160" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" t="b">
+        <v>1</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
       <c r="M160" s="1">
-        <v>45761.575787037036</v>
-      </c>
-      <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
+        <v>45768.375</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T160" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>656</v>
       </c>
@@ -11531,11 +11716,41 @@
       <c r="F161" t="s">
         <v>17</v>
       </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>3</v>
+      </c>
+      <c r="I161" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" t="b">
+        <v>1</v>
+      </c>
+      <c r="K161" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" s="2">
+        <v>45768.38958333333</v>
+      </c>
+      <c r="N161" t="s">
+        <v>457</v>
+      </c>
+      <c r="R161" t="s">
+        <v>939</v>
+      </c>
+      <c r="S161" t="s">
+        <v>448</v>
+      </c>
       <c r="T161" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U161" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>657</v>
       </c>
@@ -11557,17 +11772,21 @@
       <c r="M162" s="1">
         <v>45761.584166666667</v>
       </c>
-      <c r="N162" s="1"/>
+      <c r="N162" s="1" t="s">
+        <v>472</v>
+      </c>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
+      <c r="R162" s="1" t="s">
+        <v>941</v>
+      </c>
       <c r="S162" s="1"/>
       <c r="T162" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>658</v>
       </c>
@@ -11586,11 +11805,44 @@
       <c r="F163" t="s">
         <v>17</v>
       </c>
+      <c r="G163" t="b">
+        <v>0</v>
+      </c>
+      <c r="I163" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" t="b">
+        <v>1</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="M163" s="1">
+        <v>45768.393055555556</v>
+      </c>
+      <c r="N163" t="s">
+        <v>457</v>
+      </c>
+      <c r="O163" t="s">
+        <v>942</v>
+      </c>
+      <c r="P163" t="s">
+        <v>943</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>944</v>
+      </c>
+      <c r="R163" t="s">
+        <v>945</v>
+      </c>
+      <c r="S163" t="s">
+        <v>454</v>
+      </c>
       <c r="T163" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>660</v>
       </c>
@@ -11609,11 +11861,41 @@
       <c r="F164" t="s">
         <v>17</v>
       </c>
+      <c r="G164" t="b">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>3</v>
+      </c>
+      <c r="I164" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" t="b">
+        <v>1</v>
+      </c>
+      <c r="K164" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" s="1">
+        <v>45768.394444444442</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R164" t="s">
+        <v>947</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T164" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U164" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>661</v>
       </c>
@@ -11632,8 +11914,41 @@
       <c r="F165" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" t="b">
+        <v>1</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="M165" s="1">
+        <v>45768.402083333334</v>
+      </c>
+      <c r="N165" t="s">
+        <v>704</v>
+      </c>
+      <c r="O165" t="s">
+        <v>950</v>
+      </c>
+      <c r="P165" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>949</v>
+      </c>
+      <c r="S165" t="s">
+        <v>454</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>662</v>
       </c>
@@ -11656,7 +11971,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>663</v>
       </c>
@@ -11675,11 +11990,29 @@
       <c r="F167" t="s">
         <v>17</v>
       </c>
+      <c r="G167" t="b">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="M167" s="1">
+        <v>45768.408333333333</v>
+      </c>
+      <c r="R167" t="s">
+        <v>952</v>
+      </c>
+      <c r="S167" t="s">
+        <v>448</v>
+      </c>
       <c r="T167" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U167" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>664</v>
       </c>
@@ -11702,7 +12035,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>665</v>
       </c>
@@ -11721,11 +12054,41 @@
       <c r="F169" t="s">
         <v>17</v>
       </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>9</v>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="b">
+        <v>0</v>
+      </c>
+      <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" s="1">
+        <v>45768.410416666666</v>
+      </c>
+      <c r="N169" t="s">
+        <v>457</v>
+      </c>
+      <c r="R169" t="s">
+        <v>954</v>
+      </c>
+      <c r="S169" t="s">
+        <v>448</v>
+      </c>
       <c r="T169" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U169" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>667</v>
       </c>
@@ -11741,20 +12104,40 @@
       <c r="F170" t="s">
         <v>17</v>
       </c>
+      <c r="G170" t="b">
+        <v>0</v>
+      </c>
+      <c r="I170" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" t="b">
+        <v>0</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
       <c r="M170" s="1">
-        <v>45761.529270833336</v>
-      </c>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
+        <v>45768.411805555559</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>955</v>
+      </c>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
+      <c r="R170" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T170" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>669</v>
       </c>
@@ -11773,20 +12156,46 @@
       <c r="F171" t="s">
         <v>17</v>
       </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="b">
+        <v>1</v>
+      </c>
+      <c r="K171" t="b">
+        <v>0</v>
+      </c>
       <c r="M171" s="1">
-        <v>45761.572060185186</v>
-      </c>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
+        <v>45768.419444444444</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>957</v>
+      </c>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
+      <c r="R171" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T171" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U171" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>670</v>
       </c>
@@ -11809,7 +12218,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>672</v>
       </c>
@@ -11828,20 +12237,35 @@
       <c r="F173" t="s">
         <v>17</v>
       </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>7</v>
+      </c>
       <c r="M173" s="1">
-        <v>45761.581365740742</v>
-      </c>
-      <c r="N173" s="1"/>
+        <v>45768.421527777777</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
+      <c r="R173" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T173" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U173" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>673</v>
       </c>
@@ -11864,7 +12288,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>674</v>
       </c>
@@ -11883,11 +12307,41 @@
       <c r="F175" t="s">
         <v>17</v>
       </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>3</v>
+      </c>
+      <c r="I175" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" t="b">
+        <v>1</v>
+      </c>
+      <c r="K175" t="b">
+        <v>0</v>
+      </c>
+      <c r="M175" s="1">
+        <v>45768.422222222223</v>
+      </c>
+      <c r="N175" t="s">
+        <v>457</v>
+      </c>
+      <c r="R175" t="s">
+        <v>962</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T175" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U175" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>675</v>
       </c>
@@ -11906,20 +12360,44 @@
       <c r="F176" t="s">
         <v>17</v>
       </c>
+      <c r="G176" t="b">
+        <v>0</v>
+      </c>
+      <c r="I176" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" t="b">
+        <v>1</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
       <c r="M176" s="1">
-        <v>45746.429988425924</v>
-      </c>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
+        <v>45771.425000000003</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O176" t="s">
+        <v>967</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T176" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>676</v>
       </c>
@@ -11938,20 +12416,44 @@
       <c r="F177" t="s">
         <v>17</v>
       </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>7</v>
+      </c>
+      <c r="I177" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" t="b">
+        <v>1</v>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
       <c r="M177" s="1">
         <v>45761.581712962965</v>
       </c>
-      <c r="N177" s="1"/>
+      <c r="N177" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
+      <c r="R177" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T177" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U177" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>677</v>
       </c>
@@ -11983,7 +12485,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>678</v>
       </c>
@@ -12015,7 +12517,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>679</v>
       </c>
@@ -12038,7 +12540,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>680</v>
       </c>
@@ -12057,11 +12559,44 @@
       <c r="F181" t="s">
         <v>17</v>
       </c>
+      <c r="G181" t="b">
+        <v>0</v>
+      </c>
+      <c r="I181" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" t="b">
+        <v>1</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="M181" s="1">
+        <v>45768.432638888888</v>
+      </c>
+      <c r="N181" t="s">
+        <v>457</v>
+      </c>
+      <c r="O181" t="s">
+        <v>970</v>
+      </c>
+      <c r="P181" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>972</v>
+      </c>
+      <c r="R181" t="s">
+        <v>973</v>
+      </c>
+      <c r="S181" t="s">
+        <v>454</v>
+      </c>
       <c r="T181" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>681</v>
       </c>
@@ -12093,7 +12628,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>682</v>
       </c>
@@ -12116,7 +12651,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>683</v>
       </c>
@@ -12148,7 +12683,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>684</v>
       </c>
@@ -12180,7 +12715,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>686</v>
       </c>
@@ -12212,7 +12747,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>687</v>
       </c>
@@ -12244,7 +12779,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>688</v>
       </c>
@@ -12267,7 +12802,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>689</v>
       </c>
@@ -12290,7 +12825,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>690</v>
       </c>
@@ -12313,7 +12848,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>691</v>
       </c>
@@ -12330,7 +12865,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>692</v>
       </c>

--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5E7614D0-037E-1E4D-8FB8-1CF398D820CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D494CFB2-4067-454A-8C78-B0EDD4D85AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="13080" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
+    <workbookView xWindow="20560" yWindow="13100" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
   <sheets>
     <sheet name="bib_search_screen_start" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1003">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2943,6 +2943,93 @@
   </si>
   <si>
     <t>10.2147/IMCRJ.S386883</t>
+  </si>
+  <si>
+    <t>A 59-year-old female living in an intensive tertiary mental health facility</t>
+  </si>
+  <si>
+    <t>Department of Surgery, University of British Columbia</t>
+  </si>
+  <si>
+    <t>Vancouver, British Colubia, Canada</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijscr.2022.106931</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>A 12 years old male child presented to us with complaints of pain upper abdomen on and off for 2 months</t>
+  </si>
+  <si>
+    <t>King George’s Medical University</t>
+  </si>
+  <si>
+    <t>Lucknow, India</t>
+  </si>
+  <si>
+    <t>10.18203/2349-2902.isj20230996</t>
+  </si>
+  <si>
+    <t>a rare case of a 39-year-old man with schizophrenia who ingested a large number of sharp metal objects</t>
+  </si>
+  <si>
+    <t>10.1097/MS9.0000000000000497</t>
+  </si>
+  <si>
+    <t>Department of Gastroenterological Surgery, Tangshan Gongren Hospital</t>
+  </si>
+  <si>
+    <t>Tangshan, China</t>
+  </si>
+  <si>
+    <t>a case of surgically removing plenteous sharp-pointed metallic foreign bodies ingested by a young male deaf-mute bipolar schizoaffective patient from his stomach, intestine, and rectum</t>
+  </si>
+  <si>
+    <t>Department of Surgery, Fatemi Hospital, Ardabil University of Medical Sciences</t>
+  </si>
+  <si>
+    <t>Ardabil, Iran</t>
+  </si>
+  <si>
+    <t>10.1097/MS9.0000000000000377</t>
+  </si>
+  <si>
+    <t>Duplicate Study_ID == 439</t>
+  </si>
+  <si>
+    <t>Duplicate Study_ID == 545</t>
+  </si>
+  <si>
+    <t>10.2214/AJR.08.2148</t>
+  </si>
+  <si>
+    <t>"patient cannot recall the exact time of foreign body ingestion,"</t>
+  </si>
+  <si>
+    <t>Qureshi NA, Cherian N, Ben-Hamida A, Solkar MH</t>
+  </si>
+  <si>
+    <t>Unable to separate outcomes for multiple ingestions</t>
+  </si>
+  <si>
+    <t>10.4088/PCC.14l01719</t>
+  </si>
+  <si>
+    <t>Rodger, C.R.</t>
+  </si>
+  <si>
+    <t>Scottish Medical Journal</t>
+  </si>
+  <si>
+    <t>Kim, In Hee; Kim, Hyun Chul; Koh, Kang Hun; Kim, Seong Hun; Kim, Sang Wook; Lee, Seung Ok</t>
+  </si>
+  <si>
+    <t>Korean J Intern Med</t>
+  </si>
+  <si>
+    <t>10.3904/kjim.2007.22.2.106</t>
   </si>
 </sst>
 </file>
@@ -3813,12 +3900,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A81A345-0683-F840-B0F4-445E0232AC4D}">
-  <dimension ref="A1:U195"/>
+  <dimension ref="A1:U197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
+      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12670,15 +12757,39 @@
       <c r="F184" t="s">
         <v>17</v>
       </c>
+      <c r="G184" t="b">
+        <v>0</v>
+      </c>
+      <c r="I184" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" t="b">
+        <v>1</v>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
       <c r="M184" s="1">
-        <v>45761.590138888889</v>
-      </c>
-      <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-      <c r="S184" s="1"/>
+        <v>45768.5</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="P184" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q184" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="R184" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="S184" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T184" s="1" t="s">
         <v>448</v>
       </c>
@@ -12702,15 +12813,39 @@
       <c r="F185" t="s">
         <v>17</v>
       </c>
+      <c r="G185" t="b">
+        <v>0</v>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="b">
+        <v>1</v>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
       <c r="M185" s="1">
-        <v>45761.527395833335</v>
-      </c>
-      <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-      <c r="S185" s="1"/>
+        <v>45768.505555555559</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="P185" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="Q185" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="R185" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="S185" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T185" s="1" t="s">
         <v>448</v>
       </c>
@@ -12734,15 +12869,39 @@
       <c r="F186" t="s">
         <v>17</v>
       </c>
+      <c r="G186" t="b">
+        <v>0</v>
+      </c>
+      <c r="I186" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" t="b">
+        <v>1</v>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
       <c r="M186" s="1">
-        <v>45746.432546296295</v>
-      </c>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-      <c r="S186" s="1"/>
+        <v>45768.513888888891</v>
+      </c>
+      <c r="N186" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="P186" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q186" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="R186" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="S186" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T186" s="1" t="s">
         <v>448</v>
       </c>
@@ -12798,8 +12957,38 @@
       <c r="F188" t="s">
         <v>17</v>
       </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188">
+        <v>6</v>
+      </c>
+      <c r="M188" s="1">
+        <v>45768.51666666667</v>
+      </c>
+      <c r="N188" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O188" t="s">
+        <v>987</v>
+      </c>
+      <c r="P188" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q188" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="R188" t="s">
+        <v>990</v>
+      </c>
+      <c r="S188" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T188" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U188" s="1" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
@@ -12818,11 +13007,26 @@
       <c r="F189" t="s">
         <v>17</v>
       </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189">
+        <v>6</v>
+      </c>
       <c r="M189" s="1">
-        <v>45761.527615740742</v>
+        <v>45768.5</v>
+      </c>
+      <c r="N189" t="s">
+        <v>457</v>
+      </c>
+      <c r="S189" t="s">
+        <v>448</v>
       </c>
       <c r="T189" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U189" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.2">
@@ -12841,17 +13045,29 @@
       <c r="F190" t="s">
         <v>17</v>
       </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>6</v>
+      </c>
       <c r="M190" s="1">
         <v>45728.65116898148</v>
       </c>
       <c r="T190" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U190" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>691</v>
       </c>
+      <c r="B191">
+        <v>2009</v>
+      </c>
       <c r="C191" t="s">
         <v>627</v>
       </c>
@@ -12861,14 +13077,50 @@
       <c r="F191" t="s">
         <v>17</v>
       </c>
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191" t="b">
+        <v>0</v>
+      </c>
+      <c r="J191" t="b">
+        <v>1</v>
+      </c>
+      <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="M191" s="1">
+        <v>45768.520138888889</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R191" t="s">
+        <v>993</v>
+      </c>
+      <c r="S191" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T191" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U191" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>692</v>
       </c>
+      <c r="B192">
+        <v>2016</v>
+      </c>
+      <c r="C192" t="s">
+        <v>995</v>
+      </c>
       <c r="D192" t="s">
         <v>629</v>
       </c>
@@ -12882,10 +13134,13 @@
         <v>448</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>693</v>
       </c>
+      <c r="B193">
+        <v>2015</v>
+      </c>
       <c r="D193" t="s">
         <v>630</v>
       </c>
@@ -12895,20 +13150,56 @@
       <c r="F193" t="s">
         <v>17</v>
       </c>
+      <c r="G193" t="b">
+        <v>1</v>
+      </c>
+      <c r="H193">
+        <v>11</v>
+      </c>
+      <c r="I193" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" t="b">
+        <v>1</v>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
       <c r="M193" s="1">
-        <v>45761.607372685183</v>
+        <v>45768.529861111114</v>
+      </c>
+      <c r="N193" t="s">
+        <v>457</v>
+      </c>
+      <c r="R193" t="s">
+        <v>997</v>
+      </c>
+      <c r="S193" t="s">
+        <v>448</v>
       </c>
       <c r="T193" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U193" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>694</v>
       </c>
+      <c r="B194">
+        <v>1995</v>
+      </c>
+      <c r="C194" t="s">
+        <v>998</v>
+      </c>
       <c r="D194" t="s">
         <v>632</v>
       </c>
+      <c r="E194" t="s">
+        <v>999</v>
+      </c>
       <c r="F194" t="s">
         <v>17</v>
       </c>
@@ -12919,21 +13210,62 @@
         <v>448</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>695</v>
       </c>
+      <c r="B195">
+        <v>2007</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1000</v>
+      </c>
       <c r="D195" t="s">
         <v>633</v>
       </c>
+      <c r="E195" t="s">
+        <v>1001</v>
+      </c>
       <c r="F195" t="s">
         <v>17</v>
       </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195">
+        <v>9</v>
+      </c>
+      <c r="I195" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" t="b">
+        <v>0</v>
+      </c>
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
       <c r="M195" s="1">
-        <v>45761.590821759259</v>
+        <v>45768.537499999999</v>
+      </c>
+      <c r="N195" t="s">
+        <v>457</v>
+      </c>
+      <c r="R195" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S195" t="s">
+        <v>448</v>
       </c>
       <c r="T195" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U195" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F197">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
+++ b/input/raw_data/bibliography_search/bib_search_screen_end.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/bibliography_search/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D494CFB2-4067-454A-8C78-B0EDD4D85AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3B8CE424-AE83-F047-8AED-ABBE1C44BDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20560" yWindow="13100" windowWidth="20560" windowHeight="12220" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24440" xr2:uid="{2024F0F2-C7A4-0040-8726-2BCD36CB7E46}"/>
   </bookViews>
   <sheets>
     <sheet name="bib_search_screen_start" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="1053">
   <si>
     <t>Study_ID</t>
   </si>
@@ -3030,6 +3030,156 @@
   </si>
   <si>
     <t>10.3904/kjim.2007.22.2.106</t>
+  </si>
+  <si>
+    <t>This was a retrospective audit of a cluster of 12 incidents of DFBI in 4 female patients with Borderline Personality Disorder at a single hospital in Dunedin, New Zealand, over a 9 month period.</t>
+  </si>
+  <si>
+    <t>Dunedin, New Zealand</t>
+  </si>
+  <si>
+    <t>Single Hospital</t>
+  </si>
+  <si>
+    <t>10.4236/ojpsych.2014.42014</t>
+  </si>
+  <si>
+    <t>Does not report rates of endoscopy and surgery</t>
+  </si>
+  <si>
+    <t>10.2147/CEG.S63274</t>
+  </si>
+  <si>
+    <t>Survey of patient motivations for NSSI. Does not focus on iIFO.</t>
+  </si>
+  <si>
+    <t>10.3109/01612840.2014.927943</t>
+  </si>
+  <si>
+    <t>10.4103/0974-2700.125647</t>
+  </si>
+  <si>
+    <t>Reports outcomes for all GI presentation, not just IIFO.</t>
+  </si>
+  <si>
+    <t>number of 47 cases registered between 2003 and 2010 in “Rahova” Penitentiary Hospital</t>
+  </si>
+  <si>
+    <t>Rahova Penitentiary Hospital</t>
+  </si>
+  <si>
+    <t>Bucharest, Romania</t>
+  </si>
+  <si>
+    <t>Very difficult to extract data regarding outcomes of interest. Empirical data not given in tabular format and outcomes for subgroups given, but not who population. Exclude.</t>
+  </si>
+  <si>
+    <t>descriptive study including all detainees ingesting a razor blade, transferred from the prison to Farhat Hached University Hospital of Sousse, from January 1, 2014 to December 31, 2015</t>
+  </si>
+  <si>
+    <t>Farhat Hached University Hospital of Sousse</t>
+  </si>
+  <si>
+    <t>Sousse, Tunisia</t>
+  </si>
+  <si>
+    <t>10.9738/INTSURG-D-16-00204.1</t>
+  </si>
+  <si>
+    <t>recent history of foreign body ingestion or food bolus impaction were admitted over a 2-year period between December 2012 and December 2014, from the Emergency Room to the Emergency Digestive Endoscopy Service of University Hospital “Paolo Giaccone” in Palermo.</t>
+  </si>
+  <si>
+    <t>Emergency Digestive Endoscopy Service of University Hospital “Paolo Giaccone”</t>
+  </si>
+  <si>
+    <t>Palermo, Italy</t>
+  </si>
+  <si>
+    <t>10.1186/s12873-016-0104-3</t>
+  </si>
+  <si>
+    <t>10.1016/j.giec.2015.08.003</t>
+  </si>
+  <si>
+    <t>No mention of intention. 10/13 &lt; 4 years of age.</t>
+  </si>
+  <si>
+    <t>Focus on palliative psychiatry</t>
+  </si>
+  <si>
+    <t>10.1186/s12888-016-0970-y</t>
+  </si>
+  <si>
+    <t>10.1177/2050640618765804</t>
+  </si>
+  <si>
+    <t>10.3892/etm.2017.5561</t>
+  </si>
+  <si>
+    <t>10.4253/wjge.v12.i1.33</t>
+  </si>
+  <si>
+    <t>10.1055/a-1062-9011</t>
+  </si>
+  <si>
+    <t>Duplicate Study_ID == 375</t>
+  </si>
+  <si>
+    <t>10.12659/AJCR.934164</t>
+  </si>
+  <si>
+    <t>10.21037/atm-21-829</t>
+  </si>
+  <si>
+    <t>National Clinical Research Center for Digestive Diseases and Xijing Hospital of Digestive Diseases, Air Force Medical University,</t>
+  </si>
+  <si>
+    <t>Xi'an, Shaanxi, China</t>
+  </si>
+  <si>
+    <t>10.12659/MSM.936463</t>
+  </si>
+  <si>
+    <t>This retrospective study evaluated the 10-year experience of a single hospital in China performing emergency removal of ingested foreign bodies in 586 adults.</t>
+  </si>
+  <si>
+    <t>We reviewed charts of patients who underwent EGD for foreign body removal at an academic quaternary center between January 01, 2012, and December 31, 2020.</t>
+  </si>
+  <si>
+    <t>Emergency Medicine and Critical Care, University of Maryland School of Medicine,</t>
+  </si>
+  <si>
+    <t>Maryland, Baltimore, USA</t>
+  </si>
+  <si>
+    <t>10.7759/cureus.21929</t>
+  </si>
+  <si>
+    <t>10.1136/ bmjgast-2022-001087</t>
+  </si>
+  <si>
+    <t>A retrospective cohort study of patients with FBI was performed at a non-prison referral centre in Melbourne, Australia. International Classification of Disease-10 coding identified patients with gastrointestinal FBI over financial years 2018–2021. Exclusion criteria were food bolus, medication foreign body, object in anus or rectum, or non-ingestion. Criteria for ‘emergent’ classification were oesophagus, size &gt;6 cm, disc batteries, airway compromise, peritonitis, sepsis and/or suspected viscus perforation.</t>
+  </si>
+  <si>
+    <t>Non-prison referral centre</t>
+  </si>
+  <si>
+    <t>Melbourne, Australia</t>
+  </si>
+  <si>
+    <t>A 30‐year‐old gentleman attended the Accident and Emergency (A&amp;E) department at Tameside Hospital NHS Trust with a history of ingestion of mobile phone eight weeks earlier.</t>
+  </si>
+  <si>
+    <t>Tameside General Hospital NHS Trust</t>
+  </si>
+  <si>
+    <t>Ashton-under-Lyne, UK</t>
+  </si>
+  <si>
+    <t>Looks at repition rates after deliberate self-harm. No IIFO focus. Exclude.</t>
+  </si>
+  <si>
+    <t>10.1177/003693309504000104</t>
   </si>
 </sst>
 </file>
@@ -3900,12 +4050,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A81A345-0683-F840-B0F4-445E0232AC4D}">
-  <dimension ref="A1:U197"/>
+  <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4796,6 +4946,9 @@
       <c r="G18" t="b">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
@@ -6325,10 +6478,24 @@
       <c r="F51" t="s">
         <v>17</v>
       </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
       <c r="M51" s="1">
-        <v>45761.671203703707</v>
-      </c>
-      <c r="N51" s="1"/>
+        <v>45768.558333333334</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -6339,6 +6506,9 @@
       <c r="T51" s="1" t="s">
         <v>448</v>
       </c>
+      <c r="U51" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -6629,6 +6799,9 @@
       </c>
       <c r="G57" t="b">
         <v>1</v>
+      </c>
+      <c r="H57">
+        <v>9</v>
       </c>
       <c r="M57" s="1">
         <v>45764.474999999999</v>
@@ -9972,8 +10145,14 @@
       <c r="F121" t="s">
         <v>17</v>
       </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>9</v>
+      </c>
       <c r="M121" s="2">
-        <v>45765.577777777777</v>
+        <v>45768.560416666667</v>
       </c>
       <c r="N121" t="s">
         <v>512</v>
@@ -9986,6 +10165,9 @@
       </c>
       <c r="T121" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U121" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
@@ -10772,17 +10954,38 @@
       <c r="F136" t="s">
         <v>17</v>
       </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>10</v>
+      </c>
       <c r="M136" s="1">
-        <v>45761.552025462966</v>
-      </c>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1"/>
+        <v>45768.5625</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Q136" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="R136" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S136" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T136" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U136" s="1" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
@@ -10804,8 +11007,29 @@
       <c r="F137" t="s">
         <v>17</v>
       </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>9</v>
+      </c>
+      <c r="M137" s="1">
+        <v>45768.567361111112</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="R137" t="s">
+        <v>1008</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T137" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U137" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.2">
@@ -10827,8 +11051,26 @@
       <c r="F138" t="s">
         <v>17</v>
       </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="M138" s="1">
+        <v>45768.571527777778</v>
+      </c>
+      <c r="R138" t="s">
+        <v>1010</v>
+      </c>
+      <c r="S138" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T138" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U138" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.2">
@@ -10850,8 +11092,23 @@
       <c r="F139" t="s">
         <v>17</v>
       </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="M139" s="1">
+        <v>45768.572916666664</v>
+      </c>
+      <c r="R139" t="s">
+        <v>1011</v>
+      </c>
       <c r="T139" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U139" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
@@ -10873,6 +11130,36 @@
       <c r="F140" t="s">
         <v>17</v>
       </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>10</v>
+      </c>
+      <c r="M140" s="1">
+        <v>45768.574999999997</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O140" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P140" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>1015</v>
+      </c>
+      <c r="S140" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="T140" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U140" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A141">
@@ -10928,8 +11215,26 @@
       <c r="F142" t="s">
         <v>17</v>
       </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>5</v>
+      </c>
+      <c r="M142" s="1">
+        <v>45768.587500000001</v>
+      </c>
+      <c r="N142" t="s">
+        <v>512</v>
+      </c>
+      <c r="S142" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T142" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U142" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.2">
@@ -11394,8 +11699,26 @@
       <c r="F151" t="s">
         <v>17</v>
       </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>5</v>
+      </c>
+      <c r="M151" s="1">
+        <v>45768.588888888888</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="S151" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T151" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U151" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.2">
@@ -11417,15 +11740,39 @@
       <c r="F152" t="s">
         <v>17</v>
       </c>
+      <c r="G152" t="b">
+        <v>0</v>
+      </c>
+      <c r="I152" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" t="b">
+        <v>1</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
       <c r="M152" s="1">
         <v>45761.61246527778</v>
       </c>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
+      <c r="N152" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q152" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R152" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="S152" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T152" s="1" t="s">
         <v>448</v>
       </c>
@@ -11448,6 +11795,39 @@
       </c>
       <c r="F153" t="s">
         <v>17</v>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" t="b">
+        <v>1</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="M153" s="1">
+        <v>45768.613194444442</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O153" t="s">
+        <v>1021</v>
+      </c>
+      <c r="P153" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>1023</v>
+      </c>
+      <c r="R153" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>454</v>
       </c>
       <c r="T153" s="1" t="s">
         <v>448</v>
@@ -11580,17 +11960,41 @@
       <c r="F156" t="s">
         <v>17</v>
       </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>9</v>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="b">
+        <v>0</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
       <c r="M156" s="1">
-        <v>45761.453923611109</v>
-      </c>
-      <c r="N156" s="1"/>
+        <v>45768.618750000001</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>509</v>
+      </c>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
+      <c r="R156" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T156" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
@@ -11724,8 +12128,26 @@
       <c r="F159" t="s">
         <v>17</v>
       </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="M159" s="1">
+        <v>45768.620833333334</v>
+      </c>
+      <c r="R159" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S159" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T159" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U159" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
@@ -11856,8 +12278,14 @@
       <c r="F162" t="s">
         <v>17</v>
       </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162">
+        <v>9</v>
+      </c>
       <c r="M162" s="1">
-        <v>45761.584166666667</v>
+        <v>45768.623611111114</v>
       </c>
       <c r="N162" s="1" t="s">
         <v>472</v>
@@ -11868,9 +12296,14 @@
       <c r="R162" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="S162" s="1"/>
+      <c r="S162" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T162" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
@@ -12054,6 +12487,30 @@
       <c r="F166" t="s">
         <v>17</v>
       </c>
+      <c r="G166" t="b">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>9</v>
+      </c>
+      <c r="I166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" s="1">
+        <v>45768.626388888886</v>
+      </c>
+      <c r="R166" t="s">
+        <v>1029</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T166" s="1" t="s">
         <v>448</v>
       </c>
@@ -12118,8 +12575,35 @@
       <c r="F168" t="s">
         <v>17</v>
       </c>
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>9</v>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="b">
+        <v>0</v>
+      </c>
+      <c r="K168" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" s="1">
+        <v>45768.627083333333</v>
+      </c>
+      <c r="R168" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T168" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U168" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
@@ -12301,8 +12785,35 @@
       <c r="F172" t="s">
         <v>17</v>
       </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>9</v>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" s="1">
+        <v>45768.629861111112</v>
+      </c>
+      <c r="R172" t="s">
+        <v>1031</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T172" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U172" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
@@ -12371,8 +12882,35 @@
       <c r="F174" t="s">
         <v>17</v>
       </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>9</v>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="b">
+        <v>0</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="M174" s="1">
+        <v>45768.633333333331</v>
+      </c>
+      <c r="R174" t="s">
+        <v>1032</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T174" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U174" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
@@ -12559,17 +13097,32 @@
       <c r="F178" t="s">
         <v>17</v>
       </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>6</v>
+      </c>
       <c r="M178" s="1">
-        <v>45761.53769675926</v>
-      </c>
-      <c r="N178" s="1"/>
+        <v>45768.634722222225</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
+      <c r="R178" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T178" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U178" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
@@ -12591,17 +13144,39 @@
       <c r="F179" t="s">
         <v>17</v>
       </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>9</v>
+      </c>
+      <c r="I179" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" t="b">
+        <v>0</v>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
       <c r="M179" s="1">
-        <v>45746.438900462963</v>
+        <v>45768.636111111111</v>
       </c>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
+      <c r="R179" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T179" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U179" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
@@ -12623,6 +13198,39 @@
       <c r="F180" t="s">
         <v>17</v>
       </c>
+      <c r="G180" t="b">
+        <v>0</v>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="b">
+        <v>1</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="M180" s="2">
+        <v>45768.643750000003</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O180" t="s">
+        <v>1039</v>
+      </c>
+      <c r="P180" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R180" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T180" s="1" t="s">
         <v>448</v>
       </c>
@@ -12702,15 +13310,23 @@
       <c r="F182" t="s">
         <v>17</v>
       </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>2</v>
+      </c>
       <c r="M182" s="1">
-        <v>45761.526678240742</v>
+        <v>45768.647916666669</v>
       </c>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
-      <c r="S182" s="1"/>
+      <c r="S182" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T182" s="1" t="s">
         <v>448</v>
       </c>
@@ -12734,6 +13350,39 @@
       <c r="F183" t="s">
         <v>17</v>
       </c>
+      <c r="G183" t="b">
+        <v>0</v>
+      </c>
+      <c r="I183" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" t="b">
+        <v>1</v>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="M183" s="1">
+        <v>45768.65</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O183" t="s">
+        <v>1040</v>
+      </c>
+      <c r="P183" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>1042</v>
+      </c>
+      <c r="R183" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T183" s="1" t="s">
         <v>448</v>
       </c>
@@ -12925,15 +13574,39 @@
       <c r="F187" t="s">
         <v>17</v>
       </c>
+      <c r="G187" t="b">
+        <v>0</v>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="b">
+        <v>1</v>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
       <c r="M187" s="1">
         <v>45746.431377314817</v>
       </c>
-      <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
-      <c r="S187" s="1"/>
+      <c r="N187" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P187" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Q187" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="R187" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S187" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="T187" s="1" t="s">
         <v>448</v>
       </c>
@@ -13054,6 +13727,9 @@
       <c r="M190" s="1">
         <v>45728.65116898148</v>
       </c>
+      <c r="S190" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="T190" s="1" t="s">
         <v>448</v>
       </c>
@@ -13127,8 +13803,35 @@
       <c r="F192" t="s">
         <v>17</v>
       </c>
+      <c r="G192" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" t="b">
+        <v>1</v>
+      </c>
+      <c r="K192" t="b">
+        <v>1</v>
+      </c>
       <c r="M192" s="1">
-        <v>45761.581562500003</v>
+        <v>45768.671527777777</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O192" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P192" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>1050</v>
+      </c>
+      <c r="S192" t="s">
+        <v>454</v>
       </c>
       <c r="T192" s="1" t="s">
         <v>448</v>
@@ -13203,11 +13906,26 @@
       <c r="F194" t="s">
         <v>17</v>
       </c>
+      <c r="G194" t="b">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
       <c r="M194" s="1">
-        <v>45728.646597222221</v>
+        <v>45768.674305555556</v>
+      </c>
+      <c r="R194" t="s">
+        <v>1052</v>
+      </c>
+      <c r="S194" t="s">
+        <v>448</v>
       </c>
       <c r="T194" s="1" t="s">
         <v>448</v>
+      </c>
+      <c r="U194" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.2">
@@ -13261,11 +13979,6 @@
       </c>
       <c r="U195" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F197">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
